--- a/bd/tablas_hotel_v001.xlsx
+++ b/bd/tablas_hotel_v001.xlsx
@@ -5,31 +5,32 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\xampp\htdocs\myProyectos\soloHotel\turismoHotel\adminHotel\bd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\xampp\htdocs\myProyectos\soloHotel\turismo\turismo\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB360C3-6808-42C4-9B8E-EEC64BB828AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A1C2C-8504-4B11-842B-69C4530361FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" activeTab="6" xr2:uid="{CF4CA555-11F5-48C1-87C5-C06FB9E7B6A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" activeTab="4" xr2:uid="{CF4CA555-11F5-48C1-87C5-C06FB9E7B6A2}"/>
   </bookViews>
   <sheets>
     <sheet name="tablas_transversales" sheetId="6" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="14" r:id="rId2"/>
     <sheet name="estructurasTablas_transversales" sheetId="7" r:id="rId3"/>
     <sheet name="tablarelaciones" sheetId="10" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="18" r:id="rId5"/>
-    <sheet name="tablas_hotel" sheetId="3" r:id="rId6"/>
-    <sheet name="estructuras_datos_organizacion" sheetId="8" r:id="rId7"/>
-    <sheet name="Hoja5" sheetId="16" r:id="rId8"/>
-    <sheet name="estructuras_datos_hab_x_piso" sheetId="15" r:id="rId9"/>
-    <sheet name="Hoja3" sheetId="9" r:id="rId10"/>
-    <sheet name="pruebas" sheetId="17" r:id="rId11"/>
-    <sheet name="datos_mostrar_hotel" sheetId="12" r:id="rId12"/>
-    <sheet name="tablas cabaña" sheetId="4" state="hidden" r:id="rId13"/>
-    <sheet name="tablas_camping" sheetId="5" state="hidden" r:id="rId14"/>
+    <sheet name="Hoja4" sheetId="19" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="18" r:id="rId6"/>
+    <sheet name="tablas_hotel" sheetId="3" r:id="rId7"/>
+    <sheet name="estructuras_datos_organizacion" sheetId="8" r:id="rId8"/>
+    <sheet name="Hoja5" sheetId="16" r:id="rId9"/>
+    <sheet name="estructuras_datos_hab_x_piso" sheetId="15" r:id="rId10"/>
+    <sheet name="Hoja3" sheetId="9" r:id="rId11"/>
+    <sheet name="pruebas" sheetId="17" r:id="rId12"/>
+    <sheet name="datos_mostrar_hotel" sheetId="12" r:id="rId13"/>
+    <sheet name="tablas cabaña" sheetId="4" state="hidden" r:id="rId14"/>
+    <sheet name="tablas_camping" sheetId="5" state="hidden" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">pruebas!$B$34:$I$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">pruebas!$B$34:$I$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1813,7 +1814,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="693">
   <si>
     <t>id_serv</t>
   </si>
@@ -4031,6 +4032,21 @@
   `rutaImagen`              varchar(100) DEFAULT '',
   `status`                        tinyint  not null DEFAULT 1
 ) ENGINE=InnoDB DEFAULT CHARSET=latin1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Intercontinental es un hotel de lujo situado en la playa de Bocagrande, una de las zonas más conocidas de Cartagena. El establecimiento alberga un restaurante, un bar moderno en la azotea y un centro de spa y bienestar.
+Las habitaciones son amplias y tienen una decoración elegante. Todas incluyen aire acondicionado, TV de pantalla plana, zona de estar y minibar. Algunas ofrecen vistas magníficas al mar Caribe o a la bahía de Cartagena.
+El bar del hotel, situado en la terraza de la azotea, sirve cerveza y cócteles de distintos tipos. A menos de 200 metros hay varios restaurantes.
+El Intercontinental Cartagena cuenta con piscina al aire libre y organiza actividades de animación en directo por la noche. El centro comercial de Bocagrande está a 850 metros.
+El hotel está a 10 minutos en coche de la ciudad amurallada y a 20 minutos en coche del aeropuerto internacional Rafael Núñez. El establecimiento ofrece un servicio de aparcacoches.
+A las parejas les encanta la ubicación — Le han puesto un 9,1 para viajes de dos personas. </t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>texto
+Por cada tabla de relacion</t>
   </si>
 </sst>
 </file>
@@ -4284,7 +4300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -4776,12 +4792,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5196,6 +5243,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5382,8 +5432,28 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5950,8 +6020,8 @@
   </sheetPr>
   <dimension ref="A1:AH112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I17" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView showGridLines="0" topLeftCell="D103" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5986,26 +6056,26 @@
       </c>
       <c r="E1" s="131"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="177" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="171" t="s">
+      <c r="L1" s="172" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="172"/>
-      <c r="O1" s="170" t="s">
+      <c r="M1" s="173"/>
+      <c r="O1" s="171" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
@@ -6172,11 +6242,11 @@
       </c>
       <c r="AG4" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH4" s="106" t="str">
         <f t="shared" ref="AH4:AH22" ca="1" si="1">_xlfn.CONCAT("'"&amp;AF4,IF(AF4=AG4,"","-"&amp;AG4))</f>
-        <v>'4</v>
+        <v>'4-2</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -6226,15 +6296,15 @@
       </c>
       <c r="AF5" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG5" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'3-6</v>
+        <v>'4-1</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -6285,15 +6355,15 @@
       </c>
       <c r="AF6" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG6" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH6" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'4-3</v>
+        <v>'3-5</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -6341,11 +6411,11 @@
       </c>
       <c r="Y7" s="97">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z7" s="97">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AA7" s="97" t="str">
         <f ca="1">IF(RANDBETWEEN(1,2)=1,"",RANDBETWEEN(1,20))</f>
@@ -6353,7 +6423,7 @@
       </c>
       <c r="AB7" s="97" t="str">
         <f ca="1">_xlfn.CONCAT("'",Z7,"-",Y7,IF(AA7="","","-"),AA7,"'")</f>
-        <v>'2-1'</v>
+        <v>'11-3'</v>
       </c>
       <c r="AC7" s="97"/>
       <c r="AD7" s="98" t="s">
@@ -6368,11 +6438,11 @@
       </c>
       <c r="AG7" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH7" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'2-1</v>
+        <v>'2-6</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -6412,11 +6482,11 @@
       </c>
       <c r="Y8" s="97">
         <f t="shared" ref="Y8:Z27" ca="1" si="2">RANDBETWEEN(1,20)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="Z8" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AA8" s="97" t="str">
         <f t="shared" ref="AA8:AA27" ca="1" si="3">IF(RANDBETWEEN(1,2)=1,"",RANDBETWEEN(1,20))</f>
@@ -6424,7 +6494,7 @@
       </c>
       <c r="AB8" s="97" t="str">
         <f t="shared" ref="AB8:AB27" ca="1" si="4">_xlfn.CONCAT("'",Z8,"-",Y8,IF(AA8="","","-"),AA8,"'")</f>
-        <v>'4-2'</v>
+        <v>'17-19'</v>
       </c>
       <c r="AC8" s="97"/>
       <c r="AD8" s="99" t="s">
@@ -6435,15 +6505,15 @@
       </c>
       <c r="AF8" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG8" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH8" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'1-5</v>
+        <v>'3-1</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -6485,19 +6555,19 @@
       </c>
       <c r="Y9" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="AA9" s="97">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v/>
       </c>
       <c r="AB9" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'11-4-18'</v>
+        <v>'6-1'</v>
       </c>
       <c r="AC9" s="97"/>
       <c r="AD9" s="99" t="s">
@@ -6508,15 +6578,15 @@
       </c>
       <c r="AF9" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH9" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'4-3</v>
+        <v>'1-4</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -6525,25 +6595,25 @@
       </c>
       <c r="E10" s="118" t="str">
         <f ca="1">_xlfn.CONCAT("servicio ",RANDBETWEEN(1200,5000)," abc ",RANDBETWEEN(10000,90000))</f>
-        <v>servicio 2794 abc 58852</v>
+        <v>servicio 1473 abc 14100</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="Y10" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Z10" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA10" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB10" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'4-18-17'</v>
+        <v>'7-8-11'</v>
       </c>
       <c r="AC10" s="97"/>
       <c r="AD10" s="98" t="s">
@@ -6571,24 +6641,24 @@
       </c>
       <c r="E11" s="118" t="str">
         <f t="shared" ref="E11:E23" ca="1" si="5">_xlfn.CONCAT("servicio ",RANDBETWEEN(1200,5000)," abc ",RANDBETWEEN(10000,90000))</f>
-        <v>servicio 4620 abc 75810</v>
+        <v>servicio 1419 abc 18545</v>
       </c>
       <c r="H11" s="4"/>
       <c r="Y11" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z11" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AA11" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AB11" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'20-7-7'</v>
+        <v>'5-9-13'</v>
       </c>
       <c r="AC11" s="97"/>
       <c r="AD11" s="99" t="s">
@@ -6599,15 +6669,15 @@
       </c>
       <c r="AF11" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG11" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH11" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'6-4</v>
+        <v>'3</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -6616,29 +6686,29 @@
       </c>
       <c r="E12" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3216 abc 59751</v>
+        <v>servicio 3095 abc 36145</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="171" t="s">
+      <c r="I12" s="172" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="172"/>
+      <c r="J12" s="173"/>
       <c r="Y12" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA12" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AB12" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'15-12-5'</v>
+        <v>'12-3-19'</v>
       </c>
       <c r="AC12" s="97"/>
       <c r="AD12" s="99" t="s">
@@ -6649,15 +6719,15 @@
       </c>
       <c r="AF12" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG12" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'4-5</v>
+        <v>'2-1</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -6666,7 +6736,7 @@
       </c>
       <c r="E13" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 2076 abc 21714</v>
+        <v>servicio 4214 abc 78708</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>177</v>
@@ -6676,11 +6746,11 @@
       </c>
       <c r="Y13" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z13" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6688,7 +6758,7 @@
       </c>
       <c r="AB13" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'13-17'</v>
+        <v>'5-20'</v>
       </c>
       <c r="AC13" s="97"/>
       <c r="AD13" s="98" t="s">
@@ -6699,15 +6769,15 @@
       </c>
       <c r="AF13" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG13" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH13" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'3-6</v>
+        <v>'4-2</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -6716,7 +6786,7 @@
       </c>
       <c r="E14" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 4328 abc 21808</v>
+        <v>servicio 4380 abc 27676</v>
       </c>
       <c r="I14" s="114">
         <v>1</v>
@@ -6745,11 +6815,11 @@
       </c>
       <c r="Y14" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z14" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AA14" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6757,7 +6827,7 @@
       </c>
       <c r="AB14" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'5-8'</v>
+        <v>'14-17'</v>
       </c>
       <c r="AC14" s="97"/>
       <c r="AD14" s="99" t="s">
@@ -6768,15 +6838,15 @@
       </c>
       <c r="AF14" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH14" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'4</v>
+        <v>'5-2</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -6785,7 +6855,7 @@
       </c>
       <c r="E15" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 1482 abc 63305</v>
+        <v>servicio 4071 abc 45984</v>
       </c>
       <c r="I15" s="114">
         <v>2</v>
@@ -6816,11 +6886,11 @@
       </c>
       <c r="Y15" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z15" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA15" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6828,7 +6898,7 @@
       </c>
       <c r="AB15" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'10-18'</v>
+        <v>'14-9'</v>
       </c>
       <c r="AC15" s="97"/>
       <c r="AD15" s="99" t="s">
@@ -6856,7 +6926,7 @@
       </c>
       <c r="E16" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3100 abc 14531</v>
+        <v>servicio 2746 abc 78494</v>
       </c>
       <c r="I16" s="114">
         <v>3</v>
@@ -6891,19 +6961,19 @@
       </c>
       <c r="Y16" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA16" s="97" t="str">
+        <v>17</v>
+      </c>
+      <c r="AA16" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AB16" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'1-20'</v>
+        <v>'17-1-3'</v>
       </c>
       <c r="AC16" s="97"/>
       <c r="AD16" s="99" t="s">
@@ -6931,7 +7001,7 @@
       </c>
       <c r="E17" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3775 abc 45059</v>
+        <v>servicio 1948 abc 73311</v>
       </c>
       <c r="I17" s="114">
         <v>4</v>
@@ -6969,19 +7039,19 @@
       </c>
       <c r="Y17" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AA17" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB17" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'5-9-17'</v>
+        <v>'19-1-19'</v>
       </c>
       <c r="AC17" s="97"/>
       <c r="AD17" s="99" t="s">
@@ -6992,15 +7062,15 @@
       </c>
       <c r="AF17" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH17" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'1</v>
+        <v>'3</v>
       </c>
     </row>
     <row r="18" spans="4:34" x14ac:dyDescent="0.25">
@@ -7009,7 +7079,7 @@
       </c>
       <c r="E18" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 4924 abc 76180</v>
+        <v>servicio 3934 abc 25156</v>
       </c>
       <c r="I18" s="114">
         <v>5</v>
@@ -7049,19 +7119,19 @@
       </c>
       <c r="Y18" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z18" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AB18" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'19-14-6'</v>
+        <v>'1-13-15'</v>
       </c>
       <c r="AC18" s="97"/>
       <c r="AD18" s="99" t="s">
@@ -7072,15 +7142,15 @@
       </c>
       <c r="AF18" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH18" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'5</v>
+        <v>'1-6</v>
       </c>
     </row>
     <row r="19" spans="4:34" x14ac:dyDescent="0.25">
@@ -7089,7 +7159,7 @@
       </c>
       <c r="E19" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 1636 abc 88937</v>
+        <v>servicio 3032 abc 89233</v>
       </c>
       <c r="I19" s="114">
         <v>6</v>
@@ -7129,19 +7199,19 @@
       </c>
       <c r="Y19" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Z19" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AA19" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'14-18-19'</v>
+        <v>'11-11-2'</v>
       </c>
       <c r="AC19" s="97"/>
       <c r="AD19" s="99" t="s">
@@ -7152,15 +7222,15 @@
       </c>
       <c r="AF19" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG19" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH19" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'3-1</v>
+        <v>'5-3</v>
       </c>
     </row>
     <row r="20" spans="4:34" x14ac:dyDescent="0.25">
@@ -7169,7 +7239,7 @@
       </c>
       <c r="E20" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 2073 abc 60256</v>
+        <v>servicio 3768 abc 57023</v>
       </c>
       <c r="I20" s="114">
         <v>7</v>
@@ -7209,19 +7279,19 @@
       </c>
       <c r="Y20" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AA20" s="97" t="str">
+        <v>15</v>
+      </c>
+      <c r="AA20" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="AB20" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'6-1'</v>
+        <v>'15-2-15'</v>
       </c>
       <c r="AC20" s="97"/>
       <c r="AD20" s="99" t="s">
@@ -7232,15 +7302,15 @@
       </c>
       <c r="AF20" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG20" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH20" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'5-6</v>
+        <v>'6-2</v>
       </c>
     </row>
     <row r="21" spans="4:34" x14ac:dyDescent="0.25">
@@ -7249,7 +7319,7 @@
       </c>
       <c r="E21" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3672 abc 83661</v>
+        <v>servicio 3759 abc 79258</v>
       </c>
       <c r="I21" s="114">
         <v>8</v>
@@ -7289,19 +7359,19 @@
       </c>
       <c r="Y21" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Z21" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="AA21" s="97" t="str">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AB21" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'6-14'</v>
+        <v>'3-9-5'</v>
       </c>
       <c r="AC21" s="97"/>
       <c r="AD21" s="99" t="s">
@@ -7312,15 +7382,15 @@
       </c>
       <c r="AF21" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH21" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'3-2</v>
+        <v>'1-4</v>
       </c>
     </row>
     <row r="22" spans="4:34" x14ac:dyDescent="0.25">
@@ -7329,7 +7399,7 @@
       </c>
       <c r="E22" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3946 abc 63033</v>
+        <v>servicio 3762 abc 37461</v>
       </c>
       <c r="I22" s="114">
         <v>9</v>
@@ -7369,19 +7439,19 @@
       </c>
       <c r="Y22" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Z22" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AA22" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AB22" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'4-17-20'</v>
+        <v>'13-8-8'</v>
       </c>
       <c r="AC22" s="97"/>
       <c r="AD22" s="99" t="s">
@@ -7392,15 +7462,15 @@
       </c>
       <c r="AF22" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG22" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'2-4</v>
+        <v>'4-1</v>
       </c>
     </row>
     <row r="23" spans="4:34" x14ac:dyDescent="0.25">
@@ -7409,7 +7479,7 @@
       </c>
       <c r="E23" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 4173 abc 54246</v>
+        <v>servicio 1795 abc 33057</v>
       </c>
       <c r="I23" s="114">
         <v>10</v>
@@ -7447,19 +7517,19 @@
       </c>
       <c r="Y23" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Z23" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="AA23" s="97" t="str">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AB23" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'2-18'</v>
+        <v>'4-5-5'</v>
       </c>
       <c r="AC23" s="97"/>
       <c r="AD23" s="97" t="s">
@@ -7506,11 +7576,11 @@
       </c>
       <c r="Y24" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Z24" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA24" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7518,7 +7588,7 @@
       </c>
       <c r="AB24" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'8-12'</v>
+        <v>'10-8'</v>
       </c>
       <c r="AC24" s="97"/>
       <c r="AD24" s="97" t="s">
@@ -7566,19 +7636,19 @@
       </c>
       <c r="Y25" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Z25" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="AA25" s="97">
+        <v>9</v>
+      </c>
+      <c r="AA25" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v/>
       </c>
       <c r="AB25" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'14-14-17'</v>
+        <v>'9-10'</v>
       </c>
       <c r="AC25" s="97"/>
       <c r="AD25" s="97" t="s">
@@ -7626,19 +7696,19 @@
       </c>
       <c r="Y26" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z26" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AA26" s="97">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AB26" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'9-14-1'</v>
+        <v>'4-12'</v>
       </c>
       <c r="AC26" s="97"/>
       <c r="AD26" s="97" t="s">
@@ -7686,19 +7756,19 @@
       </c>
       <c r="Y27" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Z27" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="AA27" s="97">
+        <v>7</v>
+      </c>
+      <c r="AA27" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v/>
       </c>
       <c r="AB27" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'20-2-11'</v>
+        <v>'7-14'</v>
       </c>
       <c r="AC27" s="97"/>
       <c r="AD27" s="100" t="s">
@@ -7918,13 +7988,13 @@
       </c>
     </row>
     <row r="34" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E34" s="173" t="s">
+      <c r="E34" s="174" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="176"/>
       <c r="J34" s="5"/>
       <c r="L34" s="101">
         <v>18</v>
@@ -9946,6 +10016,645 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFDD804-F46B-4A05-8EEA-33E720F59844}">
+  <dimension ref="B3:L37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="227" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="141" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="79" t="str">
+        <f>CONCATENATE("dir",D5,"/imgHab/")</f>
+        <v>dir1-01/imgHab/</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="119" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="79" t="str">
+        <f t="shared" ref="J6:J13" si="0">CONCATENATE("dir",D6,"/imgHab/")</f>
+        <v>dir1-02/imgHab/</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="119" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" s="79" t="str">
+        <f t="shared" si="0"/>
+        <v>dir1-03/imgHab/</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="141" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="J8" s="79" t="str">
+        <f t="shared" si="0"/>
+        <v>dir1-04/imgHab/</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="119" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="79" t="str">
+        <f t="shared" si="0"/>
+        <v>dir2-01/imgHab/</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="119" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="79" t="str">
+        <f t="shared" si="0"/>
+        <v>dir2-02/imgHab/</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="J11" s="79" t="str">
+        <f t="shared" si="0"/>
+        <v>dir2-03/imgHab/</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="119" t="s">
+        <v>237</v>
+      </c>
+      <c r="J12" s="79" t="str">
+        <f t="shared" si="0"/>
+        <v>dir2-04/imgHab/</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="141" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="119" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="79" t="str">
+        <f t="shared" si="0"/>
+        <v>dir1-01/imgHab/</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G23" si="1">$E$15&amp;B5&amp;"  ,  "&amp;C5&amp;"  ,  '"&amp;D5&amp;"'  ,  "&amp;E5&amp;"  ,  '"&amp;F5&amp;"'  ,  '"&amp;G5&amp;"'  ,  '"&amp;I5&amp;"'  ,  '"&amp;J5&amp;"'  ,  '"&amp;K5&amp;"'  ,  "&amp;L5&amp;");"</f>
+        <v>insert into `tbHabitacionXpiso`  values(1  ,  1  ,  '1-01'  ,  24  ,  '01-02-03-04-06-09-11'  ,  '1-1-1-1-3-2-1'  ,  '04-05-06'  ,  'dir1-01/imgHab/'  ,  '01-02-03'  ,  1);</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="80" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="226" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="226"/>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into `tbHabitacionXpiso`  values(2  ,  1  ,  '1-02'  ,  26  ,  '02-03-04-06-09-11'  ,  '1-1-1-1-3-2-2'  ,  '04-06'  ,  'dir1-02/imgHab/'  ,  '01-03-04'  ,  1);</v>
+      </c>
+      <c r="I16" s="71"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into `tbHabitacionXpiso`  values(3  ,  1  ,  '1-03'  ,  30  ,  '01-03-04-06-09-11'  ,  '1-1-1-1-3-2-3'  ,  '04-05-07'  ,  'dir1-03/imgHab/'  ,  '01-02-05'  ,  1);</v>
+      </c>
+      <c r="I17" s="71"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into `tbHabitacionXpiso`  values(4  ,  1  ,  '1-04'  ,  24  ,  '01-02-03-04-09-11'  ,  '1-1-1-1-3-2-4'  ,  '04-07'  ,  'dir1-04/imgHab/'  ,  '01-02-06'  ,  1);</v>
+      </c>
+      <c r="I18" s="71"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into `tbHabitacionXpiso`  values(5  ,  1  ,  '2-01'  ,  26  ,  '01-03-04-05-06-09'  ,  '1-1-1-1-3-2-5'  ,  '04-05-08'  ,  'dir2-01/imgHab/'  ,  '01-02-07'  ,  1);</v>
+      </c>
+      <c r="I19" s="71"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into `tbHabitacionXpiso`  values(6  ,  1  ,  '2-02'  ,  30  ,  '01-02-03-04-06-09'  ,  '1-1-1-1-3-2-6'  ,  '04-08'  ,  'dir2-02/imgHab/'  ,  '01-02-03'  ,  1);</v>
+      </c>
+      <c r="I20" s="71"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="226"/>
+      <c r="F21" s="226"/>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into `tbHabitacionXpiso`  values(7  ,  1  ,  '2-03'  ,  24  ,  '01-02-03-04-06-10'  ,  '1-1-1-1-3-2-7'  ,  '04-05-09'  ,  'dir2-03/imgHab/'  ,  '01-03-04'  ,  1);</v>
+      </c>
+      <c r="I21" s="71"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into `tbHabitacionXpiso`  values(8  ,  1  ,  '2-04'  ,  26  ,  '01-02-03-04-06-10'  ,  '1-1-1-1-3-2-8'  ,  '04-09'  ,  'dir2-04/imgHab/'  ,  '01-02-05'  ,  1);</v>
+      </c>
+      <c r="I22" s="71"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into `tbHabitacionXpiso`  values(9  ,  2  ,  '1-01'  ,  30  ,  '01-03-04-05'  ,  '2-1-1-1'  ,  '04-05-10'  ,  'dir1-01/imgHab/'  ,  '01-02-06'  ,  1);</v>
+      </c>
+      <c r="I23" s="71"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="226"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E26" s="226"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="226"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="E16:F28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EE7B30-3E55-4273-B417-4A32BBD0C11B}">
   <dimension ref="E6:X16"/>
   <sheetViews>
@@ -10074,7 +10783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBACC21-DEAF-453A-83BA-3CBC302F75B2}">
   <dimension ref="B2:AB61"/>
   <sheetViews>
@@ -10176,7 +10885,7 @@
       </c>
       <c r="J3" s="1" t="str">
         <f ca="1">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero155@correo.com</v>
+        <v>correohotelnumero173@correo.com</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ref="K3:K8" si="0">COUNT(D35:I35)</f>
@@ -10224,7 +10933,7 @@
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" ref="J4:J16" ca="1" si="2">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero104@correo.com</v>
+        <v>correohotelnumero144@correo.com</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="0"/>
@@ -10266,7 +10975,7 @@
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero181@correo.com</v>
+        <v>correohotelnumero150@correo.com</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" si="0"/>
@@ -10308,7 +11017,7 @@
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero115@correo.com</v>
+        <v>correohotelnumero108@correo.com</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="0"/>
@@ -10350,7 +11059,7 @@
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero145@correo.com</v>
+        <v>correohotelnumero177@correo.com</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="0"/>
@@ -10392,7 +11101,7 @@
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero158@correo.com</v>
+        <v>correohotelnumero177@correo.com</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="0"/>
@@ -10434,7 +11143,7 @@
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero158@correo.com</v>
+        <v>correohotelnumero123@correo.com</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ref="K9:K10" si="4">COUNT(M44:R44)</f>
@@ -10475,7 +11184,7 @@
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero126@correo.com</v>
+        <v>correohotelnumero174@correo.com</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="4"/>
@@ -10516,7 +11225,7 @@
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero120@correo.com</v>
+        <v>correohotelnumero143@correo.com</v>
       </c>
       <c r="K11" s="8">
         <f>COUNT(M34:R34)</f>
@@ -10557,7 +11266,7 @@
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero174@correo.com</v>
+        <v>correohotelnumero131@correo.com</v>
       </c>
       <c r="K12" s="8">
         <v>0</v>
@@ -10597,7 +11306,7 @@
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero132@correo.com</v>
+        <v>correohotelnumero127@correo.com</v>
       </c>
       <c r="K13" s="8">
         <v>0</v>
@@ -10637,7 +11346,7 @@
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero193@correo.com</v>
+        <v>correohotelnumero184@correo.com</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -10677,7 +11386,7 @@
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero188@correo.com</v>
+        <v>correohotelnumero165@correo.com</v>
       </c>
       <c r="K15" s="8">
         <v>0</v>
@@ -10717,7 +11426,7 @@
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero168@correo.com</v>
+        <v>correohotelnumero179@correo.com</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
@@ -11539,7 +12248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DCB97-74D3-4ACB-87A6-69B9BF3E5DAD}">
   <dimension ref="C3:L9"/>
   <sheetViews>
@@ -11657,7 +12366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996F2876-973E-45BD-95B1-FAE0473DDAA1}">
   <sheetPr codeName="Hoja4">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -11680,28 +12389,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="K1" s="229" t="s">
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="K1" s="230" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="230"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="231"/>
+      <c r="O1" s="231"/>
+      <c r="P1" s="231"/>
+      <c r="Q1" s="231"/>
+      <c r="R1" s="231"/>
+      <c r="S1" s="231"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -11841,12 +12550,12 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K7" s="228" t="s">
+      <c r="K7" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K8" s="2" t="s">
@@ -11945,7 +12654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC29E195-A85C-4BC3-AC4A-6A2B0756BC03}">
   <sheetPr codeName="Hoja5">
     <tabColor rgb="FFFF0000"/>
@@ -11962,26 +12671,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="228" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="K1" s="231" t="s">
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="K1" s="232" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
+      <c r="R1" s="232"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12086,12 +12795,12 @@
       <c r="R5" s="19"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K7" s="228" t="s">
+      <c r="K7" s="229" t="s">
         <v>125</v>
       </c>
-      <c r="L7" s="228"/>
-      <c r="M7" s="228"/>
-      <c r="N7" s="228"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K8" s="2" t="s">
@@ -12179,7 +12888,7 @@
       </c>
       <c r="F5" t="str">
         <f ca="1">CONCATENATE("Acceso con-",VLOOKUP(RANDBETWEEN(1,7),$B$9:$C$15,2,FALSE),"-",MID($C$5,$D$5-RANDBETWEEN(1,$D$5),2),"-",RANDBETWEEN(1,5))</f>
-        <v>Acceso con-entrada-TU-1</v>
+        <v>Acceso con-pasadizo-XY-5</v>
       </c>
       <c r="H5" t="s">
         <v>437</v>
@@ -12188,7 +12897,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F6" t="str">
         <f t="shared" ref="F6:F18" ca="1" si="0">CONCATENATE("Acceso con-",VLOOKUP(RANDBETWEEN(1,7),$B$9:$C$15,2,FALSE),"-",MID($C$5,$D$5-RANDBETWEEN(1,$D$5),2),"-",RANDBETWEEN(1,5))</f>
-        <v>Acceso con-camino-MN-2</v>
+        <v>Acceso con-entrada-ST-3</v>
       </c>
       <c r="H6" t="s">
         <v>438</v>
@@ -12204,7 +12913,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-camino-NO-1</v>
+        <v>Acceso con-paso-LM-2</v>
       </c>
       <c r="H7" t="s">
         <v>439</v>
@@ -12213,7 +12922,7 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-acometida-QR-5</v>
+        <v>Acceso con-pasadizo-VW-3</v>
       </c>
       <c r="H8" t="s">
         <v>440</v>
@@ -12228,7 +12937,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-camino-TU-3</v>
+        <v>Acceso con-pasadizo-HI-3</v>
       </c>
       <c r="H9" t="s">
         <v>441</v>
@@ -12243,7 +12952,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-paso-CD-5</v>
+        <v>Acceso con-entrada-XY-5</v>
       </c>
       <c r="H10" t="s">
         <v>442</v>
@@ -12258,7 +12967,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-acometida-RS-1</v>
+        <v>Acceso con-entrada-PQ-5</v>
       </c>
       <c r="H11" t="s">
         <v>443</v>
@@ -12273,7 +12982,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-paso-MN-3</v>
+        <v>Acceso con-ingreso-AB-5</v>
       </c>
       <c r="H12" t="s">
         <v>444</v>
@@ -12288,7 +12997,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-garaje-XY-4</v>
+        <v>Acceso con-acometida-FG-3</v>
       </c>
       <c r="H13" t="s">
         <v>443</v>
@@ -12303,7 +13012,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-paso-YZ-2</v>
+        <v>Acceso con-garaje-TU-4</v>
       </c>
       <c r="H14" t="s">
         <v>443</v>
@@ -12318,7 +13027,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-garaje-CD-3</v>
+        <v>Acceso con-garaje-QR-2</v>
       </c>
       <c r="H15" t="s">
         <v>439</v>
@@ -12327,7 +13036,7 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-garaje-DE-1</v>
+        <v>Acceso con-paso-OP-4</v>
       </c>
       <c r="H16" t="s">
         <v>445</v>
@@ -12336,7 +13045,7 @@
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-paso-JK-3</v>
+        <v>Acceso con-pasadizo-EF-4</v>
       </c>
       <c r="H17" t="s">
         <v>437</v>
@@ -12345,7 +13054,7 @@
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-acometida-EF-3</v>
+        <v>Acceso con-paso-MN-1</v>
       </c>
       <c r="H18" t="s">
         <v>446</v>
@@ -12402,102 +13111,102 @@
       <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="181"/>
-      <c r="D4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="183"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="179" t="str">
+      <c r="F4" s="180" t="str">
         <f>$B$3&amp;B13&amp;",  '"&amp;C13&amp;"',  1);"</f>
         <v>insert into `tbServiciosTr`  values(1,  'Piscina',  1);</v>
       </c>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="194"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="185"/>
+      <c r="B5" s="195"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="186"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="179" t="str">
+      <c r="F5" s="180" t="str">
         <f t="shared" ref="F5:F19" si="0">$B$3&amp;B14&amp;",  '"&amp;C14&amp;"',  1);"</f>
         <v>insert into `tbServiciosTr`  values(2,  'WiFi',  1);</v>
       </c>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="194"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="185"/>
+      <c r="B6" s="195"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="179" t="str">
+      <c r="F6" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(3,  'Bar',  1);</v>
       </c>
-      <c r="G6" s="179"/>
-      <c r="H6" s="179"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="194"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="185"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="186"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="179" t="str">
+      <c r="F7" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(4,  'Restaurante',  1);</v>
       </c>
-      <c r="G7" s="179"/>
-      <c r="H7" s="179"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="194"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="185"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="186"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="179" t="str">
+      <c r="F8" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(5,  'Parqueadero',  1);</v>
       </c>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="194"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="185"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="179" t="str">
+      <c r="F9" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(6,  'Paseo millonario',  1);</v>
       </c>
-      <c r="G9" s="179"/>
-      <c r="H9" s="179"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="195"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="188"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="179" t="str">
+      <c r="F10" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(7,  'Zonas fumadores',  1);</v>
       </c>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="54"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
-      <c r="F11" s="179" t="str">
+      <c r="F11" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(8,  'servicio-1-2-3-con-3035 abc 65454',  1);</v>
       </c>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="55" t="s">
@@ -12508,12 +13217,12 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="179" t="str">
+      <c r="F12" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(9,  'servicio-1-con-2525 abc 25002',  1);</v>
       </c>
-      <c r="G12" s="179"/>
-      <c r="H12" s="179"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="117">
@@ -12524,12 +13233,12 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="134"/>
-      <c r="F13" s="179" t="str">
+      <c r="F13" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(10,  'servicio-1-con-4651 abc 82168',  1);</v>
       </c>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="117">
@@ -12540,12 +13249,12 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="179" t="str">
+      <c r="F14" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(11,  'servicio-1-2-3-con-3837 abc 70062',  1);</v>
       </c>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="117">
@@ -12556,12 +13265,12 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="179" t="str">
+      <c r="F15" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(12,  'servicio-1-con-2405 abc 52542',  1);</v>
       </c>
-      <c r="G15" s="179"/>
-      <c r="H15" s="179"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="117">
@@ -12572,12 +13281,12 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="179" t="str">
+      <c r="F16" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(13,  'servicio-1-con-2942 abc 49092',  1);</v>
       </c>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="117">
@@ -12588,12 +13297,12 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="179" t="str">
+      <c r="F17" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(14,  'servicio-1-con-4671 abc 64280',  1);</v>
       </c>
-      <c r="G17" s="179"/>
-      <c r="H17" s="179"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="117">
@@ -12604,12 +13313,12 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="179" t="str">
+      <c r="F18" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(15,  'servicio-1-2-3-con-1769 abc 41898',  1);</v>
       </c>
-      <c r="G18" s="179"/>
-      <c r="H18" s="179"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="117">
@@ -12620,12 +13329,12 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="179" t="str">
+      <c r="F19" s="180" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(16,  'servicio-1-con-1791 abc 36463',  1);</v>
       </c>
-      <c r="G19" s="179"/>
-      <c r="H19" s="179"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="117">
@@ -12636,12 +13345,12 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="179" t="str">
+      <c r="F20" s="180" t="str">
         <f>$B$3&amp;B29&amp;",  '"&amp;C29&amp;"',  1);"</f>
         <v>insert into `tbServiciosTr`  values(17,  'Servicio-1-2-con-1788 abc 84120',  1);</v>
       </c>
-      <c r="G20" s="179"/>
-      <c r="H20" s="179"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="117">
@@ -12652,12 +13361,12 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="179" t="str">
+      <c r="F21" s="180" t="str">
         <f t="shared" ref="F21:F24" si="1">$B$3&amp;B30&amp;",  '"&amp;C30&amp;"',  1);"</f>
         <v>insert into `tbServiciosTr`  values(18,  'Servicio-1-2-con-4964 abc 26296',  1);</v>
       </c>
-      <c r="G21" s="179"/>
-      <c r="H21" s="179"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="117">
@@ -12668,12 +13377,12 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="179" t="str">
+      <c r="F22" s="180" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbServiciosTr`  values(19,  'servicio-1-con-4852 abc 84673',  1);</v>
       </c>
-      <c r="G22" s="179"/>
-      <c r="H22" s="179"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="117">
@@ -12684,12 +13393,12 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="179" t="str">
+      <c r="F23" s="180" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbServiciosTr`  values(20,  'servicio-1-con-4788 abc 30457',  1);</v>
       </c>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="117">
@@ -12700,12 +13409,12 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="179" t="str">
+      <c r="F24" s="180" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbServiciosTr`  values(21,  'servicio-1-con-3767 abc 13342',  1);</v>
       </c>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="117">
@@ -12858,114 +13567,114 @@
       <c r="G37" s="62"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="193" t="s">
+      <c r="B38" s="194" t="s">
         <v>504</v>
       </c>
-      <c r="C38" s="181"/>
-      <c r="D38" s="182"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="183"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="179" t="str">
+      <c r="F38" s="180" t="str">
         <f>$B$37&amp;B48&amp;",  '"&amp;C48&amp;"',  1);"</f>
         <v>insert into `TbInstalacionesTr`  values(1,  'Gimnasio',  1);</v>
       </c>
-      <c r="G38" s="179"/>
-      <c r="H38" s="179"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="180"/>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="194"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="185"/>
+      <c r="B39" s="195"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="186"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="179" t="str">
+      <c r="F39" s="180" t="str">
         <f t="shared" ref="F39:F55" si="2">$B$37&amp;B49&amp;",  '"&amp;C49&amp;"',  1);"</f>
         <v>insert into `TbInstalacionesTr`  values(2,  'Jakuzzi',  1);</v>
       </c>
-      <c r="G39" s="179"/>
-      <c r="H39" s="179"/>
+      <c r="G39" s="180"/>
+      <c r="H39" s="180"/>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="194"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="185"/>
+      <c r="B40" s="195"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="186"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="179" t="str">
+      <c r="F40" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(3,  'Parking',  1);</v>
       </c>
-      <c r="G40" s="179"/>
-      <c r="H40" s="179"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="194"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="185"/>
+      <c r="B41" s="195"/>
+      <c r="C41" s="185"/>
+      <c r="D41" s="186"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="179" t="str">
+      <c r="F41" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(4,  'Baños y Duchas(camping)',  1);</v>
       </c>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="194"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="185"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="185"/>
+      <c r="D42" s="186"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="179" t="str">
+      <c r="F42" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(5,  'Pileta tonificante',  1);</v>
       </c>
-      <c r="G42" s="179"/>
-      <c r="H42" s="179"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="180"/>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="194"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="185"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="185"/>
+      <c r="D43" s="186"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="179" t="str">
+      <c r="F43" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(6,  'Ducha escocesa',  1);</v>
       </c>
-      <c r="G43" s="179"/>
-      <c r="H43" s="179"/>
+      <c r="G43" s="180"/>
+      <c r="H43" s="180"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="195"/>
-      <c r="C44" s="187"/>
-      <c r="D44" s="188"/>
+      <c r="B44" s="196"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="189"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="179" t="str">
+      <c r="F44" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(7,  'Sauna finlandesa',  1);</v>
       </c>
-      <c r="G44" s="179"/>
-      <c r="H44" s="179"/>
+      <c r="G44" s="180"/>
+      <c r="H44" s="180"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="64"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
-      <c r="F45" s="179" t="str">
+      <c r="F45" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(8,  'Cabinas de tratamientos y masajes',  1);</v>
       </c>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
+      <c r="G45" s="180"/>
+      <c r="H45" s="180"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="65"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="179" t="str">
+      <c r="F46" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(9,  'Baño turco',  1);</v>
       </c>
-      <c r="G46" s="179"/>
-      <c r="H46" s="179"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="66" t="s">
@@ -12976,12 +13685,12 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="179" t="str">
+      <c r="F47" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(10,  'Spa propio',  1);</v>
       </c>
-      <c r="G47" s="179"/>
-      <c r="H47" s="179"/>
+      <c r="G47" s="180"/>
+      <c r="H47" s="180"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="116">
@@ -12992,12 +13701,12 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="179" t="str">
+      <c r="F48" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(11,  'Cajeros automaticos',  1);</v>
       </c>
-      <c r="G48" s="179"/>
-      <c r="H48" s="179"/>
+      <c r="G48" s="180"/>
+      <c r="H48" s="180"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="116">
@@ -13008,12 +13717,12 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="179" t="str">
+      <c r="F49" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(12,  'Servicio médico externo, primeros auxilios',  1);</v>
       </c>
-      <c r="G49" s="179"/>
-      <c r="H49" s="179"/>
+      <c r="G49" s="180"/>
+      <c r="H49" s="180"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="116">
@@ -13024,12 +13733,12 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="179" t="str">
+      <c r="F50" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(13,  'Servicio de transfer',  1);</v>
       </c>
-      <c r="G50" s="179"/>
-      <c r="H50" s="179"/>
+      <c r="G50" s="180"/>
+      <c r="H50" s="180"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="116">
@@ -13040,12 +13749,12 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="179" t="str">
+      <c r="F51" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(14,  'Servicio de habitaciones',  1);</v>
       </c>
-      <c r="G51" s="179"/>
-      <c r="H51" s="179"/>
+      <c r="G51" s="180"/>
+      <c r="H51" s="180"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="116">
@@ -13056,12 +13765,12 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="179" t="str">
+      <c r="F52" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(15,  'Servicio de lavandería',  1);</v>
       </c>
-      <c r="G52" s="179"/>
-      <c r="H52" s="179"/>
+      <c r="G52" s="180"/>
+      <c r="H52" s="180"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="116">
@@ -13072,12 +13781,12 @@
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="179" t="str">
+      <c r="F53" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(16,  'Servicios de teleconferencia disponibles',  1);</v>
       </c>
-      <c r="G53" s="179"/>
-      <c r="H53" s="179"/>
+      <c r="G53" s="180"/>
+      <c r="H53" s="180"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="116">
@@ -13088,12 +13797,12 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="179" t="str">
+      <c r="F54" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(17,  'Salón de juegos',  1);</v>
       </c>
-      <c r="G54" s="179"/>
-      <c r="H54" s="179"/>
+      <c r="G54" s="180"/>
+      <c r="H54" s="180"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="116">
@@ -13104,12 +13813,12 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="179" t="str">
+      <c r="F55" s="180" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(18,  'Estanque de Peces',  1);</v>
       </c>
-      <c r="G55" s="179"/>
-      <c r="H55" s="179"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="180"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="116">
@@ -13283,160 +13992,160 @@
       <c r="H71" s="62"/>
     </row>
     <row r="72" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="180" t="s">
+      <c r="B72" s="181" t="s">
         <v>194</v>
       </c>
-      <c r="C72" s="181"/>
-      <c r="D72" s="182"/>
+      <c r="C72" s="182"/>
+      <c r="D72" s="183"/>
       <c r="E72" s="32"/>
-      <c r="F72" s="177" t="str">
+      <c r="F72" s="178" t="str">
         <f>$B$71&amp;B81&amp;",'"&amp;C81&amp;"', 1);"</f>
         <v>insert into `TbDescripcionTr`  values(1,'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:', 1);</v>
       </c>
-      <c r="G72" s="177"/>
-      <c r="H72" s="177"/>
-      <c r="I72" s="177"/>
-      <c r="J72" s="177"/>
-      <c r="K72" s="177"/>
-      <c r="L72" s="177"/>
-      <c r="M72" s="177"/>
-      <c r="N72" s="177"/>
-      <c r="O72" s="177"/>
+      <c r="G72" s="178"/>
+      <c r="H72" s="178"/>
+      <c r="I72" s="178"/>
+      <c r="J72" s="178"/>
+      <c r="K72" s="178"/>
+      <c r="L72" s="178"/>
+      <c r="M72" s="178"/>
+      <c r="N72" s="178"/>
+      <c r="O72" s="178"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="83"/>
     </row>
     <row r="73" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="183"/>
-      <c r="C73" s="184"/>
-      <c r="D73" s="185"/>
+      <c r="B73" s="184"/>
+      <c r="C73" s="185"/>
+      <c r="D73" s="186"/>
       <c r="E73" s="32"/>
-      <c r="F73" s="177" t="str">
+      <c r="F73" s="178" t="str">
         <f t="shared" ref="F73:F91" si="3">$B$71&amp;B82&amp;",'"&amp;C82&amp;"', 1);"</f>
         <v>insert into `TbDescripcionTr`  values(2,'Habitacion con vista al mar amobladas', 1);</v>
       </c>
-      <c r="G73" s="177"/>
-      <c r="H73" s="177"/>
-      <c r="I73" s="177"/>
-      <c r="J73" s="177"/>
-      <c r="K73" s="177"/>
-      <c r="L73" s="177"/>
-      <c r="M73" s="177"/>
-      <c r="N73" s="177"/>
-      <c r="O73" s="177"/>
+      <c r="G73" s="178"/>
+      <c r="H73" s="178"/>
+      <c r="I73" s="178"/>
+      <c r="J73" s="178"/>
+      <c r="K73" s="178"/>
+      <c r="L73" s="178"/>
+      <c r="M73" s="178"/>
+      <c r="N73" s="178"/>
+      <c r="O73" s="178"/>
     </row>
     <row r="74" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="183"/>
-      <c r="C74" s="184"/>
-      <c r="D74" s="185"/>
+      <c r="B74" s="184"/>
+      <c r="C74" s="185"/>
+      <c r="D74" s="186"/>
       <c r="E74" s="32"/>
-      <c r="F74" s="177" t="str">
+      <c r="F74" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(3,'Hermosos paisajes de Antioquia', 1);</v>
       </c>
-      <c r="G74" s="177"/>
-      <c r="H74" s="177"/>
-      <c r="I74" s="177"/>
-      <c r="J74" s="177"/>
-      <c r="K74" s="177"/>
-      <c r="L74" s="177"/>
-      <c r="M74" s="177"/>
-      <c r="N74" s="177"/>
-      <c r="O74" s="177"/>
+      <c r="G74" s="178"/>
+      <c r="H74" s="178"/>
+      <c r="I74" s="178"/>
+      <c r="J74" s="178"/>
+      <c r="K74" s="178"/>
+      <c r="L74" s="178"/>
+      <c r="M74" s="178"/>
+      <c r="N74" s="178"/>
+      <c r="O74" s="178"/>
     </row>
     <row r="75" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="183"/>
-      <c r="C75" s="184"/>
-      <c r="D75" s="185"/>
+      <c r="B75" s="184"/>
+      <c r="C75" s="185"/>
+      <c r="D75" s="186"/>
       <c r="E75" s="32"/>
-      <c r="F75" s="177" t="str">
+      <c r="F75" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(4,'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.', 1);</v>
       </c>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
-      <c r="I75" s="177"/>
-      <c r="J75" s="177"/>
-      <c r="K75" s="177"/>
-      <c r="L75" s="177"/>
-      <c r="M75" s="177"/>
-      <c r="N75" s="177"/>
-      <c r="O75" s="177"/>
+      <c r="G75" s="178"/>
+      <c r="H75" s="178"/>
+      <c r="I75" s="178"/>
+      <c r="J75" s="178"/>
+      <c r="K75" s="178"/>
+      <c r="L75" s="178"/>
+      <c r="M75" s="178"/>
+      <c r="N75" s="178"/>
+      <c r="O75" s="178"/>
     </row>
     <row r="76" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="183"/>
-      <c r="C76" s="184"/>
-      <c r="D76" s="185"/>
+      <c r="B76" s="184"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="186"/>
       <c r="E76" s="32"/>
-      <c r="F76" s="177" t="str">
+      <c r="F76" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(5,'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.', 1);</v>
       </c>
-      <c r="G76" s="177"/>
-      <c r="H76" s="177"/>
-      <c r="I76" s="177"/>
-      <c r="J76" s="177"/>
-      <c r="K76" s="177"/>
-      <c r="L76" s="177"/>
-      <c r="M76" s="177"/>
-      <c r="N76" s="177"/>
-      <c r="O76" s="177"/>
+      <c r="G76" s="178"/>
+      <c r="H76" s="178"/>
+      <c r="I76" s="178"/>
+      <c r="J76" s="178"/>
+      <c r="K76" s="178"/>
+      <c r="L76" s="178"/>
+      <c r="M76" s="178"/>
+      <c r="N76" s="178"/>
+      <c r="O76" s="178"/>
     </row>
     <row r="77" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="183"/>
-      <c r="C77" s="184"/>
-      <c r="D77" s="185"/>
+      <c r="B77" s="184"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="186"/>
       <c r="E77" s="32"/>
-      <c r="F77" s="177" t="str">
+      <c r="F77" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(6,'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.', 1);</v>
       </c>
-      <c r="G77" s="177"/>
-      <c r="H77" s="177"/>
-      <c r="I77" s="177"/>
-      <c r="J77" s="177"/>
-      <c r="K77" s="177"/>
-      <c r="L77" s="177"/>
-      <c r="M77" s="177"/>
-      <c r="N77" s="177"/>
-      <c r="O77" s="177"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="178"/>
+      <c r="I77" s="178"/>
+      <c r="J77" s="178"/>
+      <c r="K77" s="178"/>
+      <c r="L77" s="178"/>
+      <c r="M77" s="178"/>
+      <c r="N77" s="178"/>
+      <c r="O77" s="178"/>
     </row>
     <row r="78" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="186"/>
-      <c r="C78" s="187"/>
-      <c r="D78" s="188"/>
+      <c r="B78" s="187"/>
+      <c r="C78" s="188"/>
+      <c r="D78" s="189"/>
       <c r="E78" s="32"/>
-      <c r="F78" s="177" t="str">
+      <c r="F78" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(7,'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.', 1);</v>
       </c>
-      <c r="G78" s="177"/>
-      <c r="H78" s="177"/>
-      <c r="I78" s="177"/>
-      <c r="J78" s="177"/>
-      <c r="K78" s="177"/>
-      <c r="L78" s="177"/>
-      <c r="M78" s="177"/>
-      <c r="N78" s="177"/>
-      <c r="O78" s="177"/>
+      <c r="G78" s="178"/>
+      <c r="H78" s="178"/>
+      <c r="I78" s="178"/>
+      <c r="J78" s="178"/>
+      <c r="K78" s="178"/>
+      <c r="L78" s="178"/>
+      <c r="M78" s="178"/>
+      <c r="N78" s="178"/>
+      <c r="O78" s="178"/>
     </row>
     <row r="79" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="110"/>
       <c r="C79" s="109"/>
       <c r="D79" s="109"/>
       <c r="E79" s="32"/>
-      <c r="F79" s="177" t="str">
+      <c r="F79" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(8,'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ', 1);</v>
       </c>
-      <c r="G79" s="177"/>
-      <c r="H79" s="177"/>
-      <c r="I79" s="177"/>
-      <c r="J79" s="177"/>
-      <c r="K79" s="177"/>
-      <c r="L79" s="177"/>
-      <c r="M79" s="177"/>
-      <c r="N79" s="177"/>
-      <c r="O79" s="177"/>
+      <c r="G79" s="178"/>
+      <c r="H79" s="178"/>
+      <c r="I79" s="178"/>
+      <c r="J79" s="178"/>
+      <c r="K79" s="178"/>
+      <c r="L79" s="178"/>
+      <c r="M79" s="178"/>
+      <c r="N79" s="178"/>
+      <c r="O79" s="178"/>
     </row>
     <row r="80" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="66" t="s">
@@ -13446,19 +14155,19 @@
         <v>167</v>
       </c>
       <c r="E80" s="32"/>
-      <c r="F80" s="177" t="str">
+      <c r="F80" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(9,' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ', 1);</v>
       </c>
-      <c r="G80" s="177"/>
-      <c r="H80" s="177"/>
-      <c r="I80" s="177"/>
-      <c r="J80" s="177"/>
-      <c r="K80" s="177"/>
-      <c r="L80" s="177"/>
-      <c r="M80" s="177"/>
-      <c r="N80" s="177"/>
-      <c r="O80" s="177"/>
+      <c r="G80" s="178"/>
+      <c r="H80" s="178"/>
+      <c r="I80" s="178"/>
+      <c r="J80" s="178"/>
+      <c r="K80" s="178"/>
+      <c r="L80" s="178"/>
+      <c r="M80" s="178"/>
+      <c r="N80" s="178"/>
+      <c r="O80" s="178"/>
     </row>
     <row r="81" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="101">
@@ -13471,19 +14180,19 @@
         <v>482</v>
       </c>
       <c r="E81" s="32"/>
-      <c r="F81" s="177" t="str">
+      <c r="F81" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(10,'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas', 1);</v>
       </c>
-      <c r="G81" s="177"/>
-      <c r="H81" s="177"/>
-      <c r="I81" s="177"/>
-      <c r="J81" s="177"/>
-      <c r="K81" s="177"/>
-      <c r="L81" s="177"/>
-      <c r="M81" s="177"/>
-      <c r="N81" s="177"/>
-      <c r="O81" s="177"/>
+      <c r="G81" s="178"/>
+      <c r="H81" s="178"/>
+      <c r="I81" s="178"/>
+      <c r="J81" s="178"/>
+      <c r="K81" s="178"/>
+      <c r="L81" s="178"/>
+      <c r="M81" s="178"/>
+      <c r="N81" s="178"/>
+      <c r="O81" s="178"/>
     </row>
     <row r="82" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="101">
@@ -13496,19 +14205,19 @@
         <v>482</v>
       </c>
       <c r="E82" s="32"/>
-      <c r="F82" s="177" t="str">
+      <c r="F82" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(11,'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.', 1);</v>
       </c>
-      <c r="G82" s="177"/>
-      <c r="H82" s="177"/>
-      <c r="I82" s="177"/>
-      <c r="J82" s="177"/>
-      <c r="K82" s="177"/>
-      <c r="L82" s="177"/>
-      <c r="M82" s="177"/>
-      <c r="N82" s="177"/>
-      <c r="O82" s="177"/>
+      <c r="G82" s="178"/>
+      <c r="H82" s="178"/>
+      <c r="I82" s="178"/>
+      <c r="J82" s="178"/>
+      <c r="K82" s="178"/>
+      <c r="L82" s="178"/>
+      <c r="M82" s="178"/>
+      <c r="N82" s="178"/>
+      <c r="O82" s="178"/>
     </row>
     <row r="83" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="101">
@@ -13521,19 +14230,19 @@
         <v>482</v>
       </c>
       <c r="E83" s="32"/>
-      <c r="F83" s="177" t="str">
+      <c r="F83" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(12,'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.', 1);</v>
       </c>
-      <c r="G83" s="177"/>
-      <c r="H83" s="177"/>
-      <c r="I83" s="177"/>
-      <c r="J83" s="177"/>
-      <c r="K83" s="177"/>
-      <c r="L83" s="177"/>
-      <c r="M83" s="177"/>
-      <c r="N83" s="177"/>
-      <c r="O83" s="177"/>
+      <c r="G83" s="178"/>
+      <c r="H83" s="178"/>
+      <c r="I83" s="178"/>
+      <c r="J83" s="178"/>
+      <c r="K83" s="178"/>
+      <c r="L83" s="178"/>
+      <c r="M83" s="178"/>
+      <c r="N83" s="178"/>
+      <c r="O83" s="178"/>
     </row>
     <row r="84" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="101">
@@ -13546,19 +14255,19 @@
         <v>482</v>
       </c>
       <c r="E84" s="32"/>
-      <c r="F84" s="177" t="str">
+      <c r="F84" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(13,'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.', 1);</v>
       </c>
-      <c r="G84" s="177"/>
-      <c r="H84" s="177"/>
-      <c r="I84" s="177"/>
-      <c r="J84" s="177"/>
-      <c r="K84" s="177"/>
-      <c r="L84" s="177"/>
-      <c r="M84" s="177"/>
-      <c r="N84" s="177"/>
-      <c r="O84" s="177"/>
+      <c r="G84" s="178"/>
+      <c r="H84" s="178"/>
+      <c r="I84" s="178"/>
+      <c r="J84" s="178"/>
+      <c r="K84" s="178"/>
+      <c r="L84" s="178"/>
+      <c r="M84" s="178"/>
+      <c r="N84" s="178"/>
+      <c r="O84" s="178"/>
     </row>
     <row r="85" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="101">
@@ -13571,19 +14280,19 @@
         <v>482</v>
       </c>
       <c r="E85" s="32"/>
-      <c r="F85" s="177" t="str">
+      <c r="F85" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(14,'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.', 1);</v>
       </c>
-      <c r="G85" s="177"/>
-      <c r="H85" s="177"/>
-      <c r="I85" s="177"/>
-      <c r="J85" s="177"/>
-      <c r="K85" s="177"/>
-      <c r="L85" s="177"/>
-      <c r="M85" s="177"/>
-      <c r="N85" s="177"/>
-      <c r="O85" s="177"/>
+      <c r="G85" s="178"/>
+      <c r="H85" s="178"/>
+      <c r="I85" s="178"/>
+      <c r="J85" s="178"/>
+      <c r="K85" s="178"/>
+      <c r="L85" s="178"/>
+      <c r="M85" s="178"/>
+      <c r="N85" s="178"/>
+      <c r="O85" s="178"/>
     </row>
     <row r="86" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="101">
@@ -13596,19 +14305,19 @@
         <v>482</v>
       </c>
       <c r="E86" s="32"/>
-      <c r="F86" s="177" t="str">
+      <c r="F86" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(15,'Parque Nacional Natural Amacayacu,  en el Amazonas, con más de 40 años de historia representa el 40% del Trapecio Amazónico y debido a su ecosistema de selva húmeda tropical cálida y bosques inundables', 1);</v>
       </c>
-      <c r="G86" s="177"/>
-      <c r="H86" s="177"/>
-      <c r="I86" s="177"/>
-      <c r="J86" s="177"/>
-      <c r="K86" s="177"/>
-      <c r="L86" s="177"/>
-      <c r="M86" s="177"/>
-      <c r="N86" s="177"/>
-      <c r="O86" s="177"/>
+      <c r="G86" s="178"/>
+      <c r="H86" s="178"/>
+      <c r="I86" s="178"/>
+      <c r="J86" s="178"/>
+      <c r="K86" s="178"/>
+      <c r="L86" s="178"/>
+      <c r="M86" s="178"/>
+      <c r="N86" s="178"/>
+      <c r="O86" s="178"/>
     </row>
     <row r="87" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="101">
@@ -13621,19 +14330,19 @@
         <v>482</v>
       </c>
       <c r="E87" s="32"/>
-      <c r="F87" s="177" t="str">
+      <c r="F87" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(16,'Parque Nacional Natural Farallones de Cali, son formaciones rocosas que se encuentran en la Cordillera Occidental de los Andes. Si tu elección es la vertiente oriental, la recomendación es ir en enero y marzo y luego de julio a agosto.', 1);</v>
       </c>
-      <c r="G87" s="177"/>
-      <c r="H87" s="177"/>
-      <c r="I87" s="177"/>
-      <c r="J87" s="177"/>
-      <c r="K87" s="177"/>
-      <c r="L87" s="177"/>
-      <c r="M87" s="177"/>
-      <c r="N87" s="177"/>
-      <c r="O87" s="177"/>
+      <c r="G87" s="178"/>
+      <c r="H87" s="178"/>
+      <c r="I87" s="178"/>
+      <c r="J87" s="178"/>
+      <c r="K87" s="178"/>
+      <c r="L87" s="178"/>
+      <c r="M87" s="178"/>
+      <c r="N87" s="178"/>
+      <c r="O87" s="178"/>
     </row>
     <row r="88" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="101">
@@ -13646,19 +14355,19 @@
         <v>482</v>
       </c>
       <c r="E88" s="32"/>
-      <c r="F88" s="177" t="str">
+      <c r="F88" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(17,'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.', 1);</v>
       </c>
-      <c r="G88" s="177"/>
-      <c r="H88" s="177"/>
-      <c r="I88" s="177"/>
-      <c r="J88" s="177"/>
-      <c r="K88" s="177"/>
-      <c r="L88" s="177"/>
-      <c r="M88" s="177"/>
-      <c r="N88" s="177"/>
-      <c r="O88" s="177"/>
+      <c r="G88" s="178"/>
+      <c r="H88" s="178"/>
+      <c r="I88" s="178"/>
+      <c r="J88" s="178"/>
+      <c r="K88" s="178"/>
+      <c r="L88" s="178"/>
+      <c r="M88" s="178"/>
+      <c r="N88" s="178"/>
+      <c r="O88" s="178"/>
     </row>
     <row r="89" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="101">
@@ -13671,19 +14380,19 @@
         <v>482</v>
       </c>
       <c r="E89" s="32"/>
-      <c r="F89" s="177" t="str">
+      <c r="F89" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(18,'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.', 1);</v>
       </c>
-      <c r="G89" s="177"/>
-      <c r="H89" s="177"/>
-      <c r="I89" s="177"/>
-      <c r="J89" s="177"/>
-      <c r="K89" s="177"/>
-      <c r="L89" s="177"/>
-      <c r="M89" s="177"/>
-      <c r="N89" s="177"/>
-      <c r="O89" s="177"/>
+      <c r="G89" s="178"/>
+      <c r="H89" s="178"/>
+      <c r="I89" s="178"/>
+      <c r="J89" s="178"/>
+      <c r="K89" s="178"/>
+      <c r="L89" s="178"/>
+      <c r="M89" s="178"/>
+      <c r="N89" s="178"/>
+      <c r="O89" s="178"/>
     </row>
     <row r="90" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="101">
@@ -13696,19 +14405,19 @@
         <v>482</v>
       </c>
       <c r="E90" s="32"/>
-      <c r="F90" s="177" t="str">
+      <c r="F90" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(19,'Reserva Natural Cañón del Río Claro,  Ubicado en Antioquia, la biodiversidad de esta región es conocida como la cuenca media del Río Magdalena, además está situada en el piedemonte oriental de la Cordillera Central colombiana.', 1);</v>
       </c>
-      <c r="G90" s="177"/>
-      <c r="H90" s="177"/>
-      <c r="I90" s="177"/>
-      <c r="J90" s="177"/>
-      <c r="K90" s="177"/>
-      <c r="L90" s="177"/>
-      <c r="M90" s="177"/>
-      <c r="N90" s="177"/>
-      <c r="O90" s="177"/>
+      <c r="G90" s="178"/>
+      <c r="H90" s="178"/>
+      <c r="I90" s="178"/>
+      <c r="J90" s="178"/>
+      <c r="K90" s="178"/>
+      <c r="L90" s="178"/>
+      <c r="M90" s="178"/>
+      <c r="N90" s="178"/>
+      <c r="O90" s="178"/>
     </row>
     <row r="91" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="101">
@@ -13721,19 +14430,19 @@
         <v>482</v>
       </c>
       <c r="E91" s="32"/>
-      <c r="F91" s="177" t="str">
+      <c r="F91" s="178" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(20,'Parque Nacional Natural Las Orquídeas,  sus variados paisajes, además de una gran biodiversidad de ecosistemas, abundantes orquídeas y otras especies asociadas.', 1);</v>
       </c>
-      <c r="G91" s="177"/>
-      <c r="H91" s="177"/>
-      <c r="I91" s="177"/>
-      <c r="J91" s="177"/>
-      <c r="K91" s="177"/>
-      <c r="L91" s="177"/>
-      <c r="M91" s="177"/>
-      <c r="N91" s="177"/>
-      <c r="O91" s="177"/>
+      <c r="G91" s="178"/>
+      <c r="H91" s="178"/>
+      <c r="I91" s="178"/>
+      <c r="J91" s="178"/>
+      <c r="K91" s="178"/>
+      <c r="L91" s="178"/>
+      <c r="M91" s="178"/>
+      <c r="N91" s="178"/>
+      <c r="O91" s="178"/>
     </row>
     <row r="92" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="101">
@@ -13888,99 +14597,99 @@
       <c r="H104" s="62"/>
     </row>
     <row r="105" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="180" t="s">
+      <c r="B105" s="181" t="s">
         <v>195</v>
       </c>
-      <c r="C105" s="181"/>
-      <c r="D105" s="182"/>
+      <c r="C105" s="182"/>
+      <c r="D105" s="183"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="177" t="str">
+      <c r="F105" s="178" t="str">
         <f>$B$104&amp;B115&amp;",  '"&amp;C115&amp;"',  1);"</f>
         <v>insert into `TbtipoNegocioTr`  values(1,  'Hotel',  1);</v>
       </c>
-      <c r="G105" s="177"/>
-      <c r="H105" s="178"/>
+      <c r="G105" s="178"/>
+      <c r="H105" s="179"/>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="183"/>
-      <c r="C106" s="184"/>
-      <c r="D106" s="185"/>
+      <c r="B106" s="184"/>
+      <c r="C106" s="185"/>
+      <c r="D106" s="186"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="177" t="str">
+      <c r="F106" s="178" t="str">
         <f t="shared" ref="F106:F111" si="4">$B$104&amp;B116&amp;",  '"&amp;C116&amp;"',  1);"</f>
         <v>insert into `TbtipoNegocioTr`  values(2,  'Cabaña',  1);</v>
       </c>
-      <c r="G106" s="177"/>
-      <c r="H106" s="178"/>
+      <c r="G106" s="178"/>
+      <c r="H106" s="179"/>
     </row>
     <row r="107" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="183"/>
-      <c r="C107" s="184"/>
-      <c r="D107" s="185"/>
+      <c r="B107" s="184"/>
+      <c r="C107" s="185"/>
+      <c r="D107" s="186"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="177" t="str">
+      <c r="F107" s="178" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(3,  'Camping',  1);</v>
       </c>
-      <c r="G107" s="177"/>
-      <c r="H107" s="178"/>
+      <c r="G107" s="178"/>
+      <c r="H107" s="179"/>
     </row>
     <row r="108" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="183"/>
-      <c r="C108" s="184"/>
-      <c r="D108" s="185"/>
+      <c r="B108" s="184"/>
+      <c r="C108" s="185"/>
+      <c r="D108" s="186"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="177" t="str">
+      <c r="F108" s="178" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(4,  'Hotel &amp; Cabaña',  1);</v>
       </c>
-      <c r="G108" s="177"/>
-      <c r="H108" s="178"/>
+      <c r="G108" s="178"/>
+      <c r="H108" s="179"/>
     </row>
     <row r="109" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="183"/>
-      <c r="C109" s="184"/>
-      <c r="D109" s="185"/>
+      <c r="B109" s="184"/>
+      <c r="C109" s="185"/>
+      <c r="D109" s="186"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="177" t="str">
+      <c r="F109" s="178" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(5,  'Hotel &amp; camping',  1);</v>
       </c>
-      <c r="G109" s="177"/>
-      <c r="H109" s="178"/>
+      <c r="G109" s="178"/>
+      <c r="H109" s="179"/>
     </row>
     <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="183"/>
-      <c r="C110" s="184"/>
-      <c r="D110" s="185"/>
+      <c r="B110" s="184"/>
+      <c r="C110" s="185"/>
+      <c r="D110" s="186"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="177" t="str">
+      <c r="F110" s="178" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(6,  'Cabaña &amp; camping',  1);</v>
       </c>
-      <c r="G110" s="177"/>
-      <c r="H110" s="178"/>
+      <c r="G110" s="178"/>
+      <c r="H110" s="179"/>
     </row>
     <row r="111" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="186"/>
-      <c r="C111" s="187"/>
-      <c r="D111" s="188"/>
+      <c r="B111" s="187"/>
+      <c r="C111" s="188"/>
+      <c r="D111" s="189"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="177" t="str">
+      <c r="F111" s="178" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(7,  'Hotel, Cabaña y camping',  1);</v>
       </c>
-      <c r="G111" s="177"/>
-      <c r="H111" s="178"/>
+      <c r="G111" s="178"/>
+      <c r="H111" s="179"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="65"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="177"/>
-      <c r="G112" s="177"/>
-      <c r="H112" s="178"/>
+      <c r="F112" s="178"/>
+      <c r="G112" s="178"/>
+      <c r="H112" s="179"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="65"/>
@@ -14118,102 +14827,102 @@
       <c r="H125" s="62"/>
     </row>
     <row r="126" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="189" t="s">
+      <c r="B126" s="190" t="s">
         <v>196</v>
       </c>
-      <c r="C126" s="190"/>
-      <c r="D126" s="190"/>
+      <c r="C126" s="191"/>
+      <c r="D126" s="191"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="177" t="str">
+      <c r="F126" s="178" t="str">
         <f t="shared" ref="F126:F149" si="5">$B$125&amp;B135&amp;",  '"&amp;C135&amp;"',  1);"</f>
         <v>insert into `tbAccesibilidadTr`  values(1,  'ascensor',  1);</v>
       </c>
-      <c r="G126" s="177"/>
-      <c r="H126" s="178"/>
+      <c r="G126" s="178"/>
+      <c r="H126" s="179"/>
     </row>
     <row r="127" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="191"/>
-      <c r="C127" s="192"/>
-      <c r="D127" s="192"/>
+      <c r="B127" s="192"/>
+      <c r="C127" s="193"/>
+      <c r="D127" s="193"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="177" t="str">
+      <c r="F127" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(2,  'escalera electrica',  1);</v>
       </c>
-      <c r="G127" s="177"/>
-      <c r="H127" s="178"/>
+      <c r="G127" s="178"/>
+      <c r="H127" s="179"/>
     </row>
     <row r="128" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="191"/>
-      <c r="C128" s="192"/>
-      <c r="D128" s="192"/>
+      <c r="B128" s="192"/>
+      <c r="C128" s="193"/>
+      <c r="D128" s="193"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="177" t="str">
+      <c r="F128" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(3,  ' accesible en silla de ruedas',  1);</v>
       </c>
-      <c r="G128" s="177"/>
-      <c r="H128" s="178"/>
+      <c r="G128" s="178"/>
+      <c r="H128" s="179"/>
     </row>
     <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="191"/>
-      <c r="C129" s="192"/>
-      <c r="D129" s="192"/>
+      <c r="B129" s="192"/>
+      <c r="C129" s="193"/>
+      <c r="D129" s="193"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="177" t="str">
+      <c r="F129" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(4,  'WC con barras de apoyo',  1);</v>
       </c>
-      <c r="G129" s="177"/>
-      <c r="H129" s="178"/>
+      <c r="G129" s="178"/>
+      <c r="H129" s="179"/>
     </row>
     <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="191"/>
-      <c r="C130" s="192"/>
-      <c r="D130" s="192"/>
+      <c r="B130" s="192"/>
+      <c r="C130" s="193"/>
+      <c r="D130" s="193"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="177" t="str">
+      <c r="F130" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(5,  'Bañera adaptada',  1);</v>
       </c>
-      <c r="G130" s="177"/>
-      <c r="H130" s="178"/>
+      <c r="G130" s="178"/>
+      <c r="H130" s="179"/>
     </row>
     <row r="131" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="191"/>
-      <c r="C131" s="192"/>
-      <c r="D131" s="192"/>
+      <c r="B131" s="192"/>
+      <c r="C131" s="193"/>
+      <c r="D131" s="193"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="177" t="str">
+      <c r="F131" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(6,  'WC Elevado',  1);</v>
       </c>
-      <c r="G131" s="177"/>
-      <c r="H131" s="178"/>
+      <c r="G131" s="178"/>
+      <c r="H131" s="179"/>
     </row>
     <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="191"/>
-      <c r="C132" s="192"/>
-      <c r="D132" s="192"/>
+      <c r="B132" s="192"/>
+      <c r="C132" s="193"/>
+      <c r="D132" s="193"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="177" t="str">
+      <c r="F132" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(7,  'Via acceso asfaltada',  1);</v>
       </c>
-      <c r="G132" s="177"/>
-      <c r="H132" s="178"/>
+      <c r="G132" s="178"/>
+      <c r="H132" s="179"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="65"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="177" t="str">
+      <c r="F133" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(8,  'Instalacion Electrica Subterranea',  1);</v>
       </c>
-      <c r="G133" s="177"/>
-      <c r="H133" s="178"/>
+      <c r="G133" s="178"/>
+      <c r="H133" s="179"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="66" t="s">
@@ -14224,12 +14933,12 @@
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="177" t="str">
+      <c r="F134" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(9,  'Sistema Iluninacion',  1);</v>
       </c>
-      <c r="G134" s="177"/>
-      <c r="H134" s="178"/>
+      <c r="G134" s="178"/>
+      <c r="H134" s="179"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="67">
@@ -14240,12 +14949,12 @@
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="177" t="str">
+      <c r="F135" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(10,  'Abastecimiento de agua',  1);</v>
       </c>
-      <c r="G135" s="177"/>
-      <c r="H135" s="178"/>
+      <c r="G135" s="178"/>
+      <c r="H135" s="179"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="67">
@@ -14256,12 +14965,12 @@
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="177" t="str">
+      <c r="F136" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(11,  'Acceso con-ingreso-KL-3',  1);</v>
       </c>
-      <c r="G136" s="177"/>
-      <c r="H136" s="178"/>
+      <c r="G136" s="178"/>
+      <c r="H136" s="179"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="67">
@@ -14272,12 +14981,12 @@
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="177" t="str">
+      <c r="F137" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(12,  'Acceso con-pasadizo-ST-1',  1);</v>
       </c>
-      <c r="G137" s="177"/>
-      <c r="H137" s="178"/>
+      <c r="G137" s="178"/>
+      <c r="H137" s="179"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="67">
@@ -14288,12 +14997,12 @@
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="177" t="str">
+      <c r="F138" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(13,  'Acceso con-acometida-MN-3',  1);</v>
       </c>
-      <c r="G138" s="177"/>
-      <c r="H138" s="178"/>
+      <c r="G138" s="178"/>
+      <c r="H138" s="179"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="67">
@@ -14304,12 +15013,12 @@
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="177" t="str">
+      <c r="F139" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(14,  'Acceso con-garaje-GH-3',  1);</v>
       </c>
-      <c r="G139" s="177"/>
-      <c r="H139" s="178"/>
+      <c r="G139" s="178"/>
+      <c r="H139" s="179"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="67">
@@ -14320,12 +15029,12 @@
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="177" t="str">
+      <c r="F140" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(15,  'Acceso con-camino-ST-2',  1);</v>
       </c>
-      <c r="G140" s="177"/>
-      <c r="H140" s="178"/>
+      <c r="G140" s="178"/>
+      <c r="H140" s="179"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="67">
@@ -14336,12 +15045,12 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="177" t="str">
+      <c r="F141" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(16,  'Acceso con-paso-TU-4',  1);</v>
       </c>
-      <c r="G141" s="177"/>
-      <c r="H141" s="178"/>
+      <c r="G141" s="178"/>
+      <c r="H141" s="179"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="67">
@@ -14352,12 +15061,12 @@
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="177" t="str">
+      <c r="F142" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(17,  'Acceso con-acometida-IJ-4',  1);</v>
       </c>
-      <c r="G142" s="177"/>
-      <c r="H142" s="178"/>
+      <c r="G142" s="178"/>
+      <c r="H142" s="179"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="67">
@@ -14368,12 +15077,12 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="177" t="str">
+      <c r="F143" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(18,  'Acceso con-camino-WX-4',  1);</v>
       </c>
-      <c r="G143" s="177"/>
-      <c r="H143" s="178"/>
+      <c r="G143" s="178"/>
+      <c r="H143" s="179"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="67">
@@ -14384,12 +15093,12 @@
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="177" t="str">
+      <c r="F144" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(19,  'Acceso con-camino-DE-5',  1);</v>
       </c>
-      <c r="G144" s="177"/>
-      <c r="H144" s="178"/>
+      <c r="G144" s="178"/>
+      <c r="H144" s="179"/>
     </row>
     <row r="145" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="67">
@@ -14400,12 +15109,12 @@
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="177" t="str">
+      <c r="F145" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(20,  'Acceso con-ingreso-KL-5',  1);</v>
       </c>
-      <c r="G145" s="177"/>
-      <c r="H145" s="178"/>
+      <c r="G145" s="178"/>
+      <c r="H145" s="179"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="67">
@@ -14416,12 +15125,12 @@
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="177" t="str">
+      <c r="F146" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(21,  'Acceso con-camino-VW-4',  1);</v>
       </c>
-      <c r="G146" s="177"/>
-      <c r="H146" s="178"/>
+      <c r="G146" s="178"/>
+      <c r="H146" s="179"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="67">
@@ -14432,12 +15141,12 @@
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="177" t="str">
+      <c r="F147" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(22,  'Acceso con-garaje-NO-4',  1);</v>
       </c>
-      <c r="G147" s="177"/>
-      <c r="H147" s="178"/>
+      <c r="G147" s="178"/>
+      <c r="H147" s="179"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="67">
@@ -14448,12 +15157,12 @@
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="177" t="str">
+      <c r="F148" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(23,  'Acceso con-entrada-QR-2',  1);</v>
       </c>
-      <c r="G148" s="177"/>
-      <c r="H148" s="178"/>
+      <c r="G148" s="178"/>
+      <c r="H148" s="179"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="67">
@@ -14464,12 +15173,12 @@
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="177" t="str">
+      <c r="F149" s="178" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(24,  'Acceso con-ingreso-ST-2',  1);</v>
       </c>
-      <c r="G149" s="177"/>
-      <c r="H149" s="178"/>
+      <c r="G149" s="178"/>
+      <c r="H149" s="179"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="67">
@@ -14480,9 +15189,9 @@
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="177"/>
-      <c r="G150" s="177"/>
-      <c r="H150" s="178"/>
+      <c r="F150" s="178"/>
+      <c r="G150" s="178"/>
+      <c r="H150" s="179"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="67">
@@ -14613,12 +15322,12 @@
       <c r="J162" s="62"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B163" s="180" t="s">
+      <c r="B163" s="181" t="s">
         <v>197</v>
       </c>
-      <c r="C163" s="181"/>
-      <c r="D163" s="181"/>
-      <c r="E163" s="182"/>
+      <c r="C163" s="182"/>
+      <c r="D163" s="182"/>
+      <c r="E163" s="183"/>
       <c r="F163" s="76" t="str">
         <f>$B$162&amp;B179&amp;",  '"&amp;C179&amp;"',"&amp;D179&amp;","&amp;E179&amp;","&amp;F179&amp;","&amp;G179&amp;","&amp;H179&amp;",  1);"</f>
         <v>insert into `tbCapacidadTr`  values(1,  '11111',1,3,0,0,100,  1);</v>
@@ -14629,10 +15338,10 @@
       <c r="J163" s="63"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="183"/>
-      <c r="C164" s="184"/>
-      <c r="D164" s="184"/>
-      <c r="E164" s="185"/>
+      <c r="B164" s="184"/>
+      <c r="C164" s="185"/>
+      <c r="D164" s="185"/>
+      <c r="E164" s="186"/>
       <c r="F164" s="76" t="str">
         <f t="shared" ref="F164:F169" si="6">$B$162&amp;B180&amp;",  '"&amp;C180&amp;"',"&amp;D180&amp;","&amp;E180&amp;","&amp;F180&amp;","&amp;G180&amp;","&amp;H180&amp;",  1);"</f>
         <v>insert into `tbCapacidadTr`  values(2,  '11112',2,0,10,0,120,  1);</v>
@@ -14643,10 +15352,10 @@
       <c r="J164" s="63"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="183"/>
-      <c r="C165" s="184"/>
-      <c r="D165" s="184"/>
-      <c r="E165" s="185"/>
+      <c r="B165" s="184"/>
+      <c r="C165" s="185"/>
+      <c r="D165" s="185"/>
+      <c r="E165" s="186"/>
       <c r="F165" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(3,  '11113',3,0,0,100,150,  1);</v>
@@ -14657,10 +15366,10 @@
       <c r="J165" s="63"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B166" s="183"/>
-      <c r="C166" s="184"/>
-      <c r="D166" s="184"/>
-      <c r="E166" s="185"/>
+      <c r="B166" s="184"/>
+      <c r="C166" s="185"/>
+      <c r="D166" s="185"/>
+      <c r="E166" s="186"/>
       <c r="F166" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(4,  '11114',4,0,8,0,200,  1);</v>
@@ -14671,10 +15380,10 @@
       <c r="J166" s="63"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" s="183"/>
-      <c r="C167" s="184"/>
-      <c r="D167" s="184"/>
-      <c r="E167" s="185"/>
+      <c r="B167" s="184"/>
+      <c r="C167" s="185"/>
+      <c r="D167" s="185"/>
+      <c r="E167" s="186"/>
       <c r="F167" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(5,  '11115',5,3,0,20,130,  1);</v>
@@ -14685,10 +15394,10 @@
       <c r="J167" s="63"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B168" s="183"/>
-      <c r="C168" s="184"/>
-      <c r="D168" s="184"/>
-      <c r="E168" s="185"/>
+      <c r="B168" s="184"/>
+      <c r="C168" s="185"/>
+      <c r="D168" s="185"/>
+      <c r="E168" s="186"/>
       <c r="F168" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(6,  '11116',6,0,10,30,250,  1);</v>
@@ -14699,10 +15408,10 @@
       <c r="J168" s="63"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="183"/>
-      <c r="C169" s="184"/>
-      <c r="D169" s="184"/>
-      <c r="E169" s="185"/>
+      <c r="B169" s="184"/>
+      <c r="C169" s="185"/>
+      <c r="D169" s="185"/>
+      <c r="E169" s="186"/>
       <c r="F169" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(7,  '11117',7,5,8,20,350,  1);</v>
@@ -14713,10 +15422,10 @@
       <c r="J169" s="63"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B170" s="183"/>
-      <c r="C170" s="184"/>
-      <c r="D170" s="184"/>
-      <c r="E170" s="185"/>
+      <c r="B170" s="184"/>
+      <c r="C170" s="185"/>
+      <c r="D170" s="185"/>
+      <c r="E170" s="186"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
@@ -14724,10 +15433,10 @@
       <c r="J170" s="63"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B171" s="183"/>
-      <c r="C171" s="184"/>
-      <c r="D171" s="184"/>
-      <c r="E171" s="185"/>
+      <c r="B171" s="184"/>
+      <c r="C171" s="185"/>
+      <c r="D171" s="185"/>
+      <c r="E171" s="186"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -14735,10 +15444,10 @@
       <c r="J171" s="63"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B172" s="183"/>
-      <c r="C172" s="184"/>
-      <c r="D172" s="184"/>
-      <c r="E172" s="185"/>
+      <c r="B172" s="184"/>
+      <c r="C172" s="185"/>
+      <c r="D172" s="185"/>
+      <c r="E172" s="186"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -14746,10 +15455,10 @@
       <c r="J172" s="63"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B173" s="183"/>
-      <c r="C173" s="184"/>
-      <c r="D173" s="184"/>
-      <c r="E173" s="185"/>
+      <c r="B173" s="184"/>
+      <c r="C173" s="185"/>
+      <c r="D173" s="185"/>
+      <c r="E173" s="186"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
@@ -14757,10 +15466,10 @@
       <c r="J173" s="63"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B174" s="183"/>
-      <c r="C174" s="184"/>
-      <c r="D174" s="184"/>
-      <c r="E174" s="185"/>
+      <c r="B174" s="184"/>
+      <c r="C174" s="185"/>
+      <c r="D174" s="185"/>
+      <c r="E174" s="186"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -15122,8 +15831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3732B1-2FE7-4207-8385-02075B4C4F6B}">
   <dimension ref="C2:AE1167"/>
   <sheetViews>
-    <sheetView topLeftCell="U8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17:Y20"/>
+    <sheetView topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15159,259 +15868,259 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="197" t="s">
         <v>675</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="H2" s="196" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="H2" s="197" t="s">
         <v>676</v>
       </c>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
       <c r="L2" s="168"/>
-      <c r="M2" s="196" t="s">
+      <c r="M2" s="197" t="s">
         <v>677</v>
       </c>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="R2" s="196" t="s">
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="R2" s="197" t="s">
         <v>678</v>
       </c>
-      <c r="S2" s="197"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="W2" s="196" t="s">
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="W2" s="197" t="s">
         <v>679</v>
       </c>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="197"/>
-      <c r="AB2" s="196" t="s">
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AB2" s="197" t="s">
         <v>680</v>
       </c>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
     </row>
     <row r="3" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="196"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
       <c r="L3" s="168"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="198"/>
+      <c r="Z3" s="198"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="198"/>
+      <c r="AE3" s="198"/>
     </row>
     <row r="4" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="H4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="198"/>
+      <c r="K4" s="198"/>
       <c r="L4" s="168"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="197"/>
-      <c r="P4" s="197"/>
-      <c r="R4" s="197"/>
-      <c r="S4" s="197"/>
-      <c r="T4" s="197"/>
-      <c r="U4" s="197"/>
-      <c r="W4" s="197"/>
-      <c r="X4" s="197"/>
-      <c r="Y4" s="197"/>
-      <c r="Z4" s="197"/>
-      <c r="AB4" s="197"/>
-      <c r="AC4" s="197"/>
-      <c r="AD4" s="197"/>
-      <c r="AE4" s="197"/>
+      <c r="M4" s="198"/>
+      <c r="N4" s="198"/>
+      <c r="O4" s="198"/>
+      <c r="P4" s="198"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="198"/>
+      <c r="W4" s="198"/>
+      <c r="X4" s="198"/>
+      <c r="Y4" s="198"/>
+      <c r="Z4" s="198"/>
+      <c r="AB4" s="198"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="198"/>
+      <c r="AE4" s="198"/>
     </row>
     <row r="5" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="197"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="198"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="W5" s="198"/>
+      <c r="X5" s="198"/>
+      <c r="Y5" s="198"/>
+      <c r="Z5" s="198"/>
+      <c r="AB5" s="198"/>
+      <c r="AC5" s="198"/>
+      <c r="AD5" s="198"/>
+      <c r="AE5" s="198"/>
     </row>
     <row r="6" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
-      <c r="F6" s="196"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="198"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="197"/>
-      <c r="AB6" s="197"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
+      <c r="M6" s="198"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="198"/>
+      <c r="T6" s="198"/>
+      <c r="U6" s="198"/>
+      <c r="W6" s="198"/>
+      <c r="X6" s="198"/>
+      <c r="Y6" s="198"/>
+      <c r="Z6" s="198"/>
+      <c r="AB6" s="198"/>
+      <c r="AC6" s="198"/>
+      <c r="AD6" s="198"/>
+      <c r="AE6" s="198"/>
     </row>
     <row r="7" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="198"/>
+      <c r="K7" s="198"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="197"/>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="197"/>
-      <c r="Y7" s="197"/>
-      <c r="Z7" s="197"/>
-      <c r="AB7" s="197"/>
-      <c r="AC7" s="197"/>
-      <c r="AD7" s="197"/>
-      <c r="AE7" s="197"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="198"/>
+      <c r="O7" s="198"/>
+      <c r="P7" s="198"/>
+      <c r="R7" s="198"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="W7" s="198"/>
+      <c r="X7" s="198"/>
+      <c r="Y7" s="198"/>
+      <c r="Z7" s="198"/>
+      <c r="AB7" s="198"/>
+      <c r="AC7" s="198"/>
+      <c r="AD7" s="198"/>
+      <c r="AE7" s="198"/>
     </row>
     <row r="8" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="H8" s="198"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="198"/>
+      <c r="K8" s="198"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="197"/>
-      <c r="O8" s="197"/>
-      <c r="P8" s="197"/>
-      <c r="R8" s="197"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="197"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="197"/>
-      <c r="Z8" s="197"/>
-      <c r="AB8" s="197"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="197"/>
-      <c r="AE8" s="197"/>
+      <c r="M8" s="198"/>
+      <c r="N8" s="198"/>
+      <c r="O8" s="198"/>
+      <c r="P8" s="198"/>
+      <c r="R8" s="198"/>
+      <c r="S8" s="198"/>
+      <c r="T8" s="198"/>
+      <c r="U8" s="198"/>
+      <c r="W8" s="198"/>
+      <c r="X8" s="198"/>
+      <c r="Y8" s="198"/>
+      <c r="Z8" s="198"/>
+      <c r="AB8" s="198"/>
+      <c r="AC8" s="198"/>
+      <c r="AD8" s="198"/>
+      <c r="AE8" s="198"/>
     </row>
     <row r="9" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="197"/>
-      <c r="J9" s="197"/>
-      <c r="K9" s="197"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="R9" s="197"/>
-      <c r="S9" s="197"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="197"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="197"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="197"/>
-      <c r="AB9" s="197"/>
-      <c r="AC9" s="197"/>
-      <c r="AD9" s="197"/>
-      <c r="AE9" s="197"/>
+      <c r="M9" s="198"/>
+      <c r="N9" s="198"/>
+      <c r="O9" s="198"/>
+      <c r="P9" s="198"/>
+      <c r="R9" s="198"/>
+      <c r="S9" s="198"/>
+      <c r="T9" s="198"/>
+      <c r="U9" s="198"/>
+      <c r="W9" s="198"/>
+      <c r="X9" s="198"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="198"/>
+      <c r="AB9" s="198"/>
+      <c r="AC9" s="198"/>
+      <c r="AD9" s="198"/>
+      <c r="AE9" s="198"/>
     </row>
     <row r="10" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="198"/>
+      <c r="K10" s="198"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="W10" s="197"/>
-      <c r="X10" s="197"/>
-      <c r="Y10" s="197"/>
-      <c r="Z10" s="197"/>
-      <c r="AB10" s="197"/>
-      <c r="AC10" s="197"/>
-      <c r="AD10" s="197"/>
-      <c r="AE10" s="197"/>
+      <c r="M10" s="198"/>
+      <c r="N10" s="198"/>
+      <c r="O10" s="198"/>
+      <c r="P10" s="198"/>
+      <c r="R10" s="198"/>
+      <c r="S10" s="198"/>
+      <c r="T10" s="198"/>
+      <c r="U10" s="198"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="198"/>
+      <c r="Y10" s="198"/>
+      <c r="Z10" s="198"/>
+      <c r="AB10" s="198"/>
+      <c r="AC10" s="198"/>
+      <c r="AD10" s="198"/>
+      <c r="AE10" s="198"/>
     </row>
     <row r="11" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C11" s="167"/>
@@ -15468,43 +16177,43 @@
       </c>
     </row>
     <row r="15" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C15" s="201" t="s">
+      <c r="C15" s="202" t="s">
         <v>669</v>
       </c>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="203"/>
-      <c r="H15" s="198" t="s">
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="204"/>
+      <c r="H15" s="199" t="s">
         <v>670</v>
       </c>
-      <c r="I15" s="199"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
       <c r="L15" s="163"/>
-      <c r="M15" s="176" t="s">
+      <c r="M15" s="177" t="s">
         <v>671</v>
       </c>
-      <c r="N15" s="176"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="176"/>
-      <c r="R15" s="176" t="s">
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="R15" s="177" t="s">
         <v>672</v>
       </c>
-      <c r="S15" s="176"/>
-      <c r="T15" s="176"/>
-      <c r="U15" s="176"/>
-      <c r="W15" s="176" t="s">
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="W15" s="177" t="s">
         <v>673</v>
       </c>
-      <c r="X15" s="176"/>
-      <c r="Y15" s="176"/>
-      <c r="Z15" s="176"/>
-      <c r="AB15" s="176" t="s">
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AB15" s="177" t="s">
         <v>674</v>
       </c>
-      <c r="AC15" s="176"/>
-      <c r="AD15" s="176"/>
-      <c r="AE15" s="176"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="177"/>
+      <c r="AE15" s="177"/>
     </row>
     <row r="16" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C16" s="159" t="s">
@@ -30838,7 +31547,7 @@
         <v>1</v>
       </c>
       <c r="R238" t="str">
-        <f t="shared" ref="R238:R269" si="5">$R$12&amp;R114&amp;","&amp;S114&amp;","&amp;T114&amp;","&amp;U114&amp;");"</f>
+        <f t="shared" ref="R238:R263" si="5">$R$12&amp;R114&amp;","&amp;S114&amp;","&amp;T114&amp;","&amp;U114&amp;");"</f>
         <v>Insert into `tbrelOrgtiponegocio` values(98,28,5,1);</v>
       </c>
       <c r="W238" t="str">
@@ -34259,13 +34968,13 @@
       </c>
     </row>
     <row r="305" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C305" s="196" t="str">
+      <c r="C305" s="197" t="str">
         <f t="shared" si="7"/>
         <v>Insert into `tbrelOrgRedes` values(144,36,4,1);</v>
       </c>
-      <c r="D305" s="196"/>
-      <c r="E305" s="196"/>
-      <c r="F305" s="196"/>
+      <c r="D305" s="197"/>
+      <c r="E305" s="197"/>
+      <c r="F305" s="197"/>
       <c r="H305" s="112">
         <v>289</v>
       </c>
@@ -42494,13 +43203,13 @@
       <c r="D486" s="167"/>
       <c r="E486" s="167"/>
       <c r="G486" s="167"/>
-      <c r="H486" s="196" t="str">
+      <c r="H486" s="197" t="str">
         <f t="shared" ref="H486:H493" si="10">$H$12&amp;H17&amp;","&amp;I17&amp;","&amp;J17&amp;","&amp;K17&amp;");"</f>
         <v>Insert into `tbrelOrgInstalacion` values(1,1,1,1);</v>
       </c>
-      <c r="I486" s="196"/>
-      <c r="J486" s="196"/>
-      <c r="K486" s="196"/>
+      <c r="I486" s="197"/>
+      <c r="J486" s="197"/>
+      <c r="K486" s="197"/>
       <c r="L486" s="166"/>
       <c r="M486" s="2">
         <v>470</v>
@@ -54130,13 +54839,13 @@
       <c r="E953" s="167"/>
       <c r="F953" s="167"/>
       <c r="G953" s="167"/>
-      <c r="H953" s="196" t="str">
+      <c r="H953" s="197" t="str">
         <f t="shared" si="31"/>
         <v>Insert into `tbrelOrgInstalacion` values(468,36,17,1);</v>
       </c>
-      <c r="I953" s="196"/>
-      <c r="J953" s="196"/>
-      <c r="K953" s="196"/>
+      <c r="I953" s="197"/>
+      <c r="J953" s="197"/>
+      <c r="K953" s="197"/>
       <c r="L953" s="166"/>
       <c r="M953" t="str">
         <f t="shared" si="30"/>
@@ -54173,10 +54882,10 @@
       <c r="E955" s="167"/>
       <c r="F955" s="167"/>
       <c r="G955" s="167"/>
-      <c r="H955" s="196"/>
-      <c r="I955" s="196"/>
-      <c r="J955" s="196"/>
-      <c r="K955" s="196"/>
+      <c r="H955" s="197"/>
+      <c r="I955" s="197"/>
+      <c r="J955" s="197"/>
+      <c r="K955" s="197"/>
       <c r="L955" s="166"/>
       <c r="M955" t="str">
         <f t="shared" si="30"/>
@@ -55565,17 +56274,174 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F011F-3E81-4A40-B1FE-DC80FA4AA4B0}">
+  <dimension ref="D3:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="233"/>
+      <c r="E4" s="234"/>
+      <c r="F4" s="234"/>
+      <c r="G4" s="234"/>
+      <c r="H4" s="235"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="242"/>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D5" s="236"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="237"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="128"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="244"/>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="236"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="237"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="244"/>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D7" s="236"/>
+      <c r="E7" s="239" t="s">
+        <v>691</v>
+      </c>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="237"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="249" t="s">
+        <v>692</v>
+      </c>
+      <c r="L7" s="248"/>
+      <c r="M7" s="248"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="244"/>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="236"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="237"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="248"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="248"/>
+      <c r="O8" s="244"/>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D9" s="236"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="237"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="248"/>
+      <c r="L9" s="248"/>
+      <c r="M9" s="248"/>
+      <c r="N9" s="248"/>
+      <c r="O9" s="244"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="236"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="237"/>
+      <c r="J10" s="243"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="244"/>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="236"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="237"/>
+      <c r="J11" s="243"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="244"/>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="236"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="237"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="244"/>
+    </row>
+    <row r="13" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="238"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="34"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="246"/>
+      <c r="M13" s="246"/>
+      <c r="N13" s="246"/>
+      <c r="O13" s="247"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E7:G9"/>
+    <mergeCell ref="K7:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1EB7C-E4D6-4446-BF98-C9AE28EACFFF}">
   <dimension ref="F12:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="12" spans="6:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="232" t="s">
+      <c r="F12" s="170" t="s">
         <v>687</v>
       </c>
       <c r="H12">
@@ -55588,7 +56454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5C0784-B073-46BD-A3F0-A03D240775F5}">
   <sheetPr codeName="Hoja3">
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -55631,38 +56497,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="208" t="s">
+      <c r="D1" s="209" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
-      <c r="S1" s="209"/>
-      <c r="T1" s="209"/>
-      <c r="U1" s="209"/>
-      <c r="V1" s="210"/>
-      <c r="X1" s="211" t="s">
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="211"/>
+      <c r="X1" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="212"/>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="212"/>
-      <c r="AD1" s="212"/>
-      <c r="AE1" s="212"/>
-      <c r="AF1" s="212"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="213"/>
+      <c r="AA1" s="213"/>
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="213"/>
+      <c r="AE1" s="213"/>
+      <c r="AF1" s="213"/>
       <c r="AQ1" s="18"/>
       <c r="AR1" s="18"/>
       <c r="AS1" s="4"/>
@@ -55826,7 +56692,7 @@
       <c r="AD3" s="77"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="204" t="s">
+      <c r="AG3" s="205" t="s">
         <v>378</v>
       </c>
     </row>
@@ -55889,13 +56755,13 @@
       <c r="AD4" s="77"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="205"/>
+      <c r="AG4" s="206"/>
     </row>
     <row r="5" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="216"/>
+      <c r="G5" s="217"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -55903,13 +56769,13 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
-      <c r="O5" s="213" t="s">
+      <c r="O5" s="214" t="s">
         <v>258</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="219"/>
-      <c r="S5" s="222"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="223"/>
       <c r="T5" s="17"/>
       <c r="U5" s="78"/>
       <c r="V5" s="17"/>
@@ -55932,13 +56798,13 @@
       <c r="AD5" s="77"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="205"/>
+      <c r="AG5" s="206"/>
     </row>
     <row r="6" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="217"/>
+      <c r="G6" s="218"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -55946,11 +56812,11 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="214"/>
+      <c r="O6" s="215"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="220"/>
-      <c r="S6" s="223"/>
+      <c r="R6" s="221"/>
+      <c r="S6" s="224"/>
       <c r="T6" s="17"/>
       <c r="U6" s="78"/>
       <c r="V6" s="17"/>
@@ -55973,13 +56839,13 @@
       <c r="AD6" s="77"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="205"/>
+      <c r="AG6" s="206"/>
     </row>
     <row r="7" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="217"/>
+      <c r="G7" s="218"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -55987,11 +56853,11 @@
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="214"/>
+      <c r="O7" s="215"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="220"/>
-      <c r="S7" s="223"/>
+      <c r="R7" s="221"/>
+      <c r="S7" s="224"/>
       <c r="T7" s="17"/>
       <c r="U7" s="78"/>
       <c r="V7" s="17"/>
@@ -56014,13 +56880,13 @@
       <c r="AD7" s="77"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="205"/>
+      <c r="AG7" s="206"/>
     </row>
     <row r="8" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="217"/>
+      <c r="G8" s="218"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -56028,11 +56894,11 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="214"/>
+      <c r="O8" s="215"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="223"/>
+      <c r="R8" s="221"/>
+      <c r="S8" s="224"/>
       <c r="T8" s="17"/>
       <c r="U8" s="78"/>
       <c r="V8" s="17"/>
@@ -56055,13 +56921,13 @@
       <c r="AD8" s="77"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="205"/>
+      <c r="AG8" s="206"/>
     </row>
     <row r="9" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="217"/>
+      <c r="G9" s="218"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -56069,11 +56935,11 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="214"/>
+      <c r="O9" s="215"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="223"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="224"/>
       <c r="T9" s="17"/>
       <c r="U9" s="78"/>
       <c r="V9" s="17"/>
@@ -56096,13 +56962,13 @@
       <c r="AD9" s="77"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="205"/>
+      <c r="AG9" s="206"/>
     </row>
     <row r="10" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="217"/>
+      <c r="G10" s="218"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -56110,11 +56976,11 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
-      <c r="O10" s="214"/>
+      <c r="O10" s="215"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="220"/>
-      <c r="S10" s="223"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="224"/>
       <c r="T10" s="17"/>
       <c r="U10" s="78"/>
       <c r="V10" s="17"/>
@@ -56137,13 +57003,13 @@
       <c r="AD10" s="77"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="205"/>
+      <c r="AG10" s="206"/>
     </row>
     <row r="11" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="217"/>
+      <c r="G11" s="218"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -56151,11 +57017,11 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
-      <c r="O11" s="214"/>
+      <c r="O11" s="215"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="223"/>
+      <c r="R11" s="221"/>
+      <c r="S11" s="224"/>
       <c r="T11" s="17"/>
       <c r="U11" s="78"/>
       <c r="V11" s="17"/>
@@ -56180,13 +57046,13 @@
       <c r="AD11" s="77"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="205"/>
+      <c r="AG11" s="206"/>
     </row>
     <row r="12" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="218"/>
+      <c r="G12" s="219"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -56194,11 +57060,11 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="215"/>
+      <c r="O12" s="216"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="221"/>
-      <c r="S12" s="224"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="225"/>
       <c r="T12" s="17"/>
       <c r="U12" s="78"/>
       <c r="V12" s="17"/>
@@ -56211,7 +57077,7 @@
       <c r="AD12" s="77"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="206"/>
+      <c r="AG12" s="207"/>
     </row>
     <row r="16" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
@@ -56240,11 +57106,11 @@
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="207" t="s">
+      <c r="H18" s="208" t="s">
         <v>270</v>
       </c>
-      <c r="I18" s="207"/>
-      <c r="J18" s="207"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -56474,12 +57340,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF544BF-72FE-49A9-A88E-AF42F52C5C0F}">
   <dimension ref="B4:AB87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G26"/>
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56582,11 +57448,11 @@
       <c r="C5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="225" t="s">
+      <c r="E5" s="226" t="s">
         <v>689</v>
       </c>
-      <c r="F5" s="225"/>
-      <c r="G5" s="225"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="226"/>
       <c r="J5" s="6">
         <v>1</v>
       </c>
@@ -56616,7 +57482,7 @@
       </c>
       <c r="S5" t="str">
         <f ca="1">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero123@correo.com</v>
+        <v>correohotelnumero118@correo.com</v>
       </c>
       <c r="T5" s="165" t="s">
         <v>372</v>
@@ -56626,11 +57492,11 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" ref="V5:V40" ca="1" si="0">IF(L5&gt;1,RANDBETWEEN(1,10),RANDBETWEEN(1,5))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W40" ca="1" si="1">IF(L5&gt;2,RANDBETWEEN(120,250),IF(L5&gt;1,RANDBETWEEN(90,120),RANDBETWEEN(50,100)))</f>
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X5" s="165" t="s">
         <v>415</v>
@@ -56656,9 +57522,9 @@
       <c r="C6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="226"/>
       <c r="J6" s="6">
         <v>2</v>
       </c>
@@ -56688,7 +57554,7 @@
       </c>
       <c r="S6" t="str">
         <f t="shared" ref="S6:S40" ca="1" si="3">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero182@correo.com</v>
+        <v>correohotelnumero146@correo.com</v>
       </c>
       <c r="T6" s="165" t="s">
         <v>271</v>
@@ -56702,7 +57568,7 @@
       </c>
       <c r="W6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="X6" s="165" t="s">
         <v>416</v>
@@ -56728,9 +57594,9 @@
       <c r="C7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
       <c r="J7" s="6">
         <v>3</v>
       </c>
@@ -56760,7 +57626,7 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero171@correo.com</v>
+        <v>correohotelnumero102@correo.com</v>
       </c>
       <c r="T7" s="165" t="s">
         <v>105</v>
@@ -56774,7 +57640,7 @@
       </c>
       <c r="W7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="X7" s="165" t="s">
         <v>417</v>
@@ -56800,9 +57666,9 @@
       <c r="C8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="225"/>
-      <c r="F8" s="225"/>
-      <c r="G8" s="225"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="226"/>
       <c r="J8" s="6">
         <v>4</v>
       </c>
@@ -56832,7 +57698,7 @@
       </c>
       <c r="S8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero143@correo.com</v>
+        <v>correohotelnumero136@correo.com</v>
       </c>
       <c r="T8" s="165" t="s">
         <v>373</v>
@@ -56842,11 +57708,11 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="X8" s="165" t="s">
         <v>418</v>
@@ -56872,9 +57738,9 @@
       <c r="C9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="225"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="226"/>
       <c r="J9" s="6">
         <v>5</v>
       </c>
@@ -56904,7 +57770,7 @@
       </c>
       <c r="S9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero195@correo.com</v>
+        <v>correohotelnumero103@correo.com</v>
       </c>
       <c r="T9" s="165" t="s">
         <v>371</v>
@@ -56914,11 +57780,11 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="X9" s="165" t="s">
         <v>419</v>
@@ -56944,9 +57810,9 @@
       <c r="C10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="225"/>
-      <c r="F10" s="225"/>
-      <c r="G10" s="225"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="226"/>
       <c r="J10" s="6">
         <v>6</v>
       </c>
@@ -56955,7 +57821,7 @@
       </c>
       <c r="L10" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" s="102" t="s">
         <v>213</v>
@@ -56977,7 +57843,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero128@correo.com</v>
+        <v>correohotelnumero177@correo.com</v>
       </c>
       <c r="T10" s="165" t="s">
         <v>105</v>
@@ -56987,11 +57853,11 @@
       </c>
       <c r="V10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="X10" s="165" t="s">
         <v>420</v>
@@ -57017,9 +57883,9 @@
       <c r="C11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="225"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="225"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
+      <c r="G11" s="226"/>
       <c r="J11" s="6">
         <v>7</v>
       </c>
@@ -57028,7 +57894,7 @@
       </c>
       <c r="L11" s="8">
         <f t="shared" ref="L11:L40" ca="1" si="4">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="102" t="s">
         <v>214</v>
@@ -57050,7 +57916,7 @@
       </c>
       <c r="S11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero170@correo.com</v>
+        <v>correohotelnumero101@correo.com</v>
       </c>
       <c r="T11" s="165" t="s">
         <v>102</v>
@@ -57064,7 +57930,7 @@
       </c>
       <c r="W11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="X11" s="165" t="s">
         <v>421</v>
@@ -57090,9 +57956,9 @@
       <c r="C12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="225"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="225"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="226"/>
+      <c r="G12" s="226"/>
       <c r="J12" s="6">
         <v>8</v>
       </c>
@@ -57101,7 +57967,7 @@
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" s="102" t="s">
         <v>272</v>
@@ -57123,7 +57989,7 @@
       </c>
       <c r="S12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero104@correo.com</v>
+        <v>correohotelnumero133@correo.com</v>
       </c>
       <c r="T12" s="165" t="s">
         <v>102</v>
@@ -57133,11 +57999,11 @@
       </c>
       <c r="V12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="X12" s="165" t="s">
         <v>422</v>
@@ -57163,9 +58029,9 @@
       <c r="C13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="225"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="225"/>
+      <c r="E13" s="226"/>
+      <c r="F13" s="226"/>
+      <c r="G13" s="226"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -57174,7 +58040,7 @@
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" s="102" t="s">
         <v>273</v>
@@ -57196,7 +58062,7 @@
       </c>
       <c r="S13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero152@correo.com</v>
+        <v>correohotelnumero122@correo.com</v>
       </c>
       <c r="T13" s="165" t="s">
         <v>374</v>
@@ -57206,11 +58072,11 @@
       </c>
       <c r="V13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="X13" s="165" t="s">
         <v>423</v>
@@ -57236,9 +58102,9 @@
       <c r="C14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="225"/>
-      <c r="F14" s="225"/>
-      <c r="G14" s="225"/>
+      <c r="E14" s="226"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="226"/>
       <c r="J14" s="6">
         <v>10</v>
       </c>
@@ -57247,7 +58113,7 @@
       </c>
       <c r="L14" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="102" t="s">
         <v>274</v>
@@ -57269,7 +58135,7 @@
       </c>
       <c r="S14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero143@correo.com</v>
+        <v>correohotelnumero112@correo.com</v>
       </c>
       <c r="T14" s="165" t="s">
         <v>373</v>
@@ -57279,11 +58145,11 @@
       </c>
       <c r="V14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="X14" s="165" t="s">
         <v>424</v>
@@ -57309,9 +58175,9 @@
       <c r="C15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
       <c r="J15" s="6">
         <v>11</v>
       </c>
@@ -57320,7 +58186,7 @@
       </c>
       <c r="L15" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" s="102" t="s">
         <v>275</v>
@@ -57342,7 +58208,7 @@
       </c>
       <c r="S15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero107@correo.com</v>
+        <v>correohotelnumero177@correo.com</v>
       </c>
       <c r="T15" s="165" t="s">
         <v>371</v>
@@ -57352,11 +58218,11 @@
       </c>
       <c r="V15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="X15" s="165" t="s">
         <v>425</v>
@@ -57382,9 +58248,9 @@
       <c r="C16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="225"/>
-      <c r="F16" s="225"/>
-      <c r="G16" s="225"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="226"/>
       <c r="J16" s="6">
         <v>12</v>
       </c>
@@ -57415,7 +58281,7 @@
       </c>
       <c r="S16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero181@correo.com</v>
+        <v>correohotelnumero187@correo.com</v>
       </c>
       <c r="T16" s="165" t="s">
         <v>372</v>
@@ -57425,11 +58291,11 @@
       </c>
       <c r="V16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X16" s="165" t="s">
         <v>426</v>
@@ -57455,9 +58321,9 @@
       <c r="C17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="225"/>
-      <c r="F17" s="225"/>
-      <c r="G17" s="225"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="226"/>
       <c r="J17" s="6">
         <v>13</v>
       </c>
@@ -57466,7 +58332,7 @@
       </c>
       <c r="L17" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" s="102" t="s">
         <v>277</v>
@@ -57498,11 +58364,11 @@
       </c>
       <c r="V17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="X17" s="165" t="s">
         <v>427</v>
@@ -57528,9 +58394,9 @@
       <c r="C18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="225"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="225"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
+      <c r="G18" s="226"/>
       <c r="J18" s="6">
         <v>14</v>
       </c>
@@ -57539,7 +58405,7 @@
       </c>
       <c r="L18" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="102" t="s">
         <v>278</v>
@@ -57561,7 +58427,7 @@
       </c>
       <c r="S18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero183@correo.com</v>
+        <v>correohotelnumero160@correo.com</v>
       </c>
       <c r="T18" s="165" t="s">
         <v>370</v>
@@ -57575,7 +58441,7 @@
       </c>
       <c r="W18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="X18" s="165" t="s">
         <v>428</v>
@@ -57601,9 +58467,9 @@
       <c r="C19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="225"/>
-      <c r="F19" s="225"/>
-      <c r="G19" s="225"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
       <c r="J19" s="6">
         <v>15</v>
       </c>
@@ -57612,7 +58478,7 @@
       </c>
       <c r="L19" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="102" t="s">
         <v>279</v>
@@ -57634,7 +58500,7 @@
       </c>
       <c r="S19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero177@correo.com</v>
+        <v>correohotelnumero191@correo.com</v>
       </c>
       <c r="T19" s="165" t="s">
         <v>370</v>
@@ -57644,11 +58510,11 @@
       </c>
       <c r="V19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="X19" s="165" t="s">
         <v>429</v>
@@ -57674,9 +58540,9 @@
       <c r="C20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="225"/>
+      <c r="E20" s="226"/>
+      <c r="F20" s="226"/>
+      <c r="G20" s="226"/>
       <c r="J20" s="6">
         <v>16</v>
       </c>
@@ -57707,7 +58573,7 @@
       </c>
       <c r="S20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero114@correo.com</v>
+        <v>correohotelnumero111@correo.com</v>
       </c>
       <c r="T20" s="165" t="s">
         <v>105</v>
@@ -57717,11 +58583,11 @@
       </c>
       <c r="V20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="X20" s="165" t="s">
         <v>430</v>
@@ -57747,9 +58613,9 @@
       <c r="C21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="225"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
+      <c r="E21" s="226"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="226"/>
       <c r="J21" s="6">
         <v>17</v>
       </c>
@@ -57758,7 +58624,7 @@
       </c>
       <c r="L21" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="102" t="s">
         <v>281</v>
@@ -57780,7 +58646,7 @@
       </c>
       <c r="S21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero181@correo.com</v>
+        <v>correohotelnumero169@correo.com</v>
       </c>
       <c r="T21" s="165" t="s">
         <v>372</v>
@@ -57790,11 +58656,11 @@
       </c>
       <c r="V21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="X21" s="165" t="s">
         <v>431</v>
@@ -57820,9 +58686,9 @@
       <c r="C22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="225"/>
-      <c r="F22" s="225"/>
-      <c r="G22" s="225"/>
+      <c r="E22" s="226"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="226"/>
       <c r="J22" s="6">
         <v>18</v>
       </c>
@@ -57831,7 +58697,7 @@
       </c>
       <c r="L22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22" s="102" t="s">
         <v>282</v>
@@ -57853,7 +58719,7 @@
       </c>
       <c r="S22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero147@correo.com</v>
+        <v>correohotelnumero185@correo.com</v>
       </c>
       <c r="T22" s="165" t="s">
         <v>105</v>
@@ -57863,11 +58729,11 @@
       </c>
       <c r="V22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="X22" s="165" t="s">
         <v>432</v>
@@ -57893,9 +58759,9 @@
       <c r="C23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="225"/>
-      <c r="F23" s="225"/>
-      <c r="G23" s="225"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
       <c r="J23" s="6">
         <v>19</v>
       </c>
@@ -57926,7 +58792,7 @@
       </c>
       <c r="S23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero161@correo.com</v>
+        <v>correohotelnumero119@correo.com</v>
       </c>
       <c r="T23" s="165" t="s">
         <v>602</v>
@@ -57936,11 +58802,11 @@
       </c>
       <c r="V23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="X23" s="165" t="s">
         <v>433</v>
@@ -57960,9 +58826,9 @@
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E24" s="225"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="225"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="226"/>
+      <c r="G24" s="226"/>
       <c r="J24" s="135">
         <v>20</v>
       </c>
@@ -57971,7 +58837,7 @@
       </c>
       <c r="L24" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" s="102" t="s">
         <v>284</v>
@@ -57993,7 +58859,7 @@
       </c>
       <c r="S24" s="139" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero200@correo.com</v>
+        <v>correohotelnumero128@correo.com</v>
       </c>
       <c r="T24" s="165" t="s">
         <v>603</v>
@@ -58007,7 +58873,7 @@
       </c>
       <c r="W24" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="X24" s="165" t="s">
         <v>434</v>
@@ -58027,9 +58893,9 @@
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E25" s="225"/>
-      <c r="F25" s="225"/>
-      <c r="G25" s="225"/>
+      <c r="E25" s="226"/>
+      <c r="F25" s="226"/>
+      <c r="G25" s="226"/>
       <c r="J25" s="6">
         <v>21</v>
       </c>
@@ -58038,7 +58904,7 @@
       </c>
       <c r="L25" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" s="102" t="s">
         <v>86</v>
@@ -58060,7 +58926,7 @@
       </c>
       <c r="S25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero181@correo.com</v>
+        <v>correohotelnumero187@correo.com</v>
       </c>
       <c r="T25" s="96" t="s">
         <v>370</v>
@@ -58074,7 +58940,7 @@
       </c>
       <c r="W25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="X25" s="120" t="s">
         <v>610</v>
@@ -58094,9 +58960,9 @@
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="225"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="226"/>
       <c r="J26" s="6">
         <v>22</v>
       </c>
@@ -58105,7 +58971,7 @@
       </c>
       <c r="L26" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" s="102" t="s">
         <v>128</v>
@@ -58127,7 +58993,7 @@
       </c>
       <c r="S26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero168@correo.com</v>
+        <v>correohotelnumero147@correo.com</v>
       </c>
       <c r="T26" s="96" t="s">
         <v>604</v>
@@ -58141,7 +59007,7 @@
       </c>
       <c r="W26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="X26" s="120" t="s">
         <v>611</v>
@@ -58169,7 +59035,7 @@
       </c>
       <c r="L27" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="102" t="s">
         <v>131</v>
@@ -58191,7 +59057,7 @@
       </c>
       <c r="S27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero181@correo.com</v>
+        <v>correohotelnumero168@correo.com</v>
       </c>
       <c r="T27" s="96" t="s">
         <v>605</v>
@@ -58201,11 +59067,11 @@
       </c>
       <c r="V27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="X27" s="120" t="s">
         <v>612</v>
@@ -58255,7 +59121,7 @@
       </c>
       <c r="S28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero179@correo.com</v>
+        <v>correohotelnumero129@correo.com</v>
       </c>
       <c r="T28" s="96" t="s">
         <v>605</v>
@@ -58265,11 +59131,11 @@
       </c>
       <c r="V28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="X28" s="120" t="s">
         <v>606</v>
@@ -58319,7 +59185,7 @@
       </c>
       <c r="S29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero193@correo.com</v>
+        <v>correohotelnumero194@correo.com</v>
       </c>
       <c r="T29" s="96" t="s">
         <v>105</v>
@@ -58329,11 +59195,11 @@
       </c>
       <c r="V29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="X29" s="120" t="s">
         <v>607</v>
@@ -58361,7 +59227,7 @@
       </c>
       <c r="L30" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30" s="102" t="s">
         <v>213</v>
@@ -58383,7 +59249,7 @@
       </c>
       <c r="S30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero179@correo.com</v>
+        <v>correohotelnumero189@correo.com</v>
       </c>
       <c r="T30" s="96" t="s">
         <v>602</v>
@@ -58397,7 +59263,7 @@
       </c>
       <c r="W30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="X30" s="120" t="s">
         <v>613</v>
@@ -58425,7 +59291,7 @@
       </c>
       <c r="L31" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" s="102" t="s">
         <v>214</v>
@@ -58447,7 +59313,7 @@
       </c>
       <c r="S31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero118@correo.com</v>
+        <v>correohotelnumero162@correo.com</v>
       </c>
       <c r="T31" s="96" t="s">
         <v>102</v>
@@ -58457,11 +59323,11 @@
       </c>
       <c r="V31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="X31" s="120" t="s">
         <v>608</v>
@@ -58511,7 +59377,7 @@
       </c>
       <c r="S32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero123@correo.com</v>
+        <v>correohotelnumero156@correo.com</v>
       </c>
       <c r="T32" s="96" t="s">
         <v>604</v>
@@ -58521,11 +59387,11 @@
       </c>
       <c r="V32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="X32" s="120" t="s">
         <v>614</v>
@@ -58553,7 +59419,7 @@
       </c>
       <c r="L33" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M33" s="102" t="s">
         <v>273</v>
@@ -58575,7 +59441,7 @@
       </c>
       <c r="S33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero108@correo.com</v>
+        <v>correohotelnumero132@correo.com</v>
       </c>
       <c r="T33" s="96" t="s">
         <v>605</v>
@@ -58585,11 +59451,11 @@
       </c>
       <c r="V33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="X33" s="120" t="s">
         <v>615</v>
@@ -58617,7 +59483,7 @@
       </c>
       <c r="L34" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="102" t="s">
         <v>274</v>
@@ -58639,7 +59505,7 @@
       </c>
       <c r="S34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero157@correo.com</v>
+        <v>correohotelnumero154@correo.com</v>
       </c>
       <c r="T34" s="96" t="s">
         <v>603</v>
@@ -58649,11 +59515,11 @@
       </c>
       <c r="V34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="X34" s="120" t="s">
         <v>616</v>
@@ -58681,7 +59547,7 @@
       </c>
       <c r="L35" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35" s="102" t="s">
         <v>275</v>
@@ -58703,7 +59569,7 @@
       </c>
       <c r="S35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero192@correo.com</v>
+        <v>correohotelnumero145@correo.com</v>
       </c>
       <c r="T35" s="96" t="s">
         <v>370</v>
@@ -58713,11 +59579,11 @@
       </c>
       <c r="V35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="X35" s="120" t="s">
         <v>617</v>
@@ -58745,7 +59611,7 @@
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M36" s="102" t="s">
         <v>276</v>
@@ -58767,7 +59633,7 @@
       </c>
       <c r="S36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero200@correo.com</v>
+        <v>correohotelnumero165@correo.com</v>
       </c>
       <c r="T36" s="96" t="s">
         <v>602</v>
@@ -58777,11 +59643,11 @@
       </c>
       <c r="V36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="X36" s="120" t="s">
         <v>618</v>
@@ -58809,7 +59675,7 @@
       </c>
       <c r="L37" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M37" s="102" t="s">
         <v>277</v>
@@ -58831,7 +59697,7 @@
       </c>
       <c r="S37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero159@correo.com</v>
+        <v>correohotelnumero110@correo.com</v>
       </c>
       <c r="T37" s="96" t="s">
         <v>105</v>
@@ -58845,7 +59711,7 @@
       </c>
       <c r="W37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="X37" s="120" t="s">
         <v>609</v>
@@ -58873,7 +59739,7 @@
       </c>
       <c r="L38" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38" s="102" t="s">
         <v>278</v>
@@ -58895,7 +59761,7 @@
       </c>
       <c r="S38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero143@correo.com</v>
+        <v>correohotelnumero197@correo.com</v>
       </c>
       <c r="T38" s="96" t="s">
         <v>370</v>
@@ -58905,11 +59771,11 @@
       </c>
       <c r="V38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="X38" s="120" t="s">
         <v>619</v>
@@ -58959,7 +59825,7 @@
       </c>
       <c r="S39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero182@correo.com</v>
+        <v>correohotelnumero196@correo.com</v>
       </c>
       <c r="T39" s="96" t="s">
         <v>605</v>
@@ -58969,11 +59835,11 @@
       </c>
       <c r="V39" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W39" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="X39" s="120" t="s">
         <v>620</v>
@@ -59023,7 +59889,7 @@
       </c>
       <c r="S40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero192@correo.com</v>
+        <v>correohotelnumero188@correo.com</v>
       </c>
       <c r="T40" s="96" t="s">
         <v>105</v>
@@ -59033,11 +59899,11 @@
       </c>
       <c r="V40" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="X40" s="120" t="s">
         <v>621</v>
@@ -59205,7 +60071,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" ref="J52:J71" ca="1" si="5">$E$4&amp;J5&amp;", '"&amp;K5&amp;"'  , "&amp;L5&amp;"  ,  '"&amp;M5&amp;"',  "&amp;N5&amp;",  '"&amp;O5&amp;"'  ,'"&amp;P5&amp;"' , '"&amp;Q5&amp;"'  ,'"&amp;R5&amp;"'  ,  '"&amp;S5&amp;"'  ,  '"&amp;T5&amp;"'  , '"&amp;U5&amp;"'  , "&amp;V5&amp;"  , "&amp;W5&amp;"  ,'"&amp;X5&amp;"'  , '"&amp;Y5&amp;"'  , '"&amp;Z5&amp;"'  ,  '"&amp;AA5&amp;"' , "&amp;AB5&amp;");"</f>
-        <v>insert into `Tborganizacion`  values(1, '11111'  , 2  ,  'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:',  39,  'Hotel numero-1'  ,'direccion del hotel-1' , '315-315-3010'  ,'320-315-2015'  ,  'correohotelnumero123@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 4  , 107  ,'1-4-20-7-10-12-19'  , '9-10-11-6-14'  , '24-20-10-7-19'  ,  'dir1/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(1, '11111'  , 2  ,  'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:',  39,  'Hotel numero-1'  ,'direccion del hotel-1' , '315-315-3010'  ,'320-315-2015'  ,  'correohotelnumero118@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 8  , 105  ,'1-4-20-7-10-12-19'  , '9-10-11-6-14'  , '24-20-10-7-19'  ,  'dir1/imgHotel/' , 1);</v>
       </c>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
@@ -59232,7 +60098,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(2, '11112'  , 1  ,  'Habitacion con vista al mar amobladas',  39,  'Hotel numero-2'  ,'direccion del hotel-2' , '315-315-3031'  ,'320-315-2231'  ,  'correohotelnumero182@correo.com'  ,  '1-6'  , '1-2-3-4-5'  , 5  , 67  ,'2-10-17-11-9-3-8'  , '9-6-11-14'  , '16-6-5-20-19'  ,  'dir2/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(2, '11112'  , 1  ,  'Habitacion con vista al mar amobladas',  39,  'Hotel numero-2'  ,'direccion del hotel-2' , '315-315-3031'  ,'320-315-2231'  ,  'correohotelnumero146@correo.com'  ,  '1-6'  , '1-2-3-4-5'  , 5  , 99  ,'2-10-17-11-9-3-8'  , '9-6-11-14'  , '16-6-5-20-19'  ,  'dir2/imgHotel/' , 1);</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
@@ -59266,7 +60132,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(3, '11113'  , 1  ,  'Hermosos paisajes de Antioquia',  39,  'Hotel numero-3'  ,'direccion del hotel-3' , '315-315-3052'  ,'320-315-2447'  ,  'correohotelnumero171@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 5  , 67  ,'3-4-6-11-15-5'  , '8-6-9-12-14'  , '17-2-21-15-14'  ,  'dir3/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(3, '11113'  , 1  ,  'Hermosos paisajes de Antioquia',  39,  'Hotel numero-3'  ,'direccion del hotel-3' , '315-315-3052'  ,'320-315-2447'  ,  'correohotelnumero102@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 5  , 77  ,'3-4-6-11-15-5'  , '8-6-9-12-14'  , '17-2-21-15-14'  ,  'dir3/imgHotel/' , 1);</v>
       </c>
       <c r="K54" s="91"/>
       <c r="L54" s="92"/>
@@ -59286,7 +60152,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(4, '11114'  , 2  ,  'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.',  39,  'Hotel numero-4'  ,'direccion del hotel-4' , '315-315-3073'  ,'320-315-2663'  ,  'correohotelnumero143@correo.com'  ,  '2-1'  , '1-2-3-4-5'  , 7  , 120  ,'4-2-18-20-8-9-14'  , '2-10-5-9'  , '15-9-13-4-3'  ,  'dir4/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(4, '11114'  , 2  ,  'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.',  39,  'Hotel numero-4'  ,'direccion del hotel-4' , '315-315-3073'  ,'320-315-2663'  ,  'correohotelnumero136@correo.com'  ,  '2-1'  , '1-2-3-4-5'  , 6  , 118  ,'4-2-18-20-8-9-14'  , '2-10-5-9'  , '15-9-13-4-3'  ,  'dir4/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.25">
@@ -59295,7 +60161,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(5, '11115'  , 1  ,  'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.',  39,  'Hotel numero-5'  ,'direccion del hotel-5' , '315-315-3094'  ,'320-315-2879'  ,  'correohotelnumero195@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 2  , 93  ,'5-20-10-4-19-6-13'  , '8-14-2-1-13'  , '15-8-19-3-22'  ,  'dir5/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(5, '11115'  , 1  ,  'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.',  39,  'Hotel numero-5'  ,'direccion del hotel-5' , '315-315-3094'  ,'320-315-2879'  ,  'correohotelnumero103@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 1  , 98  ,'5-20-10-4-19-6-13'  , '8-14-2-1-13'  , '15-8-19-3-22'  ,  'dir5/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.25">
@@ -59304,7 +60170,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(6, '11116'  , 2  ,  'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.',  39,  'Hotel numero-6'  ,'direccion del hotel-6' , '315-315-3115'  ,'320-315-3095'  ,  'correohotelnumero128@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 8  , 101  ,'6-4-13-14-10-20-19'  , '2-12-15-13-4'  , '15-2-3-18-13'  ,  'dir6/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(6, '11116'  , 1  ,  'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.',  39,  'Hotel numero-6'  ,'direccion del hotel-6' , '315-315-3115'  ,'320-315-3095'  ,  'correohotelnumero177@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 4  , 74  ,'6-4-13-14-10-20-19'  , '2-12-15-13-4'  , '15-2-3-18-13'  ,  'dir6/imgHotel/' , 1);</v>
       </c>
       <c r="P57" s="41"/>
     </row>
@@ -59315,7 +60181,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(7, '11117'  , 1  ,  'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.',  39,  'Hotel numero-7'  ,'direccion del hotel-7' , '315-315-3136'  ,'320-315-3311'  ,  'correohotelnumero170@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 3  , 97  ,'7-19-12-16-13-3-10'  , '13-12-14-7'  , '7-10-14-6'  ,  'dir7/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(7, '11117'  , 2  ,  'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.',  39,  'Hotel numero-7'  ,'direccion del hotel-7' , '315-315-3136'  ,'320-315-3311'  ,  'correohotelnumero101@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 3  , 112  ,'7-19-12-16-13-3-10'  , '13-12-14-7'  , '7-10-14-6'  ,  'dir7/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.25">
@@ -59325,7 +60191,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(8, '11118'  , 3  ,  'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ',  39,  'Hotel numero-8'  ,'direccion del hotel-8' , '315-315-3157'  ,'320-315-3527'  ,  'correohotelnumero104@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 5  , 198  ,'8-19-5-18-12-6-13'  , '3-14-15-13-6'  , '17-22-4-15'  ,  'dir8/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(8, '11118'  , 2  ,  'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ',  39,  'Hotel numero-8'  ,'direccion del hotel-8' , '315-315-3157'  ,'320-315-3527'  ,  'correohotelnumero133@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 4  , 104  ,'8-19-5-18-12-6-13'  , '3-14-15-13-6'  , '17-22-4-15'  ,  'dir8/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.25">
@@ -59335,7 +60201,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(9, '11119'  , 2  ,  ' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ',  39,  'Hotel numero-9'  ,'direccion del hotel-9' , '315-315-3178'  ,'320-315-3743'  ,  'correohotelnumero152@correo.com'  ,  '6'  , '1-2-3-4-5'  , 6  , 115  ,'9-3-16-1-4-7-10'  , '4-13-14-8-1'  , '21-1-4-9-14'  ,  'dir9/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(9, '11119'  , 3  ,  ' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ',  39,  'Hotel numero-9'  ,'direccion del hotel-9' , '315-315-3178'  ,'320-315-3743'  ,  'correohotelnumero122@correo.com'  ,  '6'  , '1-2-3-4-5'  , 10  , 158  ,'9-3-16-1-4-7-10'  , '4-13-14-8-1'  , '21-1-4-9-14'  ,  'dir9/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.25">
@@ -59348,7 +60214,7 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(10, '11120'  , 2  ,  'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas',  39,  'Hotel numero-10'  ,'direccion del hotel-10' , '315-315-3199'  ,'320-315-3959'  ,  'correohotelnumero143@correo.com'  ,  '2-1'  , '1-2-3-4-5'  , 9  , 93  ,'10-9-7-1-17-8'  , '7-11-15-11'  , '10-11-22-1-8'  ,  'dir10/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(10, '11120'  , 3  ,  'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas',  39,  'Hotel numero-10'  ,'direccion del hotel-10' , '315-315-3199'  ,'320-315-3959'  ,  'correohotelnumero112@correo.com'  ,  '2-1'  , '1-2-3-4-5'  , 3  , 140  ,'10-9-7-1-17-8'  , '7-11-15-11'  , '10-11-22-1-8'  ,  'dir10/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.25">
@@ -59361,7 +60227,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(11, '11121'  , 3  ,  'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.',  39,  'Hotel numero-11'  ,'direccion del hotel-11' , '315-315-3220'  ,'320-315-4175'  ,  'correohotelnumero107@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 5  , 174  ,'11-3-14-9-15-2'  , '1-3-13-10-4'  , '14-22-11-18-24'  ,  'dir11/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(11, '11121'  , 2  ,  'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.',  39,  'Hotel numero-11'  ,'direccion del hotel-11' , '315-315-3220'  ,'320-315-4175'  ,  'correohotelnumero177@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 2  , 94  ,'11-3-14-9-15-2'  , '1-3-13-10-4'  , '14-22-11-18-24'  ,  'dir11/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.25">
@@ -59370,7 +60236,7 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(12, '11122'  , 2  ,  'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.',  39,  'Hotel numero-12'  ,'direccion del hotel-12' , '315-315-3241'  ,'320-315-4391'  ,  'correohotelnumero181@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 1  , 103  ,'12-17-20-2-15-1-11'  , '12-2-6-9-14'  , '10-4-2-3-12'  ,  'dir12/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(12, '11122'  , 2  ,  'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.',  39,  'Hotel numero-12'  ,'direccion del hotel-12' , '315-315-3241'  ,'320-315-4391'  ,  'correohotelnumero187@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 7  , 111  ,'12-17-20-2-15-1-11'  , '12-2-6-9-14'  , '10-4-2-3-12'  ,  'dir12/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.25">
@@ -59379,7 +60245,7 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(13, '11123'  , 2  ,  'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.',  39,  'Hotel numero-13'  ,'direccion del hotel-13' , '315-315-3262'  ,'320-315-4607'  ,  'correohotelnumero114@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 9  , 104  ,'13-8-2-17-1-10-14'  , '15-7-1-12-2'  , '10-13-7-21-11'  ,  'dir13/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(13, '11123'  , 3  ,  'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.',  39,  'Hotel numero-13'  ,'direccion del hotel-13' , '315-315-3262'  ,'320-315-4607'  ,  'correohotelnumero114@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 2  , 138  ,'13-8-2-17-1-10-14'  , '15-7-1-12-2'  , '10-13-7-21-11'  ,  'dir13/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
@@ -59388,7 +60254,7 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(14, '11124'  , 2  ,  'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.',  39,  'Hotel numero-14'  ,'direccion del hotel-14' , '315-315-3283'  ,'320-315-4823'  ,  'correohotelnumero183@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 3  , 104  ,'14-5-16-19-11-1-15'  , '15-7-11-4'  , '4-12-18-16-14'  ,  'dir14/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(14, '11124'  , 1  ,  'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.',  39,  'Hotel numero-14'  ,'direccion del hotel-14' , '315-315-3283'  ,'320-315-4823'  ,  'correohotelnumero160@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 3  , 84  ,'14-5-16-19-11-1-15'  , '15-7-11-4'  , '4-12-18-16-14'  ,  'dir14/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.25">
@@ -59397,7 +60263,7 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(15, '11125'  , 2  ,  'Parque Nacional Natural Amacayacu,  en el Amazonas, con más de 40 años de historia representa el 40% del Trapecio Amazónico y debido a su ecosistema de selva húmeda tropical cálida y bosques inundables',  39,  'Hotel numero-15'  ,'direccion del hotel-15' , '315-315-3304'  ,'320-315-5039'  ,  'correohotelnumero177@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 7  , 105  ,'15-10-6-13-17-12'  , '8-9-1-10-12'  , '2-8-21-1-12'  ,  'dir15/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(15, '11125'  , 3  ,  'Parque Nacional Natural Amacayacu,  en el Amazonas, con más de 40 años de historia representa el 40% del Trapecio Amazónico y debido a su ecosistema de selva húmeda tropical cálida y bosques inundables',  39,  'Hotel numero-15'  ,'direccion del hotel-15' , '315-315-3304'  ,'320-315-5039'  ,  'correohotelnumero191@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 3  , 168  ,'15-10-6-13-17-12'  , '8-9-1-10-12'  , '2-8-21-1-12'  ,  'dir15/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.25">
@@ -59406,7 +60272,7 @@
       </c>
       <c r="J67" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(16, '11126'  , 1  ,  'Parque Nacional Natural Farallones de Cali, son formaciones rocosas que se encuentran en la Cordillera Occidental de los Andes. Si tu elección es la vertiente oriental, la recomendación es ir en enero y marzo y luego de julio a agosto.',  39,  'Hotel numero-16'  ,'direccion del hotel-16' , '315-315-3325'  ,'320-315-5255'  ,  'correohotelnumero114@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 1  , 76  ,'16-9-12-2-14-1'  , '11-9-7-10-5'  , '7-22-19-4-5'  ,  'dir16/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(16, '11126'  , 1  ,  'Parque Nacional Natural Farallones de Cali, son formaciones rocosas que se encuentran en la Cordillera Occidental de los Andes. Si tu elección es la vertiente oriental, la recomendación es ir en enero y marzo y luego de julio a agosto.',  39,  'Hotel numero-16'  ,'direccion del hotel-16' , '315-315-3325'  ,'320-315-5255'  ,  'correohotelnumero111@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 5  , 94  ,'16-9-12-2-14-1'  , '11-9-7-10-5'  , '7-22-19-4-5'  ,  'dir16/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.25">
@@ -59415,7 +60281,7 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(17, '11127'  , 1  ,  'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.',  39,  'Hotel numero-17'  ,'direccion del hotel-17' , '315-315-3346'  ,'320-315-5471'  ,  'correohotelnumero181@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 2  , 95  ,'17-7-16-18-3-10'  , '7-10-12-5-14'  , '11-22-14-6-15'  ,  'dir17/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(17, '11127'  , 2  ,  'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.',  39,  'Hotel numero-17'  ,'direccion del hotel-17' , '315-315-3346'  ,'320-315-5471'  ,  'correohotelnumero169@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 8  , 109  ,'17-7-16-18-3-10'  , '7-10-12-5-14'  , '11-22-14-6-15'  ,  'dir17/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="69" spans="9:10" x14ac:dyDescent="0.25">
@@ -59424,7 +60290,7 @@
       </c>
       <c r="J69" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(18, '11128'  , 2  ,  'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.',  39,  'Hotel numero-18'  ,'direccion del hotel-18' , '315-315-3367'  ,'320-315-5687'  ,  'correohotelnumero147@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 2  , 98  ,'18-15-9-14-10-3-12'  , '15-6-8-2-11'  , '5-15-13-24-23'  ,  'dir18/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(18, '11128'  , 3  ,  'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.',  39,  'Hotel numero-18'  ,'direccion del hotel-18' , '315-315-3367'  ,'320-315-5687'  ,  'correohotelnumero185@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 10  , 169  ,'18-15-9-14-10-3-12'  , '15-6-8-2-11'  , '5-15-13-24-23'  ,  'dir18/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="70" spans="9:10" x14ac:dyDescent="0.25">
@@ -59434,7 +60300,7 @@
       <c r="J70" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>insert into `Tborganizacion`  values(19, '11129'  , 2  ,  'Reserva Natural Cañón del Río Claro
-Ubicado en Antioquia, la biodiversidad de esta región es conocida como la cuenca media del Río Magdalena, además está situada en el piedemonte oriental de la Cordillera Central colombiana.',  39,  'Hotel numero-19'  ,'direccion del hotel-19' , '315-315-3388'  ,'320-315-5903'  ,  'correohotelnumero161@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 7  , 117  ,'19-11-2-3-4-7-10'  , '4-13-14-1-12'  , '2-23-8-20-18'  ,  'dir19/imgHotel/' , 1);</v>
+Ubicado en Antioquia, la biodiversidad de esta región es conocida como la cuenca media del Río Magdalena, además está situada en el piedemonte oriental de la Cordillera Central colombiana.',  39,  'Hotel numero-19'  ,'direccion del hotel-19' , '315-315-3388'  ,'320-315-5903'  ,  'correohotelnumero119@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 1  , 112  ,'19-11-2-3-4-7-10'  , '4-13-14-1-12'  , '2-23-8-20-18'  ,  'dir19/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="71" spans="9:10" x14ac:dyDescent="0.25">
@@ -59443,7 +60309,7 @@
       </c>
       <c r="J71" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(20, '11130'  , 2  ,  'Parque Nacional Natural Las Orquídeas,  sus variados paisajes, además de una gran biodiversidad de ecosistemas, abundantes orquídeas y otras especies asociadas.',  39,  'Hotel numero-20'  ,'direccion del hotel-20' , '315-315-3409'  ,'320-315-6119'  ,  'correohotelnumero200@correo.com'  ,  '2-4'  , '1-2-3-4-5'  , 10  , 112  ,'20-12-7-5-4-18'  , '14-10-3-5-15'  , '20-18-14-3'  ,  'dir20/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(20, '11130'  , 3  ,  'Parque Nacional Natural Las Orquídeas,  sus variados paisajes, además de una gran biodiversidad de ecosistemas, abundantes orquídeas y otras especies asociadas.',  39,  'Hotel numero-20'  ,'direccion del hotel-20' , '315-315-3409'  ,'320-315-6119'  ,  'correohotelnumero128@correo.com'  ,  '2-4'  , '1-2-3-4-5'  , 10  , 235  ,'20-12-7-5-4-18'  , '14-10-3-5-15'  , '20-18-14-3'  ,  'dir20/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="72" spans="9:10" x14ac:dyDescent="0.25">
@@ -59452,7 +60318,7 @@
       </c>
       <c r="J72" t="str">
         <f t="shared" ref="J72:J87" ca="1" si="6">$E$4&amp;J25&amp;", '"&amp;K25&amp;"'  , "&amp;L25&amp;"  ,  '"&amp;M25&amp;"',  "&amp;N25&amp;",  '"&amp;O25&amp;"'  ,'"&amp;P25&amp;"' , '"&amp;Q25&amp;"'  ,'"&amp;R25&amp;"'  ,  '"&amp;S25&amp;"'  ,  '"&amp;T25&amp;"'  , '"&amp;U25&amp;"'  , "&amp;V25&amp;"  , "&amp;W25&amp;"  ,'"&amp;X25&amp;"'  , '"&amp;Y25&amp;"'  , '"&amp;Z25&amp;"'  ,  '"&amp;AA25&amp;"' , "&amp;AB25&amp;");"</f>
-        <v>insert into `Tborganizacion`  values(21, '11131'  , 1  ,  'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:',  39,  'Hotel numero-21'  ,'direccion del hotel-21' , '315-315-3410'  ,'320-315-6120'  ,  'correohotelnumero181@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 5  , 57  ,'5-16-20-15-21'  , '14-10-3-5-16'  , '20-18-14-4'  ,  'dir21/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(21, '11131'  , 3  ,  'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:',  39,  'Hotel numero-21'  ,'direccion del hotel-21' , '315-315-3410'  ,'320-315-6120'  ,  'correohotelnumero187@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 5  , 213  ,'5-16-20-15-21'  , '14-10-3-5-16'  , '20-18-14-4'  ,  'dir21/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="73" spans="9:10" x14ac:dyDescent="0.25">
@@ -59461,7 +60327,7 @@
       </c>
       <c r="J73" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(22, '11132'  , 3  ,  'Habitacion con vista al mar amobladas',  39,  'Hotel numero-22'  ,'direccion del hotel-22' , '315-315-3411'  ,'320-315-6121'  ,  'correohotelnumero168@correo.com'  ,  '3-5'  , '1-2-3-4-5'  , 7  , 230  ,'2-10-19-16-17'  , '14-10-3-5-17'  , '20-18-14-5'  ,  'dir22/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(22, '11132'  , 2  ,  'Habitacion con vista al mar amobladas',  39,  'Hotel numero-22'  ,'direccion del hotel-22' , '315-315-3411'  ,'320-315-6121'  ,  'correohotelnumero147@correo.com'  ,  '3-5'  , '1-2-3-4-5'  , 7  , 101  ,'2-10-19-16-17'  , '14-10-3-5-17'  , '20-18-14-5'  ,  'dir22/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="74" spans="9:10" x14ac:dyDescent="0.25">
@@ -59470,7 +60336,7 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(23, '11133'  , 2  ,  'Hermosos paisajes de Antioquia',  39,  'Hotel numero-23'  ,'direccion del hotel-23' , '315-315-3412'  ,'320-315-6122'  ,  'correohotelnumero181@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 6  , 92  ,'3-16-19-12-21'  , '14-10-3-5-18'  , '20-18-14-6'  ,  'dir23/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(23, '11133'  , 3  ,  'Hermosos paisajes de Antioquia',  39,  'Hotel numero-23'  ,'direccion del hotel-23' , '315-315-3412'  ,'320-315-6122'  ,  'correohotelnumero168@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 2  , 149  ,'3-16-19-12-21'  , '14-10-3-5-18'  , '20-18-14-6'  ,  'dir23/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="75" spans="9:10" x14ac:dyDescent="0.25">
@@ -59479,7 +60345,7 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(24, '11134'  , 2  ,  'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.',  39,  'Hotel numero-24'  ,'direccion del hotel-24' , '315-315-3413'  ,'320-315-6123'  ,  'correohotelnumero179@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 9  , 96  ,'5-18-21-14-1'  , '14-10-3-5-19'  , '20-18-14-7'  ,  'dir24/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(24, '11134'  , 2  ,  'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.',  39,  'Hotel numero-24'  ,'direccion del hotel-24' , '315-315-3413'  ,'320-315-6123'  ,  'correohotelnumero129@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 7  , 90  ,'5-18-21-14-1'  , '14-10-3-5-19'  , '20-18-14-7'  ,  'dir24/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="76" spans="9:10" x14ac:dyDescent="0.25">
@@ -59488,7 +60354,7 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(25, '11135'  , 2  ,  'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.',  39,  'Hotel numero-25'  ,'direccion del hotel-25' , '315-315-3414'  ,'320-315-6124'  ,  'correohotelnumero193@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 7  , 108  ,'8-17-18-15-2'  , '14-10-3-5-20'  , '20-18-14-8'  ,  'dir25/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(25, '11135'  , 2  ,  'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.',  39,  'Hotel numero-25'  ,'direccion del hotel-25' , '315-315-3414'  ,'320-315-6124'  ,  'correohotelnumero194@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 3  , 95  ,'8-17-18-15-2'  , '14-10-3-5-20'  , '20-18-14-8'  ,  'dir25/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="77" spans="9:10" x14ac:dyDescent="0.25">
@@ -59497,7 +60363,7 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(26, '11136'  , 3  ,  'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.',  39,  'Hotel numero-26'  ,'direccion del hotel-26' , '315-315-3415'  ,'320-315-6125'  ,  'correohotelnumero179@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 1  , 191  ,'3-12-19-15-20'  , '14-10-3-5-21'  , '20-18-14-9'  ,  'dir26/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(26, '11136'  , 1  ,  'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.',  39,  'Hotel numero-26'  ,'direccion del hotel-26' , '315-315-3415'  ,'320-315-6125'  ,  'correohotelnumero189@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 1  , 98  ,'3-12-19-15-20'  , '14-10-3-5-21'  , '20-18-14-9'  ,  'dir26/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="78" spans="9:10" x14ac:dyDescent="0.25">
@@ -59506,7 +60372,7 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(27, '11137'  , 2  ,  'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.',  39,  'Hotel numero-27'  ,'direccion del hotel-27' , '315-315-3416'  ,'320-315-6126'  ,  'correohotelnumero118@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 6  , 100  ,'4-13-21-14-17'  , '14-10-3-5-22'  , '20-18-14-10'  ,  'dir27/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(27, '11137'  , 3  ,  'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.',  39,  'Hotel numero-27'  ,'direccion del hotel-27' , '315-315-3416'  ,'320-315-6126'  ,  'correohotelnumero162@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 9  , 234  ,'4-13-21-14-17'  , '14-10-3-5-22'  , '20-18-14-10'  ,  'dir27/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="79" spans="9:10" x14ac:dyDescent="0.25">
@@ -59515,7 +60381,7 @@
       </c>
       <c r="J79" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(28, '11138'  , 1  ,  'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ',  39,  'Hotel numero-28'  ,'direccion del hotel-28' , '315-315-3417'  ,'320-315-6127'  ,  'correohotelnumero123@correo.com'  ,  '3-5'  , '1-2-3-4-5'  , 1  , 69  ,'5-18-2-17-1'  , '14-10-3-5-23'  , '20-18-14-11'  ,  'dir28/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(28, '11138'  , 1  ,  'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ',  39,  'Hotel numero-28'  ,'direccion del hotel-28' , '315-315-3417'  ,'320-315-6127'  ,  'correohotelnumero156@correo.com'  ,  '3-5'  , '1-2-3-4-5'  , 2  , 60  ,'5-18-2-17-1'  , '14-10-3-5-23'  , '20-18-14-11'  ,  'dir28/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="80" spans="9:10" x14ac:dyDescent="0.25">
@@ -59524,7 +60390,7 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(29, '11139'  , 3  ,  ' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ',  39,  'Hotel numero-29'  ,'direccion del hotel-29' , '315-315-3418'  ,'320-315-6128'  ,  'correohotelnumero108@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 5  , 209  ,'2-14-21-15-18'  , '14-10-3-5-24'  , '20-18-14-12'  ,  'dir29/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(29, '11139'  , 1  ,  ' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ',  39,  'Hotel numero-29'  ,'direccion del hotel-29' , '315-315-3418'  ,'320-315-6128'  ,  'correohotelnumero132@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 4  , 72  ,'2-14-21-15-18'  , '14-10-3-5-24'  , '20-18-14-12'  ,  'dir29/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="81" spans="9:10" x14ac:dyDescent="0.25">
@@ -59533,7 +60399,7 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(30, '11140'  , 2  ,  'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas',  39,  'Hotel numero-30'  ,'direccion del hotel-30' , '315-315-3419'  ,'320-315-6129'  ,  'correohotelnumero157@correo.com'  ,  '2-4'  , '1-2-3-4-5'  , 5  , 119  ,'7-16-19-11-18'  , '14-10-3-5-25'  , '20-18-14-13'  ,  'dir30/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(30, '11140'  , 1  ,  'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas',  39,  'Hotel numero-30'  ,'direccion del hotel-30' , '315-315-3419'  ,'320-315-6129'  ,  'correohotelnumero154@correo.com'  ,  '2-4'  , '1-2-3-4-5'  , 3  , 51  ,'7-16-19-11-18'  , '14-10-3-5-25'  , '20-18-14-13'  ,  'dir30/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="82" spans="9:10" x14ac:dyDescent="0.25">
@@ -59542,7 +60408,7 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(31, '11141'  , 3  ,  'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.',  39,  'Hotel numero-31'  ,'direccion del hotel-31' , '315-315-3420'  ,'320-315-6130'  ,  'correohotelnumero192@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 6  , 162  ,'1-13-18-15-21'  , '14-10-3-5-26'  , '20-18-14-14'  ,  'dir31/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(31, '11141'  , 2  ,  'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.',  39,  'Hotel numero-31'  ,'direccion del hotel-31' , '315-315-3420'  ,'320-315-6130'  ,  'correohotelnumero145@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 10  , 100  ,'1-13-18-15-21'  , '14-10-3-5-26'  , '20-18-14-14'  ,  'dir31/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="83" spans="9:10" x14ac:dyDescent="0.25">
@@ -59551,7 +60417,7 @@
       </c>
       <c r="J83" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(32, '11142'  , 1  ,  'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.',  39,  'Hotel numero-32'  ,'direccion del hotel-32' , '315-315-3421'  ,'320-315-6131'  ,  'correohotelnumero200@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 5  , 66  ,'8-15-18-2-21'  , '14-10-3-5-27'  , '20-18-14-15'  ,  'dir32/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(32, '11142'  , 3  ,  'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.',  39,  'Hotel numero-32'  ,'direccion del hotel-32' , '315-315-3421'  ,'320-315-6131'  ,  'correohotelnumero165@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 7  , 192  ,'8-15-18-2-21'  , '14-10-3-5-27'  , '20-18-14-15'  ,  'dir32/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="84" spans="9:10" x14ac:dyDescent="0.25">
@@ -59560,7 +60426,7 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(33, '11143'  , 2  ,  'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.',  39,  'Hotel numero-33'  ,'direccion del hotel-33' , '315-315-3422'  ,'320-315-6132'  ,  'correohotelnumero159@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 2  , 118  ,'3-18-20-13-1'  , '14-10-3-5-28'  , '20-18-14-16'  ,  'dir33/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(33, '11143'  , 3  ,  'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.',  39,  'Hotel numero-33'  ,'direccion del hotel-33' , '315-315-3422'  ,'320-315-6132'  ,  'correohotelnumero110@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 2  , 141  ,'3-18-20-13-1'  , '14-10-3-5-28'  , '20-18-14-16'  ,  'dir33/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="85" spans="9:10" x14ac:dyDescent="0.25">
@@ -59569,7 +60435,7 @@
       </c>
       <c r="J85" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(34, '11144'  , 3  ,  'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.',  39,  'Hotel numero-34'  ,'direccion del hotel-34' , '315-315-3423'  ,'320-315-6133'  ,  'correohotelnumero143@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 2  , 236  ,'5-11-18-14-20'  , '14-10-3-5-29'  , '20-18-14-17'  ,  'dir34/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(34, '11144'  , 2  ,  'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.',  39,  'Hotel numero-34'  ,'direccion del hotel-34' , '315-315-3423'  ,'320-315-6133'  ,  'correohotelnumero197@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 5  , 117  ,'5-11-18-14-20'  , '14-10-3-5-29'  , '20-18-14-17'  ,  'dir34/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="86" spans="9:10" x14ac:dyDescent="0.25">
@@ -59578,7 +60444,7 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(35, '11145'  , 1  ,  'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.',  39,  'Hotel numero-35'  ,'direccion del hotel-35' , '315-315-3424'  ,'320-315-6134'  ,  'correohotelnumero182@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 1  , 62  ,'4-13-19-1-20'  , '14-10-3-5-30'  , '20-18-14-18'  ,  'dir35/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(35, '11145'  , 1  ,  'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.',  39,  'Hotel numero-35'  ,'direccion del hotel-35' , '315-315-3424'  ,'320-315-6134'  ,  'correohotelnumero196@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 3  , 78  ,'4-13-19-1-20'  , '14-10-3-5-30'  , '20-18-14-18'  ,  'dir35/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="87" spans="9:10" x14ac:dyDescent="0.25">
@@ -59587,7 +60453,7 @@
       </c>
       <c r="J87" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(36, '11146'  , 3  ,  'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.',  39,  'Hotel numero-36'  ,'direccion del hotel-36' , '315-315-3425'  ,'320-315-6135'  ,  'correohotelnumero192@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 3  , 130  ,'7-15-20-10-19'  , '14-10-3-5-31'  , '20-18-14-19'  ,  'dir36/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(36, '11146'  , 3  ,  'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.',  39,  'Hotel numero-36'  ,'direccion del hotel-36' , '315-315-3425'  ,'320-315-6135'  ,  'correohotelnumero188@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 5  , 162  ,'7-15-20-10-19'  , '14-10-3-5-31'  , '20-18-14-19'  ,  'dir36/imgHotel/' , 1);</v>
       </c>
     </row>
   </sheetData>
@@ -59621,12 +60487,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8F8859-B123-4392-ACB0-29FD8F26F8BD}">
-  <dimension ref="E8:H12"/>
+  <dimension ref="E8:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59637,7 +60503,7 @@
     <row r="8" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H8" t="str">
         <f ca="1">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero130@correo.com</v>
+        <v>correohotelnumero199@correo.com</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.25">
@@ -59645,646 +60511,16 @@
         <v>661</v>
       </c>
     </row>
+    <row r="14" spans="5:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="170" t="s">
+        <v>690</v>
+      </c>
+      <c r="G14">
+        <f>LEN(E14)</f>
+        <v>1044</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFDD804-F46B-4A05-8EEA-33E720F59844}">
-  <dimension ref="B3:L37"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="226" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>244</v>
-      </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="80" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="119" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="79" t="str">
-        <f>CONCATENATE("dir",D5,"/imgHab/")</f>
-        <v>dir1-01/imgHab/</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="79" t="str">
-        <f t="shared" ref="J6:J13" si="0">CONCATENATE("dir",D6,"/imgHab/")</f>
-        <v>dir1-02/imgHab/</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="141" t="s">
-        <v>226</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="119" t="s">
-        <v>232</v>
-      </c>
-      <c r="J7" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>dir1-03/imgHab/</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="141" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="119" t="s">
-        <v>233</v>
-      </c>
-      <c r="J8" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>dir1-04/imgHab/</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="141" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="119" t="s">
-        <v>234</v>
-      </c>
-      <c r="J9" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>dir2-01/imgHab/</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="141" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="119" t="s">
-        <v>235</v>
-      </c>
-      <c r="J10" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>dir2-02/imgHab/</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="141" t="s">
-        <v>230</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="119" t="s">
-        <v>236</v>
-      </c>
-      <c r="J11" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>dir2-03/imgHab/</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="141" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="119" t="s">
-        <v>237</v>
-      </c>
-      <c r="J12" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>dir2-04/imgHab/</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="141" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="J13" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>dir1-01/imgHab/</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="82" t="s">
-        <v>246</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" ref="G15:G23" si="1">$E$15&amp;B5&amp;"  ,  "&amp;C5&amp;"  ,  '"&amp;D5&amp;"'  ,  "&amp;E5&amp;"  ,  '"&amp;F5&amp;"'  ,  '"&amp;G5&amp;"'  ,  '"&amp;I5&amp;"'  ,  '"&amp;J5&amp;"'  ,  '"&amp;K5&amp;"'  ,  "&amp;L5&amp;");"</f>
-        <v>insert into `tbHabitacionXpiso`  values(1  ,  1  ,  '1-01'  ,  24  ,  '01-02-03-04-06-09-11'  ,  '1-1-1-1-3-2-1'  ,  '04-05-06'  ,  'dir1-01/imgHab/'  ,  '01-02-03'  ,  1);</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="225" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="225"/>
-      <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbHabitacionXpiso`  values(2  ,  1  ,  '1-02'  ,  26  ,  '02-03-04-06-09-11'  ,  '1-1-1-1-3-2-2'  ,  '04-06'  ,  'dir1-02/imgHab/'  ,  '01-03-04'  ,  1);</v>
-      </c>
-      <c r="I16" s="71"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="225"/>
-      <c r="F17" s="225"/>
-      <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbHabitacionXpiso`  values(3  ,  1  ,  '1-03'  ,  30  ,  '01-03-04-06-09-11'  ,  '1-1-1-1-3-2-3'  ,  '04-05-07'  ,  'dir1-03/imgHab/'  ,  '01-02-05'  ,  1);</v>
-      </c>
-      <c r="I17" s="71"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="225"/>
-      <c r="F18" s="225"/>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbHabitacionXpiso`  values(4  ,  1  ,  '1-04'  ,  24  ,  '01-02-03-04-09-11'  ,  '1-1-1-1-3-2-4'  ,  '04-07'  ,  'dir1-04/imgHab/'  ,  '01-02-06'  ,  1);</v>
-      </c>
-      <c r="I18" s="71"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="225"/>
-      <c r="F19" s="225"/>
-      <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbHabitacionXpiso`  values(5  ,  1  ,  '2-01'  ,  26  ,  '01-03-04-05-06-09'  ,  '1-1-1-1-3-2-5'  ,  '04-05-08'  ,  'dir2-01/imgHab/'  ,  '01-02-07'  ,  1);</v>
-      </c>
-      <c r="I19" s="71"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbHabitacionXpiso`  values(6  ,  1  ,  '2-02'  ,  30  ,  '01-02-03-04-06-09'  ,  '1-1-1-1-3-2-6'  ,  '04-08'  ,  'dir2-02/imgHab/'  ,  '01-02-03'  ,  1);</v>
-      </c>
-      <c r="I20" s="71"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="225"/>
-      <c r="F21" s="225"/>
-      <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbHabitacionXpiso`  values(7  ,  1  ,  '2-03'  ,  24  ,  '01-02-03-04-06-10'  ,  '1-1-1-1-3-2-7'  ,  '04-05-09'  ,  'dir2-03/imgHab/'  ,  '01-03-04'  ,  1);</v>
-      </c>
-      <c r="I21" s="71"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="80" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="225"/>
-      <c r="F22" s="225"/>
-      <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbHabitacionXpiso`  values(8  ,  1  ,  '2-04'  ,  26  ,  '01-02-03-04-06-10'  ,  '1-1-1-1-3-2-8'  ,  '04-09'  ,  'dir2-04/imgHab/'  ,  '01-02-05'  ,  1);</v>
-      </c>
-      <c r="I22" s="71"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="225"/>
-      <c r="F23" s="225"/>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbHabitacionXpiso`  values(9  ,  2  ,  '1-01'  ,  30  ,  '01-03-04-05'  ,  '2-1-1-1'  ,  '04-05-10'  ,  'dir1-01/imgHab/'  ,  '01-02-06'  ,  1);</v>
-      </c>
-      <c r="I23" s="71"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" s="225"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E25" s="225"/>
-      <c r="F25" s="225"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="225"/>
-      <c r="F26" s="225"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="225"/>
-      <c r="F27" s="225"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="E16:F28"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/bd/tablas_hotel_v001.xlsx
+++ b/bd/tablas_hotel_v001.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\xampp\htdocs\myProyectos\soloHotel\turismo\turismo\bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A1C2C-8504-4B11-842B-69C4530361FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1744B07-8D2C-4554-869D-17091EC63A32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" activeTab="4" xr2:uid="{CF4CA555-11F5-48C1-87C5-C06FB9E7B6A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="834" activeTab="9" xr2:uid="{CF4CA555-11F5-48C1-87C5-C06FB9E7B6A2}"/>
   </bookViews>
   <sheets>
     <sheet name="tablas_transversales" sheetId="6" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="14" r:id="rId2"/>
     <sheet name="estructurasTablas_transversales" sheetId="7" r:id="rId3"/>
     <sheet name="tablarelaciones" sheetId="10" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="19" r:id="rId5"/>
+    <sheet name="datos1solo_hotel" sheetId="19" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="18" r:id="rId6"/>
     <sheet name="tablas_hotel" sheetId="3" r:id="rId7"/>
     <sheet name="estructuras_datos_organizacion" sheetId="8" r:id="rId8"/>
@@ -1814,7 +1814,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="700">
   <si>
     <t>id_serv</t>
   </si>
@@ -4047,6 +4047,29 @@
   <si>
     <t>texto
 Por cada tabla de relacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El territorio de la República de Colombia está situado en la esquina noroccidental de América del Sur y tiene un área continental de 1.141.748 km² más un área marítima de 928.660 km². Colombia es el vigésimo sexto país más grande del mundo y el cuarto en Sudamérica, después de Brasil, Argentina y Perú.2​ El país tiene soberanía en el mar Caribe, el océano Pacífico, la selva amazónica, la cuenca del Orinoco y los Andes. Colombia se divide administrativamente en departamentos, municipios, territorios indígenas, regiones y provincias.3​
+Numerosas entidades e investigadores nacionales e internacionales han desarrollado los estudios geográficos de Colombia desde el siglo XIX; entre los cuales cabe destacar los realizados por el Barón de Humboldt, Eliseo Reclus, Agustín Codazzi, Ernesto Guhl, entre otros.
+Actualmente la entidad oficial encargada del estudio de la geografía colombiana es el Instituto Geográfico Agustín Codazzi. Entre las instituciones académicas y de consulta están la Universidad Nacional de Colombia, la Universidad de los Andes y la Sociedad Geográfica de Colombia. </t>
+  </si>
+  <si>
+    <t>Piscina, WiFi, Bar, Parqueadero, Zonas fumadores, servicio-1-2-3-con-3035 abc 65454, servicio-1-con-4651 abc 82168, servicio-1-2-3-con-3837 abc 70062, servicio-1-con-2405 abc 52542, servicio-1-con-2942 abc 49092, servicio-1-con-4671 abc 64280, servicio-1-con-1791 abc 36463, Servicio-1-2-con-4964 abc 26296, servicio-1-con-4852 abc 84673, servicio-1-con-4788 abc 30457, servicio-1-con-3767 abc 13342</t>
+  </si>
+  <si>
+    <t>Gimnasio, Jakuzzi, Baños y Duchas(camping), Pileta tonificante, Ducha escocesa, Sauna finlandesa, Cabinas de tratamientos y masajes, Baño turco, Cajeros automaticos, Servicio de transfer, Servicio de habitaciones, Servicio de lavandería, Estanque de Peces'</t>
+  </si>
+  <si>
+    <t>ascensor, escalera electrica, Acceso con-camino-ST-2, Instalacion Electrica Sub,  accesible en silla de ru, Acceso con-camino-WX-4</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Instalaciones</t>
+  </si>
+  <si>
+    <t>Accesibilida</t>
   </si>
 </sst>
 </file>
@@ -4828,7 +4851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5246,6 +5269,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5348,6 +5385,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5431,29 +5486,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6020,8 +6052,8 @@
   </sheetPr>
   <dimension ref="A1:AH112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D103" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,26 +6088,26 @@
       </c>
       <c r="E1" s="131"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="177" t="s">
+      <c r="H1" s="191" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="172" t="s">
+      <c r="L1" s="186" t="s">
         <v>140</v>
       </c>
-      <c r="M1" s="173"/>
-      <c r="O1" s="171" t="s">
+      <c r="M1" s="187"/>
+      <c r="O1" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="185"/>
+      <c r="S1" s="185"/>
+      <c r="T1" s="185"/>
+      <c r="U1" s="185"/>
+      <c r="V1" s="185"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
@@ -6177,15 +6209,15 @@
       </c>
       <c r="AF3" s="106">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG3" s="106">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH3" s="106" t="str">
         <f ca="1">_xlfn.CONCAT("'"&amp;AF3,IF(AF3=AG3,"","-"&amp;AG3))</f>
-        <v>'5-4</v>
+        <v>'6</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -6238,15 +6270,15 @@
       </c>
       <c r="AF4" s="106">
         <f t="shared" ref="AF4:AG22" ca="1" si="0">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG4" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH4" s="106" t="str">
         <f t="shared" ref="AH4:AH22" ca="1" si="1">_xlfn.CONCAT("'"&amp;AF4,IF(AF4=AG4,"","-"&amp;AG4))</f>
-        <v>'4-2</v>
+        <v>'2-6</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -6296,15 +6328,15 @@
       </c>
       <c r="AF5" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'4-1</v>
+        <v>'5-3</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -6355,7 +6387,7 @@
       </c>
       <c r="AF6" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG6" s="106">
         <f t="shared" ca="1" si="0"/>
@@ -6363,7 +6395,7 @@
       </c>
       <c r="AH6" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'3-5</v>
+        <v>'5</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -6411,19 +6443,19 @@
       </c>
       <c r="Y7" s="97">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z7" s="97">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>11</v>
-      </c>
-      <c r="AA7" s="97" t="str">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="97">
         <f ca="1">IF(RANDBETWEEN(1,2)=1,"",RANDBETWEEN(1,20))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="AB7" s="97" t="str">
         <f ca="1">_xlfn.CONCAT("'",Z7,"-",Y7,IF(AA7="","","-"),AA7,"'")</f>
-        <v>'11-3'</v>
+        <v>'10-5-5'</v>
       </c>
       <c r="AC7" s="97"/>
       <c r="AD7" s="98" t="s">
@@ -6438,11 +6470,11 @@
       </c>
       <c r="AG7" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'2-6</v>
+        <v>'2-4</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -6482,11 +6514,11 @@
       </c>
       <c r="Y8" s="97">
         <f t="shared" ref="Y8:Z27" ca="1" si="2">RANDBETWEEN(1,20)</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AA8" s="97" t="str">
         <f t="shared" ref="AA8:AA27" ca="1" si="3">IF(RANDBETWEEN(1,2)=1,"",RANDBETWEEN(1,20))</f>
@@ -6494,7 +6526,7 @@
       </c>
       <c r="AB8" s="97" t="str">
         <f t="shared" ref="AB8:AB27" ca="1" si="4">_xlfn.CONCAT("'",Z8,"-",Y8,IF(AA8="","","-"),AA8,"'")</f>
-        <v>'17-19'</v>
+        <v>'8-2'</v>
       </c>
       <c r="AC8" s="97"/>
       <c r="AD8" s="99" t="s">
@@ -6505,15 +6537,15 @@
       </c>
       <c r="AF8" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG8" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH8" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'3-1</v>
+        <v>'2-3</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -6555,11 +6587,11 @@
       </c>
       <c r="Y9" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z9" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA9" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6567,7 +6599,7 @@
       </c>
       <c r="AB9" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'6-1'</v>
+        <v>'13-6'</v>
       </c>
       <c r="AC9" s="97"/>
       <c r="AD9" s="99" t="s">
@@ -6578,15 +6610,15 @@
       </c>
       <c r="AF9" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG9" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'1-4</v>
+        <v>'2</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -6595,25 +6627,25 @@
       </c>
       <c r="E10" s="118" t="str">
         <f ca="1">_xlfn.CONCAT("servicio ",RANDBETWEEN(1200,5000)," abc ",RANDBETWEEN(10000,90000))</f>
-        <v>servicio 1473 abc 14100</v>
+        <v>servicio 3051 abc 22139</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="Y10" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z10" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AB10" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'7-8-11'</v>
+        <v>'4-11-6'</v>
       </c>
       <c r="AC10" s="97"/>
       <c r="AD10" s="98" t="s">
@@ -6624,7 +6656,7 @@
       </c>
       <c r="AF10" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG10" s="106">
         <f t="shared" ca="1" si="0"/>
@@ -6632,7 +6664,7 @@
       </c>
       <c r="AH10" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'6-3</v>
+        <v>'4-3</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -6641,24 +6673,24 @@
       </c>
       <c r="E11" s="118" t="str">
         <f t="shared" ref="E11:E23" ca="1" si="5">_xlfn.CONCAT("servicio ",RANDBETWEEN(1200,5000)," abc ",RANDBETWEEN(10000,90000))</f>
-        <v>servicio 1419 abc 18545</v>
+        <v>servicio 2951 abc 76006</v>
       </c>
       <c r="H11" s="4"/>
       <c r="Y11" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="AA11" s="97">
+        <v>18</v>
+      </c>
+      <c r="AA11" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v/>
       </c>
       <c r="AB11" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'5-9-13'</v>
+        <v>'18-1'</v>
       </c>
       <c r="AC11" s="97"/>
       <c r="AD11" s="99" t="s">
@@ -6686,29 +6718,29 @@
       </c>
       <c r="E12" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3095 abc 36145</v>
+        <v>servicio 4977 abc 36528</v>
       </c>
       <c r="F12" s="4"/>
       <c r="H12" s="18"/>
-      <c r="I12" s="172" t="s">
+      <c r="I12" s="186" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="173"/>
+      <c r="J12" s="187"/>
       <c r="Y12" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z12" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AA12" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AB12" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'12-3-19'</v>
+        <v>'18-4-16'</v>
       </c>
       <c r="AC12" s="97"/>
       <c r="AD12" s="99" t="s">
@@ -6719,7 +6751,7 @@
       </c>
       <c r="AF12" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG12" s="106">
         <f t="shared" ca="1" si="0"/>
@@ -6727,7 +6759,7 @@
       </c>
       <c r="AH12" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'2-1</v>
+        <v>'3-1</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -6736,7 +6768,7 @@
       </c>
       <c r="E13" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 4214 abc 78708</v>
+        <v>servicio 1821 abc 58593</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>177</v>
@@ -6746,11 +6778,11 @@
       </c>
       <c r="Y13" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z13" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AA13" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6758,7 +6790,7 @@
       </c>
       <c r="AB13" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'5-20'</v>
+        <v>'20-12'</v>
       </c>
       <c r="AC13" s="97"/>
       <c r="AD13" s="98" t="s">
@@ -6769,15 +6801,15 @@
       </c>
       <c r="AF13" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG13" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'4-2</v>
+        <v>'6-1</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -6786,7 +6818,7 @@
       </c>
       <c r="E14" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 4380 abc 27676</v>
+        <v>servicio 1906 abc 84852</v>
       </c>
       <c r="I14" s="114">
         <v>1</v>
@@ -6815,19 +6847,19 @@
       </c>
       <c r="Y14" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Z14" s="97">
         <f t="shared" ca="1" si="2"/>
         <v>14</v>
       </c>
-      <c r="AA14" s="97" t="str">
+      <c r="AA14" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="AB14" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'14-17'</v>
+        <v>'14-1-15'</v>
       </c>
       <c r="AC14" s="97"/>
       <c r="AD14" s="99" t="s">
@@ -6838,15 +6870,15 @@
       </c>
       <c r="AF14" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG14" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH14" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'5-2</v>
+        <v>'3-5</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -6855,7 +6887,7 @@
       </c>
       <c r="E15" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 4071 abc 45984</v>
+        <v>servicio 3679 abc 69245</v>
       </c>
       <c r="I15" s="114">
         <v>2</v>
@@ -6886,11 +6918,11 @@
       </c>
       <c r="Y15" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Z15" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AA15" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6898,7 +6930,7 @@
       </c>
       <c r="AB15" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'14-9'</v>
+        <v>'7-18'</v>
       </c>
       <c r="AC15" s="97"/>
       <c r="AD15" s="99" t="s">
@@ -6913,11 +6945,11 @@
       </c>
       <c r="AG15" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH15" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'6-3</v>
+        <v>'6-5</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -6926,7 +6958,7 @@
       </c>
       <c r="E16" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 2746 abc 78494</v>
+        <v>servicio 4394 abc 83785</v>
       </c>
       <c r="I16" s="114">
         <v>3</v>
@@ -6961,19 +6993,19 @@
       </c>
       <c r="Y16" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="AA16" s="97">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="AB16" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'17-1-3'</v>
+        <v>'9-5'</v>
       </c>
       <c r="AC16" s="97"/>
       <c r="AD16" s="99" t="s">
@@ -6984,15 +7016,15 @@
       </c>
       <c r="AF16" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG16" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AH16" s="106" t="str">
         <f ca="1">_xlfn.CONCAT("'"&amp;AF16,IF(AF16=AG16,"","-"&amp;AG16))</f>
-        <v>'2</v>
+        <v>'4-6</v>
       </c>
     </row>
     <row r="17" spans="4:34" x14ac:dyDescent="0.25">
@@ -7001,7 +7033,7 @@
       </c>
       <c r="E17" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 1948 abc 73311</v>
+        <v>servicio 3120 abc 68636</v>
       </c>
       <c r="I17" s="114">
         <v>4</v>
@@ -7043,15 +7075,15 @@
       </c>
       <c r="Z17" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="AB17" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'19-1-19'</v>
+        <v>'1-1-9'</v>
       </c>
       <c r="AC17" s="97"/>
       <c r="AD17" s="99" t="s">
@@ -7062,15 +7094,15 @@
       </c>
       <c r="AF17" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG17" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'3</v>
+        <v>'5-2</v>
       </c>
     </row>
     <row r="18" spans="4:34" x14ac:dyDescent="0.25">
@@ -7079,7 +7111,7 @@
       </c>
       <c r="E18" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3934 abc 25156</v>
+        <v>servicio 2923 abc 58313</v>
       </c>
       <c r="I18" s="114">
         <v>5</v>
@@ -7119,19 +7151,19 @@
       </c>
       <c r="Y18" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Z18" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA18" s="97">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v/>
       </c>
       <c r="AB18" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'1-13-15'</v>
+        <v>'2-3'</v>
       </c>
       <c r="AC18" s="97"/>
       <c r="AD18" s="99" t="s">
@@ -7142,15 +7174,15 @@
       </c>
       <c r="AF18" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG18" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH18" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'1-6</v>
+        <v>'4-5</v>
       </c>
     </row>
     <row r="19" spans="4:34" x14ac:dyDescent="0.25">
@@ -7159,7 +7191,7 @@
       </c>
       <c r="E19" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3032 abc 89233</v>
+        <v>servicio 2669 abc 79346</v>
       </c>
       <c r="I19" s="114">
         <v>6</v>
@@ -7199,19 +7231,19 @@
       </c>
       <c r="Y19" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z19" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AA19" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AB19" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'11-11-2'</v>
+        <v>'4-12-9'</v>
       </c>
       <c r="AC19" s="97"/>
       <c r="AD19" s="99" t="s">
@@ -7226,11 +7258,11 @@
       </c>
       <c r="AG19" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH19" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'5-3</v>
+        <v>'5-2</v>
       </c>
     </row>
     <row r="20" spans="4:34" x14ac:dyDescent="0.25">
@@ -7239,7 +7271,7 @@
       </c>
       <c r="E20" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3768 abc 57023</v>
+        <v>servicio 1821 abc 76139</v>
       </c>
       <c r="I20" s="114">
         <v>7</v>
@@ -7279,19 +7311,19 @@
       </c>
       <c r="Y20" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z20" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AA20" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AB20" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'15-2-15'</v>
+        <v>'7-5-10'</v>
       </c>
       <c r="AC20" s="97"/>
       <c r="AD20" s="99" t="s">
@@ -7302,15 +7334,15 @@
       </c>
       <c r="AF20" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG20" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH20" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'6-2</v>
+        <v>'2-5</v>
       </c>
     </row>
     <row r="21" spans="4:34" x14ac:dyDescent="0.25">
@@ -7319,7 +7351,7 @@
       </c>
       <c r="E21" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3759 abc 79258</v>
+        <v>servicio 1439 abc 89482</v>
       </c>
       <c r="I21" s="114">
         <v>8</v>
@@ -7359,19 +7391,19 @@
       </c>
       <c r="Y21" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA21" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AB21" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'3-9-5'</v>
+        <v>'8-1-20'</v>
       </c>
       <c r="AC21" s="97"/>
       <c r="AD21" s="99" t="s">
@@ -7382,15 +7414,15 @@
       </c>
       <c r="AF21" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG21" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH21" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'1-4</v>
+        <v>'5-3</v>
       </c>
     </row>
     <row r="22" spans="4:34" x14ac:dyDescent="0.25">
@@ -7399,7 +7431,7 @@
       </c>
       <c r="E22" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 3762 abc 37461</v>
+        <v>servicio 1670 abc 64582</v>
       </c>
       <c r="I22" s="114">
         <v>9</v>
@@ -7439,19 +7471,19 @@
       </c>
       <c r="Y22" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z22" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA22" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB22" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'13-8-8'</v>
+        <v>'20-18-6'</v>
       </c>
       <c r="AC22" s="97"/>
       <c r="AD22" s="99" t="s">
@@ -7462,15 +7494,15 @@
       </c>
       <c r="AF22" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG22" s="106">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>'4-1</v>
+        <v>'6-2</v>
       </c>
     </row>
     <row r="23" spans="4:34" x14ac:dyDescent="0.25">
@@ -7479,7 +7511,7 @@
       </c>
       <c r="E23" s="118" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>servicio 1795 abc 33057</v>
+        <v>servicio 4965 abc 23329</v>
       </c>
       <c r="I23" s="114">
         <v>10</v>
@@ -7517,19 +7549,19 @@
       </c>
       <c r="Y23" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z23" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA23" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB23" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'4-5-5'</v>
+        <v>'1-2-7'</v>
       </c>
       <c r="AC23" s="97"/>
       <c r="AD23" s="97" t="s">
@@ -7576,11 +7608,11 @@
       </c>
       <c r="Y24" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z24" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA24" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7588,7 +7620,7 @@
       </c>
       <c r="AB24" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'10-8'</v>
+        <v>'9-17'</v>
       </c>
       <c r="AC24" s="97"/>
       <c r="AD24" s="97" t="s">
@@ -7636,19 +7668,19 @@
       </c>
       <c r="Y25" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z25" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AA25" s="97" t="str">
+        <v>3</v>
+      </c>
+      <c r="AA25" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="AB25" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'9-10'</v>
+        <v>'3-6-6'</v>
       </c>
       <c r="AC25" s="97"/>
       <c r="AD25" s="97" t="s">
@@ -7696,19 +7728,19 @@
       </c>
       <c r="Y26" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Z26" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AA26" s="97" t="str">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="97">
         <f t="shared" ca="1" si="3"/>
-        <v/>
+        <v>3</v>
       </c>
       <c r="AB26" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'4-12'</v>
+        <v>'8-18-3'</v>
       </c>
       <c r="AC26" s="97"/>
       <c r="AD26" s="97" t="s">
@@ -7756,11 +7788,11 @@
       </c>
       <c r="Y27" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Z27" s="97">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AA27" s="97" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7768,7 +7800,7 @@
       </c>
       <c r="AB27" s="97" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>'7-14'</v>
+        <v>'13-3'</v>
       </c>
       <c r="AC27" s="97"/>
       <c r="AD27" s="100" t="s">
@@ -7988,13 +8020,13 @@
       </c>
     </row>
     <row r="34" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E34" s="174" t="s">
+      <c r="E34" s="188" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="176"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
       <c r="J34" s="5"/>
       <c r="L34" s="101">
         <v>18</v>
@@ -10019,18 +10051,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFDD804-F46B-4A05-8EEA-33E720F59844}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -10049,19 +10081,19 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="80" t="s">
@@ -10418,10 +10450,10 @@
       <c r="C16" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="226" t="s">
+      <c r="E16" s="246" t="s">
         <v>245</v>
       </c>
-      <c r="F16" s="226"/>
+      <c r="F16" s="246"/>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbHabitacionXpiso`  values(2  ,  1  ,  '1-02'  ,  26  ,  '02-03-04-06-09-11'  ,  '1-1-1-1-3-2-2'  ,  '04-06'  ,  'dir1-02/imgHab/'  ,  '01-03-04'  ,  1);</v>
@@ -10435,8 +10467,8 @@
       <c r="C17" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="226"/>
-      <c r="F17" s="226"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="246"/>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbHabitacionXpiso`  values(3  ,  1  ,  '1-03'  ,  30  ,  '01-03-04-06-09-11'  ,  '1-1-1-1-3-2-3'  ,  '04-05-07'  ,  'dir1-03/imgHab/'  ,  '01-02-05'  ,  1);</v>
@@ -10450,8 +10482,8 @@
       <c r="C18" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbHabitacionXpiso`  values(4  ,  1  ,  '1-04'  ,  24  ,  '01-02-03-04-09-11'  ,  '1-1-1-1-3-2-4'  ,  '04-07'  ,  'dir1-04/imgHab/'  ,  '01-02-06'  ,  1);</v>
@@ -10465,8 +10497,8 @@
       <c r="C19" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="226"/>
-      <c r="F19" s="226"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbHabitacionXpiso`  values(5  ,  1  ,  '2-01'  ,  26  ,  '01-03-04-05-06-09'  ,  '1-1-1-1-3-2-5'  ,  '04-05-08'  ,  'dir2-01/imgHab/'  ,  '01-02-07'  ,  1);</v>
@@ -10480,8 +10512,8 @@
       <c r="C20" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="246"/>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbHabitacionXpiso`  values(6  ,  1  ,  '2-02'  ,  30  ,  '01-02-03-04-06-09'  ,  '1-1-1-1-3-2-6'  ,  '04-08'  ,  'dir2-02/imgHab/'  ,  '01-02-03'  ,  1);</v>
@@ -10495,8 +10527,8 @@
       <c r="C21" t="s">
         <v>168</v>
       </c>
-      <c r="E21" s="226"/>
-      <c r="F21" s="226"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbHabitacionXpiso`  values(7  ,  1  ,  '2-03'  ,  24  ,  '01-02-03-04-06-10'  ,  '1-1-1-1-3-2-7'  ,  '04-05-09'  ,  'dir2-03/imgHab/'  ,  '01-03-04'  ,  1);</v>
@@ -10510,8 +10542,8 @@
       <c r="C22" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
+      <c r="E22" s="246"/>
+      <c r="F22" s="246"/>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbHabitacionXpiso`  values(8  ,  1  ,  '2-04'  ,  26  ,  '01-02-03-04-06-10'  ,  '1-1-1-1-3-2-8'  ,  '04-09'  ,  'dir2-04/imgHab/'  ,  '01-02-05'  ,  1);</v>
@@ -10525,8 +10557,8 @@
       <c r="C23" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbHabitacionXpiso`  values(9  ,  2  ,  '1-01'  ,  30  ,  '01-03-04-05'  ,  '2-1-1-1'  ,  '04-05-10'  ,  'dir1-01/imgHab/'  ,  '01-02-06'  ,  1);</v>
@@ -10540,8 +10572,8 @@
       <c r="C24" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="246"/>
       <c r="G24" s="71"/>
       <c r="H24" s="71"/>
       <c r="I24" s="71"/>
@@ -10553,29 +10585,29 @@
       <c r="C25" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="226"/>
-      <c r="F25" s="226"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
       <c r="G25" s="71"/>
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E26" s="226"/>
-      <c r="F26" s="226"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
       <c r="G26" s="71"/>
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="226"/>
-      <c r="F28" s="226"/>
+      <c r="E28" s="246"/>
+      <c r="F28" s="246"/>
       <c r="G28" s="71"/>
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
@@ -10885,7 +10917,7 @@
       </c>
       <c r="J3" s="1" t="str">
         <f ca="1">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero173@correo.com</v>
+        <v>correohotelnumero177@correo.com</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ref="K3:K8" si="0">COUNT(D35:I35)</f>
@@ -10933,7 +10965,7 @@
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" ref="J4:J16" ca="1" si="2">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero144@correo.com</v>
+        <v>correohotelnumero118@correo.com</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" si="0"/>
@@ -10975,7 +11007,7 @@
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero150@correo.com</v>
+        <v>correohotelnumero175@correo.com</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" si="0"/>
@@ -11017,7 +11049,7 @@
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero108@correo.com</v>
+        <v>correohotelnumero114@correo.com</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" si="0"/>
@@ -11059,7 +11091,7 @@
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero177@correo.com</v>
+        <v>correohotelnumero192@correo.com</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" si="0"/>
@@ -11101,7 +11133,7 @@
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero177@correo.com</v>
+        <v>correohotelnumero111@correo.com</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="0"/>
@@ -11143,7 +11175,7 @@
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero123@correo.com</v>
+        <v>correohotelnumero100@correo.com</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ref="K9:K10" si="4">COUNT(M44:R44)</f>
@@ -11184,7 +11216,7 @@
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero174@correo.com</v>
+        <v>correohotelnumero116@correo.com</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="4"/>
@@ -11225,7 +11257,7 @@
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero143@correo.com</v>
+        <v>correohotelnumero188@correo.com</v>
       </c>
       <c r="K11" s="8">
         <f>COUNT(M34:R34)</f>
@@ -11266,7 +11298,7 @@
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero131@correo.com</v>
+        <v>correohotelnumero126@correo.com</v>
       </c>
       <c r="K12" s="8">
         <v>0</v>
@@ -11306,7 +11338,7 @@
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero127@correo.com</v>
+        <v>correohotelnumero141@correo.com</v>
       </c>
       <c r="K13" s="8">
         <v>0</v>
@@ -11346,7 +11378,7 @@
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero184@correo.com</v>
+        <v>correohotelnumero141@correo.com</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -11386,7 +11418,7 @@
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero165@correo.com</v>
+        <v>correohotelnumero195@correo.com</v>
       </c>
       <c r="K15" s="8">
         <v>0</v>
@@ -11426,7 +11458,7 @@
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>correohotelnumero179@correo.com</v>
+        <v>correohotelnumero129@correo.com</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
@@ -12389,28 +12421,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="K1" s="230" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="K1" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="251"/>
+      <c r="S1" s="251"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12550,12 +12582,12 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K7" s="229" t="s">
+      <c r="K7" s="249" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="249"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K8" s="2" t="s">
@@ -12671,26 +12703,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="248" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="K1" s="232" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="K1" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="232"/>
-      <c r="M1" s="232"/>
-      <c r="N1" s="232"/>
-      <c r="O1" s="232"/>
-      <c r="P1" s="232"/>
-      <c r="Q1" s="232"/>
-      <c r="R1" s="232"/>
+      <c r="L1" s="252"/>
+      <c r="M1" s="252"/>
+      <c r="N1" s="252"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -12795,12 +12827,12 @@
       <c r="R5" s="19"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K7" s="229" t="s">
+      <c r="K7" s="249" t="s">
         <v>125</v>
       </c>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="249"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K8" s="2" t="s">
@@ -12888,7 +12920,7 @@
       </c>
       <c r="F5" t="str">
         <f ca="1">CONCATENATE("Acceso con-",VLOOKUP(RANDBETWEEN(1,7),$B$9:$C$15,2,FALSE),"-",MID($C$5,$D$5-RANDBETWEEN(1,$D$5),2),"-",RANDBETWEEN(1,5))</f>
-        <v>Acceso con-pasadizo-XY-5</v>
+        <v>Acceso con-paso-WX-3</v>
       </c>
       <c r="H5" t="s">
         <v>437</v>
@@ -12897,7 +12929,7 @@
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F6" t="str">
         <f t="shared" ref="F6:F18" ca="1" si="0">CONCATENATE("Acceso con-",VLOOKUP(RANDBETWEEN(1,7),$B$9:$C$15,2,FALSE),"-",MID($C$5,$D$5-RANDBETWEEN(1,$D$5),2),"-",RANDBETWEEN(1,5))</f>
-        <v>Acceso con-entrada-ST-3</v>
+        <v>Acceso con-garaje-MN-1</v>
       </c>
       <c r="H6" t="s">
         <v>438</v>
@@ -12913,7 +12945,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-paso-LM-2</v>
+        <v>Acceso con-ingreso-XY-1</v>
       </c>
       <c r="H7" t="s">
         <v>439</v>
@@ -12922,7 +12954,7 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-pasadizo-VW-3</v>
+        <v>Acceso con-ingreso-KL-4</v>
       </c>
       <c r="H8" t="s">
         <v>440</v>
@@ -12937,7 +12969,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-pasadizo-HI-3</v>
+        <v>Acceso con-acometida-GH-4</v>
       </c>
       <c r="H9" t="s">
         <v>441</v>
@@ -12952,7 +12984,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-entrada-XY-5</v>
+        <v>Acceso con-entrada-UV-2</v>
       </c>
       <c r="H10" t="s">
         <v>442</v>
@@ -12967,7 +12999,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-entrada-PQ-5</v>
+        <v>Acceso con-garaje-IJ-5</v>
       </c>
       <c r="H11" t="s">
         <v>443</v>
@@ -12982,7 +13014,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-ingreso-AB-5</v>
+        <v>Acceso con-camino-TU-2</v>
       </c>
       <c r="H12" t="s">
         <v>444</v>
@@ -12997,7 +13029,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-acometida-FG-3</v>
+        <v>Acceso con-paso-YZ-4</v>
       </c>
       <c r="H13" t="s">
         <v>443</v>
@@ -13012,7 +13044,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-garaje-TU-4</v>
+        <v>Acceso con-pasadizo-GH-2</v>
       </c>
       <c r="H14" t="s">
         <v>443</v>
@@ -13027,7 +13059,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-garaje-QR-2</v>
+        <v>Acceso con-garaje-GH-4</v>
       </c>
       <c r="H15" t="s">
         <v>439</v>
@@ -13036,7 +13068,7 @@
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-paso-OP-4</v>
+        <v>Acceso con-ingreso-KL-4</v>
       </c>
       <c r="H16" t="s">
         <v>445</v>
@@ -13045,7 +13077,7 @@
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-pasadizo-EF-4</v>
+        <v>Acceso con-entrada-NO-5</v>
       </c>
       <c r="H17" t="s">
         <v>437</v>
@@ -13054,7 +13086,7 @@
     <row r="18" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Acceso con-paso-MN-1</v>
+        <v>Acceso con-entrada-BC-5</v>
       </c>
       <c r="H18" t="s">
         <v>446</v>
@@ -13111,102 +13143,102 @@
       <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="208" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="183"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="197"/>
       <c r="E4" s="31"/>
-      <c r="F4" s="180" t="str">
+      <c r="F4" s="194" t="str">
         <f>$B$3&amp;B13&amp;",  '"&amp;C13&amp;"',  1);"</f>
         <v>insert into `tbServiciosTr`  values(1,  'Piscina',  1);</v>
       </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="195"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="186"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="200"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="180" t="str">
+      <c r="F5" s="194" t="str">
         <f t="shared" ref="F5:F19" si="0">$B$3&amp;B14&amp;",  '"&amp;C14&amp;"',  1);"</f>
         <v>insert into `tbServiciosTr`  values(2,  'WiFi',  1);</v>
       </c>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="195"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="186"/>
+      <c r="B6" s="209"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="200"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="180" t="str">
+      <c r="F6" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(3,  'Bar',  1);</v>
       </c>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
     </row>
     <row r="7" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="195"/>
-      <c r="C7" s="185"/>
-      <c r="D7" s="186"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="199"/>
+      <c r="D7" s="200"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="180" t="str">
+      <c r="F7" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(4,  'Restaurante',  1);</v>
       </c>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="195"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="186"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="200"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="180" t="str">
+      <c r="F8" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(5,  'Parqueadero',  1);</v>
       </c>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="195"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="186"/>
+      <c r="B9" s="209"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="200"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="180" t="str">
+      <c r="F9" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(6,  'Paseo millonario',  1);</v>
       </c>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="196"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="189"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="203"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="180" t="str">
+      <c r="F10" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(7,  'Zonas fumadores',  1);</v>
       </c>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="54"/>
       <c r="C11" s="48"/>
       <c r="D11" s="48"/>
       <c r="E11" s="48"/>
-      <c r="F11" s="180" t="str">
+      <c r="F11" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(8,  'servicio-1-2-3-con-3035 abc 65454',  1);</v>
       </c>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="55" t="s">
@@ -13217,12 +13249,12 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="180" t="str">
+      <c r="F12" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(9,  'servicio-1-con-2525 abc 25002',  1);</v>
       </c>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="117">
@@ -13233,12 +13265,12 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="134"/>
-      <c r="F13" s="180" t="str">
+      <c r="F13" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(10,  'servicio-1-con-4651 abc 82168',  1);</v>
       </c>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="117">
@@ -13249,12 +13281,12 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="180" t="str">
+      <c r="F14" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(11,  'servicio-1-2-3-con-3837 abc 70062',  1);</v>
       </c>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="117">
@@ -13265,12 +13297,12 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="180" t="str">
+      <c r="F15" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(12,  'servicio-1-con-2405 abc 52542',  1);</v>
       </c>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
     </row>
     <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="117">
@@ -13281,12 +13313,12 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="180" t="str">
+      <c r="F16" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(13,  'servicio-1-con-2942 abc 49092',  1);</v>
       </c>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="117">
@@ -13297,12 +13329,12 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="180" t="str">
+      <c r="F17" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(14,  'servicio-1-con-4671 abc 64280',  1);</v>
       </c>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
     </row>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="117">
@@ -13313,12 +13345,12 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="180" t="str">
+      <c r="F18" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(15,  'servicio-1-2-3-con-1769 abc 41898',  1);</v>
       </c>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="117">
@@ -13329,12 +13361,12 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="180" t="str">
+      <c r="F19" s="194" t="str">
         <f t="shared" si="0"/>
         <v>insert into `tbServiciosTr`  values(16,  'servicio-1-con-1791 abc 36463',  1);</v>
       </c>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="117">
@@ -13345,12 +13377,12 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="180" t="str">
+      <c r="F20" s="194" t="str">
         <f>$B$3&amp;B29&amp;",  '"&amp;C29&amp;"',  1);"</f>
         <v>insert into `tbServiciosTr`  values(17,  'Servicio-1-2-con-1788 abc 84120',  1);</v>
       </c>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="117">
@@ -13361,12 +13393,12 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="180" t="str">
+      <c r="F21" s="194" t="str">
         <f t="shared" ref="F21:F24" si="1">$B$3&amp;B30&amp;",  '"&amp;C30&amp;"',  1);"</f>
         <v>insert into `tbServiciosTr`  values(18,  'Servicio-1-2-con-4964 abc 26296',  1);</v>
       </c>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="117">
@@ -13377,12 +13409,12 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="180" t="str">
+      <c r="F22" s="194" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbServiciosTr`  values(19,  'servicio-1-con-4852 abc 84673',  1);</v>
       </c>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="117">
@@ -13393,12 +13425,12 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="180" t="str">
+      <c r="F23" s="194" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbServiciosTr`  values(20,  'servicio-1-con-4788 abc 30457',  1);</v>
       </c>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="117">
@@ -13409,12 +13441,12 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="180" t="str">
+      <c r="F24" s="194" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbServiciosTr`  values(21,  'servicio-1-con-3767 abc 13342',  1);</v>
       </c>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="117">
@@ -13567,114 +13599,114 @@
       <c r="G37" s="62"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="194" t="s">
+      <c r="B38" s="208" t="s">
         <v>504</v>
       </c>
-      <c r="C38" s="182"/>
-      <c r="D38" s="183"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="197"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="180" t="str">
+      <c r="F38" s="194" t="str">
         <f>$B$37&amp;B48&amp;",  '"&amp;C48&amp;"',  1);"</f>
         <v>insert into `TbInstalacionesTr`  values(1,  'Gimnasio',  1);</v>
       </c>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="195"/>
-      <c r="C39" s="185"/>
-      <c r="D39" s="186"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="200"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="180" t="str">
+      <c r="F39" s="194" t="str">
         <f t="shared" ref="F39:F55" si="2">$B$37&amp;B49&amp;",  '"&amp;C49&amp;"',  1);"</f>
         <v>insert into `TbInstalacionesTr`  values(2,  'Jakuzzi',  1);</v>
       </c>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="195"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="186"/>
+      <c r="B40" s="209"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="200"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="180" t="str">
+      <c r="F40" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(3,  'Parking',  1);</v>
       </c>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="195"/>
-      <c r="C41" s="185"/>
-      <c r="D41" s="186"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="200"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="180" t="str">
+      <c r="F41" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(4,  'Baños y Duchas(camping)',  1);</v>
       </c>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="195"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="186"/>
+      <c r="B42" s="209"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="200"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="180" t="str">
+      <c r="F42" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(5,  'Pileta tonificante',  1);</v>
       </c>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="194"/>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="195"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="186"/>
+      <c r="B43" s="209"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="200"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="180" t="str">
+      <c r="F43" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(6,  'Ducha escocesa',  1);</v>
       </c>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
     </row>
     <row r="44" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="196"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="189"/>
+      <c r="B44" s="210"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="203"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="180" t="str">
+      <c r="F44" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(7,  'Sauna finlandesa',  1);</v>
       </c>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="64"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
       <c r="E45" s="48"/>
-      <c r="F45" s="180" t="str">
+      <c r="F45" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(8,  'Cabinas de tratamientos y masajes',  1);</v>
       </c>
-      <c r="G45" s="180"/>
-      <c r="H45" s="180"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="194"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="65"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="180" t="str">
+      <c r="F46" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(9,  'Baño turco',  1);</v>
       </c>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="194"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="66" t="s">
@@ -13685,12 +13717,12 @@
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="180" t="str">
+      <c r="F47" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(10,  'Spa propio',  1);</v>
       </c>
-      <c r="G47" s="180"/>
-      <c r="H47" s="180"/>
+      <c r="G47" s="194"/>
+      <c r="H47" s="194"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="116">
@@ -13701,12 +13733,12 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="180" t="str">
+      <c r="F48" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(11,  'Cajeros automaticos',  1);</v>
       </c>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
+      <c r="G48" s="194"/>
+      <c r="H48" s="194"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="116">
@@ -13717,12 +13749,12 @@
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="180" t="str">
+      <c r="F49" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(12,  'Servicio médico externo, primeros auxilios',  1);</v>
       </c>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="116">
@@ -13733,12 +13765,12 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="180" t="str">
+      <c r="F50" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(13,  'Servicio de transfer',  1);</v>
       </c>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="116">
@@ -13749,12 +13781,12 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="180" t="str">
+      <c r="F51" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(14,  'Servicio de habitaciones',  1);</v>
       </c>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="116">
@@ -13765,12 +13797,12 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="180" t="str">
+      <c r="F52" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(15,  'Servicio de lavandería',  1);</v>
       </c>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="116">
@@ -13781,12 +13813,12 @@
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="180" t="str">
+      <c r="F53" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(16,  'Servicios de teleconferencia disponibles',  1);</v>
       </c>
-      <c r="G53" s="180"/>
-      <c r="H53" s="180"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="194"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="116">
@@ -13797,12 +13829,12 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="180" t="str">
+      <c r="F54" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(17,  'Salón de juegos',  1);</v>
       </c>
-      <c r="G54" s="180"/>
-      <c r="H54" s="180"/>
+      <c r="G54" s="194"/>
+      <c r="H54" s="194"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="116">
@@ -13813,12 +13845,12 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="180" t="str">
+      <c r="F55" s="194" t="str">
         <f t="shared" si="2"/>
         <v>insert into `TbInstalacionesTr`  values(18,  'Estanque de Peces',  1);</v>
       </c>
-      <c r="G55" s="180"/>
-      <c r="H55" s="180"/>
+      <c r="G55" s="194"/>
+      <c r="H55" s="194"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="116">
@@ -13992,160 +14024,160 @@
       <c r="H71" s="62"/>
     </row>
     <row r="72" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="181" t="s">
+      <c r="B72" s="195" t="s">
         <v>194</v>
       </c>
-      <c r="C72" s="182"/>
-      <c r="D72" s="183"/>
+      <c r="C72" s="196"/>
+      <c r="D72" s="197"/>
       <c r="E72" s="32"/>
-      <c r="F72" s="178" t="str">
+      <c r="F72" s="192" t="str">
         <f>$B$71&amp;B81&amp;",'"&amp;C81&amp;"', 1);"</f>
         <v>insert into `TbDescripcionTr`  values(1,'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:', 1);</v>
       </c>
-      <c r="G72" s="178"/>
-      <c r="H72" s="178"/>
-      <c r="I72" s="178"/>
-      <c r="J72" s="178"/>
-      <c r="K72" s="178"/>
-      <c r="L72" s="178"/>
-      <c r="M72" s="178"/>
-      <c r="N72" s="178"/>
-      <c r="O72" s="178"/>
+      <c r="G72" s="192"/>
+      <c r="H72" s="192"/>
+      <c r="I72" s="192"/>
+      <c r="J72" s="192"/>
+      <c r="K72" s="192"/>
+      <c r="L72" s="192"/>
+      <c r="M72" s="192"/>
+      <c r="N72" s="192"/>
+      <c r="O72" s="192"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="83"/>
     </row>
     <row r="73" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="184"/>
-      <c r="C73" s="185"/>
-      <c r="D73" s="186"/>
+      <c r="B73" s="198"/>
+      <c r="C73" s="199"/>
+      <c r="D73" s="200"/>
       <c r="E73" s="32"/>
-      <c r="F73" s="178" t="str">
+      <c r="F73" s="192" t="str">
         <f t="shared" ref="F73:F91" si="3">$B$71&amp;B82&amp;",'"&amp;C82&amp;"', 1);"</f>
         <v>insert into `TbDescripcionTr`  values(2,'Habitacion con vista al mar amobladas', 1);</v>
       </c>
-      <c r="G73" s="178"/>
-      <c r="H73" s="178"/>
-      <c r="I73" s="178"/>
-      <c r="J73" s="178"/>
-      <c r="K73" s="178"/>
-      <c r="L73" s="178"/>
-      <c r="M73" s="178"/>
-      <c r="N73" s="178"/>
-      <c r="O73" s="178"/>
+      <c r="G73" s="192"/>
+      <c r="H73" s="192"/>
+      <c r="I73" s="192"/>
+      <c r="J73" s="192"/>
+      <c r="K73" s="192"/>
+      <c r="L73" s="192"/>
+      <c r="M73" s="192"/>
+      <c r="N73" s="192"/>
+      <c r="O73" s="192"/>
     </row>
     <row r="74" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="184"/>
-      <c r="C74" s="185"/>
-      <c r="D74" s="186"/>
+      <c r="B74" s="198"/>
+      <c r="C74" s="199"/>
+      <c r="D74" s="200"/>
       <c r="E74" s="32"/>
-      <c r="F74" s="178" t="str">
+      <c r="F74" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(3,'Hermosos paisajes de Antioquia', 1);</v>
       </c>
-      <c r="G74" s="178"/>
-      <c r="H74" s="178"/>
-      <c r="I74" s="178"/>
-      <c r="J74" s="178"/>
-      <c r="K74" s="178"/>
-      <c r="L74" s="178"/>
-      <c r="M74" s="178"/>
-      <c r="N74" s="178"/>
-      <c r="O74" s="178"/>
+      <c r="G74" s="192"/>
+      <c r="H74" s="192"/>
+      <c r="I74" s="192"/>
+      <c r="J74" s="192"/>
+      <c r="K74" s="192"/>
+      <c r="L74" s="192"/>
+      <c r="M74" s="192"/>
+      <c r="N74" s="192"/>
+      <c r="O74" s="192"/>
     </row>
     <row r="75" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="184"/>
-      <c r="C75" s="185"/>
-      <c r="D75" s="186"/>
+      <c r="B75" s="198"/>
+      <c r="C75" s="199"/>
+      <c r="D75" s="200"/>
       <c r="E75" s="32"/>
-      <c r="F75" s="178" t="str">
+      <c r="F75" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(4,'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.', 1);</v>
       </c>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
-      <c r="J75" s="178"/>
-      <c r="K75" s="178"/>
-      <c r="L75" s="178"/>
-      <c r="M75" s="178"/>
-      <c r="N75" s="178"/>
-      <c r="O75" s="178"/>
+      <c r="G75" s="192"/>
+      <c r="H75" s="192"/>
+      <c r="I75" s="192"/>
+      <c r="J75" s="192"/>
+      <c r="K75" s="192"/>
+      <c r="L75" s="192"/>
+      <c r="M75" s="192"/>
+      <c r="N75" s="192"/>
+      <c r="O75" s="192"/>
     </row>
     <row r="76" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="184"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="186"/>
+      <c r="B76" s="198"/>
+      <c r="C76" s="199"/>
+      <c r="D76" s="200"/>
       <c r="E76" s="32"/>
-      <c r="F76" s="178" t="str">
+      <c r="F76" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(5,'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.', 1);</v>
       </c>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
-      <c r="J76" s="178"/>
-      <c r="K76" s="178"/>
-      <c r="L76" s="178"/>
-      <c r="M76" s="178"/>
-      <c r="N76" s="178"/>
-      <c r="O76" s="178"/>
+      <c r="G76" s="192"/>
+      <c r="H76" s="192"/>
+      <c r="I76" s="192"/>
+      <c r="J76" s="192"/>
+      <c r="K76" s="192"/>
+      <c r="L76" s="192"/>
+      <c r="M76" s="192"/>
+      <c r="N76" s="192"/>
+      <c r="O76" s="192"/>
     </row>
     <row r="77" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="184"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="186"/>
+      <c r="B77" s="198"/>
+      <c r="C77" s="199"/>
+      <c r="D77" s="200"/>
       <c r="E77" s="32"/>
-      <c r="F77" s="178" t="str">
+      <c r="F77" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(6,'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.', 1);</v>
       </c>
-      <c r="G77" s="178"/>
-      <c r="H77" s="178"/>
-      <c r="I77" s="178"/>
-      <c r="J77" s="178"/>
-      <c r="K77" s="178"/>
-      <c r="L77" s="178"/>
-      <c r="M77" s="178"/>
-      <c r="N77" s="178"/>
-      <c r="O77" s="178"/>
+      <c r="G77" s="192"/>
+      <c r="H77" s="192"/>
+      <c r="I77" s="192"/>
+      <c r="J77" s="192"/>
+      <c r="K77" s="192"/>
+      <c r="L77" s="192"/>
+      <c r="M77" s="192"/>
+      <c r="N77" s="192"/>
+      <c r="O77" s="192"/>
     </row>
     <row r="78" spans="2:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="187"/>
-      <c r="C78" s="188"/>
-      <c r="D78" s="189"/>
+      <c r="B78" s="201"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="203"/>
       <c r="E78" s="32"/>
-      <c r="F78" s="178" t="str">
+      <c r="F78" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(7,'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.', 1);</v>
       </c>
-      <c r="G78" s="178"/>
-      <c r="H78" s="178"/>
-      <c r="I78" s="178"/>
-      <c r="J78" s="178"/>
-      <c r="K78" s="178"/>
-      <c r="L78" s="178"/>
-      <c r="M78" s="178"/>
-      <c r="N78" s="178"/>
-      <c r="O78" s="178"/>
+      <c r="G78" s="192"/>
+      <c r="H78" s="192"/>
+      <c r="I78" s="192"/>
+      <c r="J78" s="192"/>
+      <c r="K78" s="192"/>
+      <c r="L78" s="192"/>
+      <c r="M78" s="192"/>
+      <c r="N78" s="192"/>
+      <c r="O78" s="192"/>
     </row>
     <row r="79" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="110"/>
       <c r="C79" s="109"/>
       <c r="D79" s="109"/>
       <c r="E79" s="32"/>
-      <c r="F79" s="178" t="str">
+      <c r="F79" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(8,'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ', 1);</v>
       </c>
-      <c r="G79" s="178"/>
-      <c r="H79" s="178"/>
-      <c r="I79" s="178"/>
-      <c r="J79" s="178"/>
-      <c r="K79" s="178"/>
-      <c r="L79" s="178"/>
-      <c r="M79" s="178"/>
-      <c r="N79" s="178"/>
-      <c r="O79" s="178"/>
+      <c r="G79" s="192"/>
+      <c r="H79" s="192"/>
+      <c r="I79" s="192"/>
+      <c r="J79" s="192"/>
+      <c r="K79" s="192"/>
+      <c r="L79" s="192"/>
+      <c r="M79" s="192"/>
+      <c r="N79" s="192"/>
+      <c r="O79" s="192"/>
     </row>
     <row r="80" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="66" t="s">
@@ -14155,19 +14187,19 @@
         <v>167</v>
       </c>
       <c r="E80" s="32"/>
-      <c r="F80" s="178" t="str">
+      <c r="F80" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(9,' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ', 1);</v>
       </c>
-      <c r="G80" s="178"/>
-      <c r="H80" s="178"/>
-      <c r="I80" s="178"/>
-      <c r="J80" s="178"/>
-      <c r="K80" s="178"/>
-      <c r="L80" s="178"/>
-      <c r="M80" s="178"/>
-      <c r="N80" s="178"/>
-      <c r="O80" s="178"/>
+      <c r="G80" s="192"/>
+      <c r="H80" s="192"/>
+      <c r="I80" s="192"/>
+      <c r="J80" s="192"/>
+      <c r="K80" s="192"/>
+      <c r="L80" s="192"/>
+      <c r="M80" s="192"/>
+      <c r="N80" s="192"/>
+      <c r="O80" s="192"/>
     </row>
     <row r="81" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="101">
@@ -14180,19 +14212,19 @@
         <v>482</v>
       </c>
       <c r="E81" s="32"/>
-      <c r="F81" s="178" t="str">
+      <c r="F81" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(10,'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas', 1);</v>
       </c>
-      <c r="G81" s="178"/>
-      <c r="H81" s="178"/>
-      <c r="I81" s="178"/>
-      <c r="J81" s="178"/>
-      <c r="K81" s="178"/>
-      <c r="L81" s="178"/>
-      <c r="M81" s="178"/>
-      <c r="N81" s="178"/>
-      <c r="O81" s="178"/>
+      <c r="G81" s="192"/>
+      <c r="H81" s="192"/>
+      <c r="I81" s="192"/>
+      <c r="J81" s="192"/>
+      <c r="K81" s="192"/>
+      <c r="L81" s="192"/>
+      <c r="M81" s="192"/>
+      <c r="N81" s="192"/>
+      <c r="O81" s="192"/>
     </row>
     <row r="82" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="101">
@@ -14205,19 +14237,19 @@
         <v>482</v>
       </c>
       <c r="E82" s="32"/>
-      <c r="F82" s="178" t="str">
+      <c r="F82" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(11,'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.', 1);</v>
       </c>
-      <c r="G82" s="178"/>
-      <c r="H82" s="178"/>
-      <c r="I82" s="178"/>
-      <c r="J82" s="178"/>
-      <c r="K82" s="178"/>
-      <c r="L82" s="178"/>
-      <c r="M82" s="178"/>
-      <c r="N82" s="178"/>
-      <c r="O82" s="178"/>
+      <c r="G82" s="192"/>
+      <c r="H82" s="192"/>
+      <c r="I82" s="192"/>
+      <c r="J82" s="192"/>
+      <c r="K82" s="192"/>
+      <c r="L82" s="192"/>
+      <c r="M82" s="192"/>
+      <c r="N82" s="192"/>
+      <c r="O82" s="192"/>
     </row>
     <row r="83" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="101">
@@ -14230,19 +14262,19 @@
         <v>482</v>
       </c>
       <c r="E83" s="32"/>
-      <c r="F83" s="178" t="str">
+      <c r="F83" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(12,'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.', 1);</v>
       </c>
-      <c r="G83" s="178"/>
-      <c r="H83" s="178"/>
-      <c r="I83" s="178"/>
-      <c r="J83" s="178"/>
-      <c r="K83" s="178"/>
-      <c r="L83" s="178"/>
-      <c r="M83" s="178"/>
-      <c r="N83" s="178"/>
-      <c r="O83" s="178"/>
+      <c r="G83" s="192"/>
+      <c r="H83" s="192"/>
+      <c r="I83" s="192"/>
+      <c r="J83" s="192"/>
+      <c r="K83" s="192"/>
+      <c r="L83" s="192"/>
+      <c r="M83" s="192"/>
+      <c r="N83" s="192"/>
+      <c r="O83" s="192"/>
     </row>
     <row r="84" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="101">
@@ -14255,19 +14287,19 @@
         <v>482</v>
       </c>
       <c r="E84" s="32"/>
-      <c r="F84" s="178" t="str">
+      <c r="F84" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(13,'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.', 1);</v>
       </c>
-      <c r="G84" s="178"/>
-      <c r="H84" s="178"/>
-      <c r="I84" s="178"/>
-      <c r="J84" s="178"/>
-      <c r="K84" s="178"/>
-      <c r="L84" s="178"/>
-      <c r="M84" s="178"/>
-      <c r="N84" s="178"/>
-      <c r="O84" s="178"/>
+      <c r="G84" s="192"/>
+      <c r="H84" s="192"/>
+      <c r="I84" s="192"/>
+      <c r="J84" s="192"/>
+      <c r="K84" s="192"/>
+      <c r="L84" s="192"/>
+      <c r="M84" s="192"/>
+      <c r="N84" s="192"/>
+      <c r="O84" s="192"/>
     </row>
     <row r="85" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="101">
@@ -14280,19 +14312,19 @@
         <v>482</v>
       </c>
       <c r="E85" s="32"/>
-      <c r="F85" s="178" t="str">
+      <c r="F85" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(14,'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.', 1);</v>
       </c>
-      <c r="G85" s="178"/>
-      <c r="H85" s="178"/>
-      <c r="I85" s="178"/>
-      <c r="J85" s="178"/>
-      <c r="K85" s="178"/>
-      <c r="L85" s="178"/>
-      <c r="M85" s="178"/>
-      <c r="N85" s="178"/>
-      <c r="O85" s="178"/>
+      <c r="G85" s="192"/>
+      <c r="H85" s="192"/>
+      <c r="I85" s="192"/>
+      <c r="J85" s="192"/>
+      <c r="K85" s="192"/>
+      <c r="L85" s="192"/>
+      <c r="M85" s="192"/>
+      <c r="N85" s="192"/>
+      <c r="O85" s="192"/>
     </row>
     <row r="86" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="101">
@@ -14305,19 +14337,19 @@
         <v>482</v>
       </c>
       <c r="E86" s="32"/>
-      <c r="F86" s="178" t="str">
+      <c r="F86" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(15,'Parque Nacional Natural Amacayacu,  en el Amazonas, con más de 40 años de historia representa el 40% del Trapecio Amazónico y debido a su ecosistema de selva húmeda tropical cálida y bosques inundables', 1);</v>
       </c>
-      <c r="G86" s="178"/>
-      <c r="H86" s="178"/>
-      <c r="I86" s="178"/>
-      <c r="J86" s="178"/>
-      <c r="K86" s="178"/>
-      <c r="L86" s="178"/>
-      <c r="M86" s="178"/>
-      <c r="N86" s="178"/>
-      <c r="O86" s="178"/>
+      <c r="G86" s="192"/>
+      <c r="H86" s="192"/>
+      <c r="I86" s="192"/>
+      <c r="J86" s="192"/>
+      <c r="K86" s="192"/>
+      <c r="L86" s="192"/>
+      <c r="M86" s="192"/>
+      <c r="N86" s="192"/>
+      <c r="O86" s="192"/>
     </row>
     <row r="87" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="101">
@@ -14330,19 +14362,19 @@
         <v>482</v>
       </c>
       <c r="E87" s="32"/>
-      <c r="F87" s="178" t="str">
+      <c r="F87" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(16,'Parque Nacional Natural Farallones de Cali, son formaciones rocosas que se encuentran en la Cordillera Occidental de los Andes. Si tu elección es la vertiente oriental, la recomendación es ir en enero y marzo y luego de julio a agosto.', 1);</v>
       </c>
-      <c r="G87" s="178"/>
-      <c r="H87" s="178"/>
-      <c r="I87" s="178"/>
-      <c r="J87" s="178"/>
-      <c r="K87" s="178"/>
-      <c r="L87" s="178"/>
-      <c r="M87" s="178"/>
-      <c r="N87" s="178"/>
-      <c r="O87" s="178"/>
+      <c r="G87" s="192"/>
+      <c r="H87" s="192"/>
+      <c r="I87" s="192"/>
+      <c r="J87" s="192"/>
+      <c r="K87" s="192"/>
+      <c r="L87" s="192"/>
+      <c r="M87" s="192"/>
+      <c r="N87" s="192"/>
+      <c r="O87" s="192"/>
     </row>
     <row r="88" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="101">
@@ -14355,19 +14387,19 @@
         <v>482</v>
       </c>
       <c r="E88" s="32"/>
-      <c r="F88" s="178" t="str">
+      <c r="F88" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(17,'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.', 1);</v>
       </c>
-      <c r="G88" s="178"/>
-      <c r="H88" s="178"/>
-      <c r="I88" s="178"/>
-      <c r="J88" s="178"/>
-      <c r="K88" s="178"/>
-      <c r="L88" s="178"/>
-      <c r="M88" s="178"/>
-      <c r="N88" s="178"/>
-      <c r="O88" s="178"/>
+      <c r="G88" s="192"/>
+      <c r="H88" s="192"/>
+      <c r="I88" s="192"/>
+      <c r="J88" s="192"/>
+      <c r="K88" s="192"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="192"/>
+      <c r="N88" s="192"/>
+      <c r="O88" s="192"/>
     </row>
     <row r="89" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="101">
@@ -14380,19 +14412,19 @@
         <v>482</v>
       </c>
       <c r="E89" s="32"/>
-      <c r="F89" s="178" t="str">
+      <c r="F89" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(18,'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.', 1);</v>
       </c>
-      <c r="G89" s="178"/>
-      <c r="H89" s="178"/>
-      <c r="I89" s="178"/>
-      <c r="J89" s="178"/>
-      <c r="K89" s="178"/>
-      <c r="L89" s="178"/>
-      <c r="M89" s="178"/>
-      <c r="N89" s="178"/>
-      <c r="O89" s="178"/>
+      <c r="G89" s="192"/>
+      <c r="H89" s="192"/>
+      <c r="I89" s="192"/>
+      <c r="J89" s="192"/>
+      <c r="K89" s="192"/>
+      <c r="L89" s="192"/>
+      <c r="M89" s="192"/>
+      <c r="N89" s="192"/>
+      <c r="O89" s="192"/>
     </row>
     <row r="90" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="101">
@@ -14405,19 +14437,19 @@
         <v>482</v>
       </c>
       <c r="E90" s="32"/>
-      <c r="F90" s="178" t="str">
+      <c r="F90" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(19,'Reserva Natural Cañón del Río Claro,  Ubicado en Antioquia, la biodiversidad de esta región es conocida como la cuenca media del Río Magdalena, además está situada en el piedemonte oriental de la Cordillera Central colombiana.', 1);</v>
       </c>
-      <c r="G90" s="178"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="178"/>
-      <c r="J90" s="178"/>
-      <c r="K90" s="178"/>
-      <c r="L90" s="178"/>
-      <c r="M90" s="178"/>
-      <c r="N90" s="178"/>
-      <c r="O90" s="178"/>
+      <c r="G90" s="192"/>
+      <c r="H90" s="192"/>
+      <c r="I90" s="192"/>
+      <c r="J90" s="192"/>
+      <c r="K90" s="192"/>
+      <c r="L90" s="192"/>
+      <c r="M90" s="192"/>
+      <c r="N90" s="192"/>
+      <c r="O90" s="192"/>
     </row>
     <row r="91" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="101">
@@ -14430,19 +14462,19 @@
         <v>482</v>
       </c>
       <c r="E91" s="32"/>
-      <c r="F91" s="178" t="str">
+      <c r="F91" s="192" t="str">
         <f t="shared" si="3"/>
         <v>insert into `TbDescripcionTr`  values(20,'Parque Nacional Natural Las Orquídeas,  sus variados paisajes, además de una gran biodiversidad de ecosistemas, abundantes orquídeas y otras especies asociadas.', 1);</v>
       </c>
-      <c r="G91" s="178"/>
-      <c r="H91" s="178"/>
-      <c r="I91" s="178"/>
-      <c r="J91" s="178"/>
-      <c r="K91" s="178"/>
-      <c r="L91" s="178"/>
-      <c r="M91" s="178"/>
-      <c r="N91" s="178"/>
-      <c r="O91" s="178"/>
+      <c r="G91" s="192"/>
+      <c r="H91" s="192"/>
+      <c r="I91" s="192"/>
+      <c r="J91" s="192"/>
+      <c r="K91" s="192"/>
+      <c r="L91" s="192"/>
+      <c r="M91" s="192"/>
+      <c r="N91" s="192"/>
+      <c r="O91" s="192"/>
     </row>
     <row r="92" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="101">
@@ -14597,99 +14629,99 @@
       <c r="H104" s="62"/>
     </row>
     <row r="105" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="181" t="s">
+      <c r="B105" s="195" t="s">
         <v>195</v>
       </c>
-      <c r="C105" s="182"/>
-      <c r="D105" s="183"/>
+      <c r="C105" s="196"/>
+      <c r="D105" s="197"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="178" t="str">
+      <c r="F105" s="192" t="str">
         <f>$B$104&amp;B115&amp;",  '"&amp;C115&amp;"',  1);"</f>
         <v>insert into `TbtipoNegocioTr`  values(1,  'Hotel',  1);</v>
       </c>
-      <c r="G105" s="178"/>
-      <c r="H105" s="179"/>
+      <c r="G105" s="192"/>
+      <c r="H105" s="193"/>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="184"/>
-      <c r="C106" s="185"/>
-      <c r="D106" s="186"/>
+      <c r="B106" s="198"/>
+      <c r="C106" s="199"/>
+      <c r="D106" s="200"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="178" t="str">
+      <c r="F106" s="192" t="str">
         <f t="shared" ref="F106:F111" si="4">$B$104&amp;B116&amp;",  '"&amp;C116&amp;"',  1);"</f>
         <v>insert into `TbtipoNegocioTr`  values(2,  'Cabaña',  1);</v>
       </c>
-      <c r="G106" s="178"/>
-      <c r="H106" s="179"/>
+      <c r="G106" s="192"/>
+      <c r="H106" s="193"/>
     </row>
     <row r="107" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="184"/>
-      <c r="C107" s="185"/>
-      <c r="D107" s="186"/>
+      <c r="B107" s="198"/>
+      <c r="C107" s="199"/>
+      <c r="D107" s="200"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="178" t="str">
+      <c r="F107" s="192" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(3,  'Camping',  1);</v>
       </c>
-      <c r="G107" s="178"/>
-      <c r="H107" s="179"/>
+      <c r="G107" s="192"/>
+      <c r="H107" s="193"/>
     </row>
     <row r="108" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="184"/>
-      <c r="C108" s="185"/>
-      <c r="D108" s="186"/>
+      <c r="B108" s="198"/>
+      <c r="C108" s="199"/>
+      <c r="D108" s="200"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="178" t="str">
+      <c r="F108" s="192" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(4,  'Hotel &amp; Cabaña',  1);</v>
       </c>
-      <c r="G108" s="178"/>
-      <c r="H108" s="179"/>
+      <c r="G108" s="192"/>
+      <c r="H108" s="193"/>
     </row>
     <row r="109" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="184"/>
-      <c r="C109" s="185"/>
-      <c r="D109" s="186"/>
+      <c r="B109" s="198"/>
+      <c r="C109" s="199"/>
+      <c r="D109" s="200"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="178" t="str">
+      <c r="F109" s="192" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(5,  'Hotel &amp; camping',  1);</v>
       </c>
-      <c r="G109" s="178"/>
-      <c r="H109" s="179"/>
+      <c r="G109" s="192"/>
+      <c r="H109" s="193"/>
     </row>
     <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="184"/>
-      <c r="C110" s="185"/>
-      <c r="D110" s="186"/>
+      <c r="B110" s="198"/>
+      <c r="C110" s="199"/>
+      <c r="D110" s="200"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="178" t="str">
+      <c r="F110" s="192" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(6,  'Cabaña &amp; camping',  1);</v>
       </c>
-      <c r="G110" s="178"/>
-      <c r="H110" s="179"/>
+      <c r="G110" s="192"/>
+      <c r="H110" s="193"/>
     </row>
     <row r="111" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="187"/>
-      <c r="C111" s="188"/>
-      <c r="D111" s="189"/>
+      <c r="B111" s="201"/>
+      <c r="C111" s="202"/>
+      <c r="D111" s="203"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="178" t="str">
+      <c r="F111" s="192" t="str">
         <f t="shared" si="4"/>
         <v>insert into `TbtipoNegocioTr`  values(7,  'Hotel, Cabaña y camping',  1);</v>
       </c>
-      <c r="G111" s="178"/>
-      <c r="H111" s="179"/>
+      <c r="G111" s="192"/>
+      <c r="H111" s="193"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="65"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="178"/>
-      <c r="G112" s="178"/>
-      <c r="H112" s="179"/>
+      <c r="F112" s="192"/>
+      <c r="G112" s="192"/>
+      <c r="H112" s="193"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="65"/>
@@ -14827,102 +14859,102 @@
       <c r="H125" s="62"/>
     </row>
     <row r="126" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="190" t="s">
+      <c r="B126" s="204" t="s">
         <v>196</v>
       </c>
-      <c r="C126" s="191"/>
-      <c r="D126" s="191"/>
+      <c r="C126" s="205"/>
+      <c r="D126" s="205"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="178" t="str">
+      <c r="F126" s="192" t="str">
         <f t="shared" ref="F126:F149" si="5">$B$125&amp;B135&amp;",  '"&amp;C135&amp;"',  1);"</f>
         <v>insert into `tbAccesibilidadTr`  values(1,  'ascensor',  1);</v>
       </c>
-      <c r="G126" s="178"/>
-      <c r="H126" s="179"/>
+      <c r="G126" s="192"/>
+      <c r="H126" s="193"/>
     </row>
     <row r="127" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="192"/>
-      <c r="C127" s="193"/>
-      <c r="D127" s="193"/>
+      <c r="B127" s="206"/>
+      <c r="C127" s="207"/>
+      <c r="D127" s="207"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="178" t="str">
+      <c r="F127" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(2,  'escalera electrica',  1);</v>
       </c>
-      <c r="G127" s="178"/>
-      <c r="H127" s="179"/>
+      <c r="G127" s="192"/>
+      <c r="H127" s="193"/>
     </row>
     <row r="128" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="192"/>
-      <c r="C128" s="193"/>
-      <c r="D128" s="193"/>
+      <c r="B128" s="206"/>
+      <c r="C128" s="207"/>
+      <c r="D128" s="207"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="178" t="str">
+      <c r="F128" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(3,  ' accesible en silla de ruedas',  1);</v>
       </c>
-      <c r="G128" s="178"/>
-      <c r="H128" s="179"/>
+      <c r="G128" s="192"/>
+      <c r="H128" s="193"/>
     </row>
     <row r="129" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="192"/>
-      <c r="C129" s="193"/>
-      <c r="D129" s="193"/>
+      <c r="B129" s="206"/>
+      <c r="C129" s="207"/>
+      <c r="D129" s="207"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="178" t="str">
+      <c r="F129" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(4,  'WC con barras de apoyo',  1);</v>
       </c>
-      <c r="G129" s="178"/>
-      <c r="H129" s="179"/>
+      <c r="G129" s="192"/>
+      <c r="H129" s="193"/>
     </row>
     <row r="130" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="192"/>
-      <c r="C130" s="193"/>
-      <c r="D130" s="193"/>
+      <c r="B130" s="206"/>
+      <c r="C130" s="207"/>
+      <c r="D130" s="207"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="178" t="str">
+      <c r="F130" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(5,  'Bañera adaptada',  1);</v>
       </c>
-      <c r="G130" s="178"/>
-      <c r="H130" s="179"/>
+      <c r="G130" s="192"/>
+      <c r="H130" s="193"/>
     </row>
     <row r="131" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="192"/>
-      <c r="C131" s="193"/>
-      <c r="D131" s="193"/>
+      <c r="B131" s="206"/>
+      <c r="C131" s="207"/>
+      <c r="D131" s="207"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="178" t="str">
+      <c r="F131" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(6,  'WC Elevado',  1);</v>
       </c>
-      <c r="G131" s="178"/>
-      <c r="H131" s="179"/>
+      <c r="G131" s="192"/>
+      <c r="H131" s="193"/>
     </row>
     <row r="132" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="192"/>
-      <c r="C132" s="193"/>
-      <c r="D132" s="193"/>
+      <c r="B132" s="206"/>
+      <c r="C132" s="207"/>
+      <c r="D132" s="207"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="178" t="str">
+      <c r="F132" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(7,  'Via acceso asfaltada',  1);</v>
       </c>
-      <c r="G132" s="178"/>
-      <c r="H132" s="179"/>
+      <c r="G132" s="192"/>
+      <c r="H132" s="193"/>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="65"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="178" t="str">
+      <c r="F133" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(8,  'Instalacion Electrica Subterranea',  1);</v>
       </c>
-      <c r="G133" s="178"/>
-      <c r="H133" s="179"/>
+      <c r="G133" s="192"/>
+      <c r="H133" s="193"/>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="66" t="s">
@@ -14933,12 +14965,12 @@
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="178" t="str">
+      <c r="F134" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(9,  'Sistema Iluninacion',  1);</v>
       </c>
-      <c r="G134" s="178"/>
-      <c r="H134" s="179"/>
+      <c r="G134" s="192"/>
+      <c r="H134" s="193"/>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="67">
@@ -14949,12 +14981,12 @@
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="178" t="str">
+      <c r="F135" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(10,  'Abastecimiento de agua',  1);</v>
       </c>
-      <c r="G135" s="178"/>
-      <c r="H135" s="179"/>
+      <c r="G135" s="192"/>
+      <c r="H135" s="193"/>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="67">
@@ -14965,12 +14997,12 @@
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="178" t="str">
+      <c r="F136" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(11,  'Acceso con-ingreso-KL-3',  1);</v>
       </c>
-      <c r="G136" s="178"/>
-      <c r="H136" s="179"/>
+      <c r="G136" s="192"/>
+      <c r="H136" s="193"/>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="67">
@@ -14981,12 +15013,12 @@
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="178" t="str">
+      <c r="F137" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(12,  'Acceso con-pasadizo-ST-1',  1);</v>
       </c>
-      <c r="G137" s="178"/>
-      <c r="H137" s="179"/>
+      <c r="G137" s="192"/>
+      <c r="H137" s="193"/>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="67">
@@ -14997,12 +15029,12 @@
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="178" t="str">
+      <c r="F138" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(13,  'Acceso con-acometida-MN-3',  1);</v>
       </c>
-      <c r="G138" s="178"/>
-      <c r="H138" s="179"/>
+      <c r="G138" s="192"/>
+      <c r="H138" s="193"/>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="67">
@@ -15013,12 +15045,12 @@
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="178" t="str">
+      <c r="F139" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(14,  'Acceso con-garaje-GH-3',  1);</v>
       </c>
-      <c r="G139" s="178"/>
-      <c r="H139" s="179"/>
+      <c r="G139" s="192"/>
+      <c r="H139" s="193"/>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="67">
@@ -15029,12 +15061,12 @@
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="178" t="str">
+      <c r="F140" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(15,  'Acceso con-camino-ST-2',  1);</v>
       </c>
-      <c r="G140" s="178"/>
-      <c r="H140" s="179"/>
+      <c r="G140" s="192"/>
+      <c r="H140" s="193"/>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="67">
@@ -15045,12 +15077,12 @@
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="178" t="str">
+      <c r="F141" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(16,  'Acceso con-paso-TU-4',  1);</v>
       </c>
-      <c r="G141" s="178"/>
-      <c r="H141" s="179"/>
+      <c r="G141" s="192"/>
+      <c r="H141" s="193"/>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="67">
@@ -15061,12 +15093,12 @@
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="178" t="str">
+      <c r="F142" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(17,  'Acceso con-acometida-IJ-4',  1);</v>
       </c>
-      <c r="G142" s="178"/>
-      <c r="H142" s="179"/>
+      <c r="G142" s="192"/>
+      <c r="H142" s="193"/>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="67">
@@ -15077,12 +15109,12 @@
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="178" t="str">
+      <c r="F143" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(18,  'Acceso con-camino-WX-4',  1);</v>
       </c>
-      <c r="G143" s="178"/>
-      <c r="H143" s="179"/>
+      <c r="G143" s="192"/>
+      <c r="H143" s="193"/>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="67">
@@ -15093,12 +15125,12 @@
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="178" t="str">
+      <c r="F144" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(19,  'Acceso con-camino-DE-5',  1);</v>
       </c>
-      <c r="G144" s="178"/>
-      <c r="H144" s="179"/>
+      <c r="G144" s="192"/>
+      <c r="H144" s="193"/>
     </row>
     <row r="145" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="67">
@@ -15109,12 +15141,12 @@
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="178" t="str">
+      <c r="F145" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(20,  'Acceso con-ingreso-KL-5',  1);</v>
       </c>
-      <c r="G145" s="178"/>
-      <c r="H145" s="179"/>
+      <c r="G145" s="192"/>
+      <c r="H145" s="193"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="67">
@@ -15125,12 +15157,12 @@
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="178" t="str">
+      <c r="F146" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(21,  'Acceso con-camino-VW-4',  1);</v>
       </c>
-      <c r="G146" s="178"/>
-      <c r="H146" s="179"/>
+      <c r="G146" s="192"/>
+      <c r="H146" s="193"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="67">
@@ -15141,12 +15173,12 @@
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="178" t="str">
+      <c r="F147" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(22,  'Acceso con-garaje-NO-4',  1);</v>
       </c>
-      <c r="G147" s="178"/>
-      <c r="H147" s="179"/>
+      <c r="G147" s="192"/>
+      <c r="H147" s="193"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="67">
@@ -15157,12 +15189,12 @@
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="178" t="str">
+      <c r="F148" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(23,  'Acceso con-entrada-QR-2',  1);</v>
       </c>
-      <c r="G148" s="178"/>
-      <c r="H148" s="179"/>
+      <c r="G148" s="192"/>
+      <c r="H148" s="193"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="67">
@@ -15173,12 +15205,12 @@
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="178" t="str">
+      <c r="F149" s="192" t="str">
         <f t="shared" si="5"/>
         <v>insert into `tbAccesibilidadTr`  values(24,  'Acceso con-ingreso-ST-2',  1);</v>
       </c>
-      <c r="G149" s="178"/>
-      <c r="H149" s="179"/>
+      <c r="G149" s="192"/>
+      <c r="H149" s="193"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="67">
@@ -15189,9 +15221,9 @@
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="178"/>
-      <c r="G150" s="178"/>
-      <c r="H150" s="179"/>
+      <c r="F150" s="192"/>
+      <c r="G150" s="192"/>
+      <c r="H150" s="193"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="67">
@@ -15322,12 +15354,12 @@
       <c r="J162" s="62"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B163" s="181" t="s">
+      <c r="B163" s="195" t="s">
         <v>197</v>
       </c>
-      <c r="C163" s="182"/>
-      <c r="D163" s="182"/>
-      <c r="E163" s="183"/>
+      <c r="C163" s="196"/>
+      <c r="D163" s="196"/>
+      <c r="E163" s="197"/>
       <c r="F163" s="76" t="str">
         <f>$B$162&amp;B179&amp;",  '"&amp;C179&amp;"',"&amp;D179&amp;","&amp;E179&amp;","&amp;F179&amp;","&amp;G179&amp;","&amp;H179&amp;",  1);"</f>
         <v>insert into `tbCapacidadTr`  values(1,  '11111',1,3,0,0,100,  1);</v>
@@ -15338,10 +15370,10 @@
       <c r="J163" s="63"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="184"/>
-      <c r="C164" s="185"/>
-      <c r="D164" s="185"/>
-      <c r="E164" s="186"/>
+      <c r="B164" s="198"/>
+      <c r="C164" s="199"/>
+      <c r="D164" s="199"/>
+      <c r="E164" s="200"/>
       <c r="F164" s="76" t="str">
         <f t="shared" ref="F164:F169" si="6">$B$162&amp;B180&amp;",  '"&amp;C180&amp;"',"&amp;D180&amp;","&amp;E180&amp;","&amp;F180&amp;","&amp;G180&amp;","&amp;H180&amp;",  1);"</f>
         <v>insert into `tbCapacidadTr`  values(2,  '11112',2,0,10,0,120,  1);</v>
@@ -15352,10 +15384,10 @@
       <c r="J164" s="63"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="184"/>
-      <c r="C165" s="185"/>
-      <c r="D165" s="185"/>
-      <c r="E165" s="186"/>
+      <c r="B165" s="198"/>
+      <c r="C165" s="199"/>
+      <c r="D165" s="199"/>
+      <c r="E165" s="200"/>
       <c r="F165" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(3,  '11113',3,0,0,100,150,  1);</v>
@@ -15366,10 +15398,10 @@
       <c r="J165" s="63"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B166" s="184"/>
-      <c r="C166" s="185"/>
-      <c r="D166" s="185"/>
-      <c r="E166" s="186"/>
+      <c r="B166" s="198"/>
+      <c r="C166" s="199"/>
+      <c r="D166" s="199"/>
+      <c r="E166" s="200"/>
       <c r="F166" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(4,  '11114',4,0,8,0,200,  1);</v>
@@ -15380,10 +15412,10 @@
       <c r="J166" s="63"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" s="184"/>
-      <c r="C167" s="185"/>
-      <c r="D167" s="185"/>
-      <c r="E167" s="186"/>
+      <c r="B167" s="198"/>
+      <c r="C167" s="199"/>
+      <c r="D167" s="199"/>
+      <c r="E167" s="200"/>
       <c r="F167" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(5,  '11115',5,3,0,20,130,  1);</v>
@@ -15394,10 +15426,10 @@
       <c r="J167" s="63"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B168" s="184"/>
-      <c r="C168" s="185"/>
-      <c r="D168" s="185"/>
-      <c r="E168" s="186"/>
+      <c r="B168" s="198"/>
+      <c r="C168" s="199"/>
+      <c r="D168" s="199"/>
+      <c r="E168" s="200"/>
       <c r="F168" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(6,  '11116',6,0,10,30,250,  1);</v>
@@ -15408,10 +15440,10 @@
       <c r="J168" s="63"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="184"/>
-      <c r="C169" s="185"/>
-      <c r="D169" s="185"/>
-      <c r="E169" s="186"/>
+      <c r="B169" s="198"/>
+      <c r="C169" s="199"/>
+      <c r="D169" s="199"/>
+      <c r="E169" s="200"/>
       <c r="F169" s="76" t="str">
         <f t="shared" si="6"/>
         <v>insert into `tbCapacidadTr`  values(7,  '11117',7,5,8,20,350,  1);</v>
@@ -15422,10 +15454,10 @@
       <c r="J169" s="63"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B170" s="184"/>
-      <c r="C170" s="185"/>
-      <c r="D170" s="185"/>
-      <c r="E170" s="186"/>
+      <c r="B170" s="198"/>
+      <c r="C170" s="199"/>
+      <c r="D170" s="199"/>
+      <c r="E170" s="200"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
@@ -15433,10 +15465,10 @@
       <c r="J170" s="63"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B171" s="184"/>
-      <c r="C171" s="185"/>
-      <c r="D171" s="185"/>
-      <c r="E171" s="186"/>
+      <c r="B171" s="198"/>
+      <c r="C171" s="199"/>
+      <c r="D171" s="199"/>
+      <c r="E171" s="200"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -15444,10 +15476,10 @@
       <c r="J171" s="63"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B172" s="184"/>
-      <c r="C172" s="185"/>
-      <c r="D172" s="185"/>
-      <c r="E172" s="186"/>
+      <c r="B172" s="198"/>
+      <c r="C172" s="199"/>
+      <c r="D172" s="199"/>
+      <c r="E172" s="200"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -15455,10 +15487,10 @@
       <c r="J172" s="63"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B173" s="184"/>
-      <c r="C173" s="185"/>
-      <c r="D173" s="185"/>
-      <c r="E173" s="186"/>
+      <c r="B173" s="198"/>
+      <c r="C173" s="199"/>
+      <c r="D173" s="199"/>
+      <c r="E173" s="200"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
@@ -15466,10 +15498,10 @@
       <c r="J173" s="63"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B174" s="184"/>
-      <c r="C174" s="185"/>
-      <c r="D174" s="185"/>
-      <c r="E174" s="186"/>
+      <c r="B174" s="198"/>
+      <c r="C174" s="199"/>
+      <c r="D174" s="199"/>
+      <c r="E174" s="200"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -15831,8 +15863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC3732B1-2FE7-4207-8385-02075B4C4F6B}">
   <dimension ref="C2:AE1167"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:U10"/>
+    <sheetView topLeftCell="L13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15868,259 +15900,259 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="211" t="s">
         <v>675</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="H2" s="197" t="s">
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="H2" s="211" t="s">
         <v>676</v>
       </c>
-      <c r="I2" s="198"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
       <c r="L2" s="168"/>
-      <c r="M2" s="197" t="s">
+      <c r="M2" s="211" t="s">
         <v>677</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="R2" s="197" t="s">
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="212"/>
+      <c r="R2" s="211" t="s">
         <v>678</v>
       </c>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="W2" s="197" t="s">
+      <c r="S2" s="212"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
+      <c r="W2" s="211" t="s">
         <v>679</v>
       </c>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AB2" s="197" t="s">
+      <c r="X2" s="212"/>
+      <c r="Y2" s="212"/>
+      <c r="Z2" s="212"/>
+      <c r="AB2" s="211" t="s">
         <v>680</v>
       </c>
-      <c r="AC2" s="198"/>
-      <c r="AD2" s="198"/>
-      <c r="AE2" s="198"/>
+      <c r="AC2" s="212"/>
+      <c r="AD2" s="212"/>
+      <c r="AE2" s="212"/>
     </row>
     <row r="3" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
       <c r="L3" s="168"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="198"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
-      <c r="AE3" s="198"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="212"/>
+      <c r="W3" s="212"/>
+      <c r="X3" s="212"/>
+      <c r="Y3" s="212"/>
+      <c r="Z3" s="212"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="212"/>
+      <c r="AD3" s="212"/>
+      <c r="AE3" s="212"/>
     </row>
     <row r="4" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="H4" s="212"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
       <c r="L4" s="168"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="198"/>
-      <c r="U4" s="198"/>
-      <c r="W4" s="198"/>
-      <c r="X4" s="198"/>
-      <c r="Y4" s="198"/>
-      <c r="Z4" s="198"/>
-      <c r="AB4" s="198"/>
-      <c r="AC4" s="198"/>
-      <c r="AD4" s="198"/>
-      <c r="AE4" s="198"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="R4" s="212"/>
+      <c r="S4" s="212"/>
+      <c r="T4" s="212"/>
+      <c r="U4" s="212"/>
+      <c r="W4" s="212"/>
+      <c r="X4" s="212"/>
+      <c r="Y4" s="212"/>
+      <c r="Z4" s="212"/>
+      <c r="AB4" s="212"/>
+      <c r="AC4" s="212"/>
+      <c r="AD4" s="212"/>
+      <c r="AE4" s="212"/>
     </row>
     <row r="5" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="198"/>
-      <c r="J5" s="198"/>
-      <c r="K5" s="198"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="212"/>
       <c r="L5" s="168"/>
-      <c r="M5" s="198"/>
-      <c r="N5" s="198"/>
-      <c r="O5" s="198"/>
-      <c r="P5" s="198"/>
-      <c r="R5" s="198"/>
-      <c r="S5" s="198"/>
-      <c r="T5" s="198"/>
-      <c r="U5" s="198"/>
-      <c r="W5" s="198"/>
-      <c r="X5" s="198"/>
-      <c r="Y5" s="198"/>
-      <c r="Z5" s="198"/>
-      <c r="AB5" s="198"/>
-      <c r="AC5" s="198"/>
-      <c r="AD5" s="198"/>
-      <c r="AE5" s="198"/>
+      <c r="M5" s="212"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="212"/>
+      <c r="P5" s="212"/>
+      <c r="R5" s="212"/>
+      <c r="S5" s="212"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="212"/>
+      <c r="W5" s="212"/>
+      <c r="X5" s="212"/>
+      <c r="Y5" s="212"/>
+      <c r="Z5" s="212"/>
+      <c r="AB5" s="212"/>
+      <c r="AC5" s="212"/>
+      <c r="AD5" s="212"/>
+      <c r="AE5" s="212"/>
     </row>
     <row r="6" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="H6" s="198"/>
-      <c r="I6" s="198"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="198"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
       <c r="L6" s="168"/>
-      <c r="M6" s="198"/>
-      <c r="N6" s="198"/>
-      <c r="O6" s="198"/>
-      <c r="P6" s="198"/>
-      <c r="R6" s="198"/>
-      <c r="S6" s="198"/>
-      <c r="T6" s="198"/>
-      <c r="U6" s="198"/>
-      <c r="W6" s="198"/>
-      <c r="X6" s="198"/>
-      <c r="Y6" s="198"/>
-      <c r="Z6" s="198"/>
-      <c r="AB6" s="198"/>
-      <c r="AC6" s="198"/>
-      <c r="AD6" s="198"/>
-      <c r="AE6" s="198"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="212"/>
+      <c r="P6" s="212"/>
+      <c r="R6" s="212"/>
+      <c r="S6" s="212"/>
+      <c r="T6" s="212"/>
+      <c r="U6" s="212"/>
+      <c r="W6" s="212"/>
+      <c r="X6" s="212"/>
+      <c r="Y6" s="212"/>
+      <c r="Z6" s="212"/>
+      <c r="AB6" s="212"/>
+      <c r="AC6" s="212"/>
+      <c r="AD6" s="212"/>
+      <c r="AE6" s="212"/>
     </row>
     <row r="7" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
       <c r="L7" s="168"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="198"/>
-      <c r="O7" s="198"/>
-      <c r="P7" s="198"/>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="198"/>
-      <c r="Z7" s="198"/>
-      <c r="AB7" s="198"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="198"/>
-      <c r="AE7" s="198"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="212"/>
+      <c r="O7" s="212"/>
+      <c r="P7" s="212"/>
+      <c r="R7" s="212"/>
+      <c r="S7" s="212"/>
+      <c r="T7" s="212"/>
+      <c r="U7" s="212"/>
+      <c r="W7" s="212"/>
+      <c r="X7" s="212"/>
+      <c r="Y7" s="212"/>
+      <c r="Z7" s="212"/>
+      <c r="AB7" s="212"/>
+      <c r="AC7" s="212"/>
+      <c r="AD7" s="212"/>
+      <c r="AE7" s="212"/>
     </row>
     <row r="8" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="H8" s="212"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
       <c r="L8" s="168"/>
-      <c r="M8" s="198"/>
-      <c r="N8" s="198"/>
-      <c r="O8" s="198"/>
-      <c r="P8" s="198"/>
-      <c r="R8" s="198"/>
-      <c r="S8" s="198"/>
-      <c r="T8" s="198"/>
-      <c r="U8" s="198"/>
-      <c r="W8" s="198"/>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="198"/>
-      <c r="Z8" s="198"/>
-      <c r="AB8" s="198"/>
-      <c r="AC8" s="198"/>
-      <c r="AD8" s="198"/>
-      <c r="AE8" s="198"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="212"/>
+      <c r="O8" s="212"/>
+      <c r="P8" s="212"/>
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="212"/>
+      <c r="W8" s="212"/>
+      <c r="X8" s="212"/>
+      <c r="Y8" s="212"/>
+      <c r="Z8" s="212"/>
+      <c r="AB8" s="212"/>
+      <c r="AC8" s="212"/>
+      <c r="AD8" s="212"/>
+      <c r="AE8" s="212"/>
     </row>
     <row r="9" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
       <c r="L9" s="168"/>
-      <c r="M9" s="198"/>
-      <c r="N9" s="198"/>
-      <c r="O9" s="198"/>
-      <c r="P9" s="198"/>
-      <c r="R9" s="198"/>
-      <c r="S9" s="198"/>
-      <c r="T9" s="198"/>
-      <c r="U9" s="198"/>
-      <c r="W9" s="198"/>
-      <c r="X9" s="198"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="198"/>
-      <c r="AB9" s="198"/>
-      <c r="AC9" s="198"/>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="198"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="212"/>
+      <c r="O9" s="212"/>
+      <c r="P9" s="212"/>
+      <c r="R9" s="212"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="212"/>
+      <c r="U9" s="212"/>
+      <c r="W9" s="212"/>
+      <c r="X9" s="212"/>
+      <c r="Y9" s="212"/>
+      <c r="Z9" s="212"/>
+      <c r="AB9" s="212"/>
+      <c r="AC9" s="212"/>
+      <c r="AD9" s="212"/>
+      <c r="AE9" s="212"/>
     </row>
     <row r="10" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="197"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
       <c r="L10" s="168"/>
-      <c r="M10" s="198"/>
-      <c r="N10" s="198"/>
-      <c r="O10" s="198"/>
-      <c r="P10" s="198"/>
-      <c r="R10" s="198"/>
-      <c r="S10" s="198"/>
-      <c r="T10" s="198"/>
-      <c r="U10" s="198"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="198"/>
-      <c r="Y10" s="198"/>
-      <c r="Z10" s="198"/>
-      <c r="AB10" s="198"/>
-      <c r="AC10" s="198"/>
-      <c r="AD10" s="198"/>
-      <c r="AE10" s="198"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="212"/>
+      <c r="P10" s="212"/>
+      <c r="R10" s="212"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="212"/>
+      <c r="W10" s="212"/>
+      <c r="X10" s="212"/>
+      <c r="Y10" s="212"/>
+      <c r="Z10" s="212"/>
+      <c r="AB10" s="212"/>
+      <c r="AC10" s="212"/>
+      <c r="AD10" s="212"/>
+      <c r="AE10" s="212"/>
     </row>
     <row r="11" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C11" s="167"/>
@@ -16177,43 +16209,43 @@
       </c>
     </row>
     <row r="15" spans="3:31" x14ac:dyDescent="0.25">
-      <c r="C15" s="202" t="s">
+      <c r="C15" s="216" t="s">
         <v>669</v>
       </c>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="204"/>
-      <c r="H15" s="199" t="s">
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="218"/>
+      <c r="H15" s="213" t="s">
         <v>670</v>
       </c>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
+      <c r="I15" s="214"/>
+      <c r="J15" s="214"/>
+      <c r="K15" s="215"/>
       <c r="L15" s="163"/>
-      <c r="M15" s="177" t="s">
+      <c r="M15" s="191" t="s">
         <v>671</v>
       </c>
-      <c r="N15" s="177"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="177"/>
-      <c r="R15" s="177" t="s">
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="191"/>
+      <c r="R15" s="191" t="s">
         <v>672</v>
       </c>
-      <c r="S15" s="177"/>
-      <c r="T15" s="177"/>
-      <c r="U15" s="177"/>
-      <c r="W15" s="177" t="s">
+      <c r="S15" s="191"/>
+      <c r="T15" s="191"/>
+      <c r="U15" s="191"/>
+      <c r="W15" s="191" t="s">
         <v>673</v>
       </c>
-      <c r="X15" s="177"/>
-      <c r="Y15" s="177"/>
-      <c r="Z15" s="177"/>
-      <c r="AB15" s="177" t="s">
+      <c r="X15" s="191"/>
+      <c r="Y15" s="191"/>
+      <c r="Z15" s="191"/>
+      <c r="AB15" s="191" t="s">
         <v>674</v>
       </c>
-      <c r="AC15" s="177"/>
-      <c r="AD15" s="177"/>
-      <c r="AE15" s="177"/>
+      <c r="AC15" s="191"/>
+      <c r="AD15" s="191"/>
+      <c r="AE15" s="191"/>
     </row>
     <row r="16" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C16" s="159" t="s">
@@ -34968,13 +35000,13 @@
       </c>
     </row>
     <row r="305" spans="3:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C305" s="197" t="str">
+      <c r="C305" s="211" t="str">
         <f t="shared" si="7"/>
         <v>Insert into `tbrelOrgRedes` values(144,36,4,1);</v>
       </c>
-      <c r="D305" s="197"/>
-      <c r="E305" s="197"/>
-      <c r="F305" s="197"/>
+      <c r="D305" s="211"/>
+      <c r="E305" s="211"/>
+      <c r="F305" s="211"/>
       <c r="H305" s="112">
         <v>289</v>
       </c>
@@ -43203,13 +43235,13 @@
       <c r="D486" s="167"/>
       <c r="E486" s="167"/>
       <c r="G486" s="167"/>
-      <c r="H486" s="197" t="str">
+      <c r="H486" s="211" t="str">
         <f t="shared" ref="H486:H493" si="10">$H$12&amp;H17&amp;","&amp;I17&amp;","&amp;J17&amp;","&amp;K17&amp;");"</f>
         <v>Insert into `tbrelOrgInstalacion` values(1,1,1,1);</v>
       </c>
-      <c r="I486" s="197"/>
-      <c r="J486" s="197"/>
-      <c r="K486" s="197"/>
+      <c r="I486" s="211"/>
+      <c r="J486" s="211"/>
+      <c r="K486" s="211"/>
       <c r="L486" s="166"/>
       <c r="M486" s="2">
         <v>470</v>
@@ -54839,13 +54871,13 @@
       <c r="E953" s="167"/>
       <c r="F953" s="167"/>
       <c r="G953" s="167"/>
-      <c r="H953" s="197" t="str">
+      <c r="H953" s="211" t="str">
         <f t="shared" si="31"/>
         <v>Insert into `tbrelOrgInstalacion` values(468,36,17,1);</v>
       </c>
-      <c r="I953" s="197"/>
-      <c r="J953" s="197"/>
-      <c r="K953" s="197"/>
+      <c r="I953" s="211"/>
+      <c r="J953" s="211"/>
+      <c r="K953" s="211"/>
       <c r="L953" s="166"/>
       <c r="M953" t="str">
         <f t="shared" si="30"/>
@@ -54882,10 +54914,10 @@
       <c r="E955" s="167"/>
       <c r="F955" s="167"/>
       <c r="G955" s="167"/>
-      <c r="H955" s="197"/>
-      <c r="I955" s="197"/>
-      <c r="J955" s="197"/>
-      <c r="K955" s="197"/>
+      <c r="H955" s="211"/>
+      <c r="I955" s="211"/>
+      <c r="J955" s="211"/>
+      <c r="K955" s="211"/>
       <c r="L955" s="166"/>
       <c r="M955" t="str">
         <f t="shared" si="30"/>
@@ -56277,7 +56309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F011F-3E81-4A40-B1FE-DC80FA4AA4B0}">
   <dimension ref="D3:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7:G9"/>
     </sheetView>
   </sheetViews>
@@ -56288,138 +56320,138 @@
   <sheetData>
     <row r="3" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D4" s="233"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="235"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="241"/>
-      <c r="O4" s="242"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="173"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="179"/>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D5" s="236"/>
+      <c r="D5" s="174"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="237"/>
-      <c r="J5" s="243"/>
+      <c r="H5" s="175"/>
+      <c r="J5" s="180"/>
       <c r="K5" s="128"/>
       <c r="L5" s="128"/>
       <c r="M5" s="128"/>
       <c r="N5" s="128"/>
-      <c r="O5" s="244"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D6" s="236"/>
+      <c r="D6" s="174"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="237"/>
-      <c r="J6" s="243"/>
+      <c r="H6" s="175"/>
+      <c r="J6" s="180"/>
       <c r="K6" s="128"/>
       <c r="L6" s="128"/>
       <c r="M6" s="128"/>
       <c r="N6" s="128"/>
-      <c r="O6" s="244"/>
+      <c r="O6" s="181"/>
     </row>
     <row r="7" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="236"/>
-      <c r="E7" s="239" t="s">
+      <c r="D7" s="174"/>
+      <c r="E7" s="219" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="237"/>
-      <c r="J7" s="243"/>
-      <c r="K7" s="249" t="s">
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="175"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="220" t="s">
         <v>692</v>
       </c>
-      <c r="L7" s="248"/>
-      <c r="M7" s="248"/>
-      <c r="N7" s="248"/>
-      <c r="O7" s="244"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="221"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="181"/>
     </row>
     <row r="8" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="236"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="237"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="248"/>
-      <c r="L8" s="248"/>
-      <c r="M8" s="248"/>
-      <c r="N8" s="248"/>
-      <c r="O8" s="244"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="219"/>
+      <c r="H8" s="175"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="221"/>
+      <c r="L8" s="221"/>
+      <c r="M8" s="221"/>
+      <c r="N8" s="221"/>
+      <c r="O8" s="181"/>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D9" s="236"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="237"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="248"/>
-      <c r="L9" s="248"/>
-      <c r="M9" s="248"/>
-      <c r="N9" s="248"/>
-      <c r="O9" s="244"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="175"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="181"/>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="236"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="237"/>
-      <c r="J10" s="243"/>
+      <c r="H10" s="175"/>
+      <c r="J10" s="180"/>
       <c r="K10" s="128"/>
       <c r="L10" s="128"/>
       <c r="M10" s="128"/>
       <c r="N10" s="128"/>
-      <c r="O10" s="244"/>
+      <c r="O10" s="181"/>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="236"/>
+      <c r="D11" s="174"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="237"/>
-      <c r="J11" s="243"/>
+      <c r="H11" s="175"/>
+      <c r="J11" s="180"/>
       <c r="K11" s="128"/>
       <c r="L11" s="128"/>
       <c r="M11" s="128"/>
       <c r="N11" s="128"/>
-      <c r="O11" s="244"/>
+      <c r="O11" s="181"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="236"/>
+      <c r="D12" s="174"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="237"/>
-      <c r="J12" s="243"/>
+      <c r="H12" s="175"/>
+      <c r="J12" s="180"/>
       <c r="K12" s="128"/>
       <c r="L12" s="128"/>
       <c r="M12" s="128"/>
       <c r="N12" s="128"/>
-      <c r="O12" s="244"/>
+      <c r="O12" s="181"/>
     </row>
     <row r="13" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="238"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="34"/>
-      <c r="J13" s="245"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="247"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="183"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -56432,15 +56464,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1EB7C-E4D6-4446-BF98-C9AE28EACFFF}">
-  <dimension ref="F12:H12"/>
+  <dimension ref="D12:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E23" sqref="E23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="12" spans="6:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="170" t="s">
         <v>687</v>
       </c>
@@ -56449,7 +56481,86 @@
         <v>826</v>
       </c>
     </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="222" t="s">
+        <v>693</v>
+      </c>
+      <c r="F14" s="223"/>
+      <c r="G14" s="223"/>
+      <c r="H14">
+        <f>LEN(E14)</f>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>697</v>
+      </c>
+      <c r="E17" s="224" t="s">
+        <v>694</v>
+      </c>
+      <c r="F17" s="222"/>
+      <c r="G17" s="222"/>
+      <c r="H17">
+        <f>LEN(E17)</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="222"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="222"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>698</v>
+      </c>
+      <c r="E20" s="224" t="s">
+        <v>695</v>
+      </c>
+      <c r="F20" s="222"/>
+      <c r="G20" s="222"/>
+      <c r="H20">
+        <f>LEN(E20)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
+      <c r="G21" s="222"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>699</v>
+      </c>
+      <c r="E23" s="222" t="s">
+        <v>696</v>
+      </c>
+      <c r="F23" s="222"/>
+      <c r="G23" s="222"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="222"/>
+      <c r="F24" s="222"/>
+      <c r="G24" s="222"/>
+      <c r="H24">
+        <f>LEN(E23)</f>
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E14:G15"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="E20:G21"/>
+    <mergeCell ref="E23:G24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -56497,38 +56608,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:50" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="209" t="s">
+      <c r="D1" s="229" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="211"/>
-      <c r="X1" s="212" t="s">
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="230"/>
+      <c r="L1" s="230"/>
+      <c r="M1" s="230"/>
+      <c r="N1" s="230"/>
+      <c r="O1" s="230"/>
+      <c r="P1" s="230"/>
+      <c r="Q1" s="230"/>
+      <c r="R1" s="230"/>
+      <c r="S1" s="230"/>
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="231"/>
+      <c r="X1" s="232" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" s="213"/>
-      <c r="Z1" s="213"/>
-      <c r="AA1" s="213"/>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="213"/>
-      <c r="AD1" s="213"/>
-      <c r="AE1" s="213"/>
-      <c r="AF1" s="213"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="233"/>
+      <c r="AB1" s="233"/>
+      <c r="AC1" s="233"/>
+      <c r="AD1" s="233"/>
+      <c r="AE1" s="233"/>
+      <c r="AF1" s="233"/>
       <c r="AQ1" s="18"/>
       <c r="AR1" s="18"/>
       <c r="AS1" s="4"/>
@@ -56692,7 +56803,7 @@
       <c r="AD3" s="77"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="205" t="s">
+      <c r="AG3" s="225" t="s">
         <v>378</v>
       </c>
     </row>
@@ -56755,13 +56866,13 @@
       <c r="AD4" s="77"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="206"/>
+      <c r="AG4" s="226"/>
     </row>
     <row r="5" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D5" s="6"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="217"/>
+      <c r="G5" s="237"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -56769,13 +56880,13 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
-      <c r="O5" s="214" t="s">
+      <c r="O5" s="234" t="s">
         <v>258</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="220"/>
-      <c r="S5" s="223"/>
+      <c r="R5" s="240"/>
+      <c r="S5" s="243"/>
       <c r="T5" s="17"/>
       <c r="U5" s="78"/>
       <c r="V5" s="17"/>
@@ -56798,13 +56909,13 @@
       <c r="AD5" s="77"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="206"/>
+      <c r="AG5" s="226"/>
     </row>
     <row r="6" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D6" s="6"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="218"/>
+      <c r="G6" s="238"/>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -56812,11 +56923,11 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="215"/>
+      <c r="O6" s="235"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="224"/>
+      <c r="R6" s="241"/>
+      <c r="S6" s="244"/>
       <c r="T6" s="17"/>
       <c r="U6" s="78"/>
       <c r="V6" s="17"/>
@@ -56839,13 +56950,13 @@
       <c r="AD6" s="77"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="206"/>
+      <c r="AG6" s="226"/>
     </row>
     <row r="7" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="218"/>
+      <c r="G7" s="238"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -56853,11 +56964,11 @@
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="215"/>
+      <c r="O7" s="235"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="221"/>
-      <c r="S7" s="224"/>
+      <c r="R7" s="241"/>
+      <c r="S7" s="244"/>
       <c r="T7" s="17"/>
       <c r="U7" s="78"/>
       <c r="V7" s="17"/>
@@ -56880,13 +56991,13 @@
       <c r="AD7" s="77"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="206"/>
+      <c r="AG7" s="226"/>
     </row>
     <row r="8" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D8" s="6"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="218"/>
+      <c r="G8" s="238"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -56894,11 +57005,11 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="215"/>
+      <c r="O8" s="235"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="221"/>
-      <c r="S8" s="224"/>
+      <c r="R8" s="241"/>
+      <c r="S8" s="244"/>
       <c r="T8" s="17"/>
       <c r="U8" s="78"/>
       <c r="V8" s="17"/>
@@ -56921,13 +57032,13 @@
       <c r="AD8" s="77"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="206"/>
+      <c r="AG8" s="226"/>
     </row>
     <row r="9" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="218"/>
+      <c r="G9" s="238"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -56935,11 +57046,11 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="215"/>
+      <c r="O9" s="235"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="221"/>
-      <c r="S9" s="224"/>
+      <c r="R9" s="241"/>
+      <c r="S9" s="244"/>
       <c r="T9" s="17"/>
       <c r="U9" s="78"/>
       <c r="V9" s="17"/>
@@ -56962,13 +57073,13 @@
       <c r="AD9" s="77"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="206"/>
+      <c r="AG9" s="226"/>
     </row>
     <row r="10" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="218"/>
+      <c r="G10" s="238"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -56976,11 +57087,11 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
-      <c r="O10" s="215"/>
+      <c r="O10" s="235"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="221"/>
-      <c r="S10" s="224"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="244"/>
       <c r="T10" s="17"/>
       <c r="U10" s="78"/>
       <c r="V10" s="17"/>
@@ -57003,13 +57114,13 @@
       <c r="AD10" s="77"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="206"/>
+      <c r="AG10" s="226"/>
     </row>
     <row r="11" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D11" s="6"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="218"/>
+      <c r="G11" s="238"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
@@ -57017,11 +57128,11 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
-      <c r="O11" s="215"/>
+      <c r="O11" s="235"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="221"/>
-      <c r="S11" s="224"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="244"/>
       <c r="T11" s="17"/>
       <c r="U11" s="78"/>
       <c r="V11" s="17"/>
@@ -57046,13 +57157,13 @@
       <c r="AD11" s="77"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="206"/>
+      <c r="AG11" s="226"/>
     </row>
     <row r="12" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="219"/>
+      <c r="G12" s="239"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -57060,11 +57171,11 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="216"/>
+      <c r="O12" s="236"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="225"/>
+      <c r="R12" s="242"/>
+      <c r="S12" s="245"/>
       <c r="T12" s="17"/>
       <c r="U12" s="78"/>
       <c r="V12" s="17"/>
@@ -57077,7 +57188,7 @@
       <c r="AD12" s="77"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="207"/>
+      <c r="AG12" s="227"/>
     </row>
     <row r="16" spans="4:50" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
@@ -57106,11 +57217,11 @@
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="208" t="s">
+      <c r="H18" s="228" t="s">
         <v>270</v>
       </c>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
+      <c r="I18" s="228"/>
+      <c r="J18" s="228"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -57448,11 +57559,11 @@
       <c r="C5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="226" t="s">
+      <c r="E5" s="246" t="s">
         <v>689</v>
       </c>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
       <c r="J5" s="6">
         <v>1</v>
       </c>
@@ -57482,7 +57593,7 @@
       </c>
       <c r="S5" t="str">
         <f ca="1">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero118@correo.com</v>
+        <v>correohotelnumero102@correo.com</v>
       </c>
       <c r="T5" s="165" t="s">
         <v>372</v>
@@ -57496,7 +57607,7 @@
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W40" ca="1" si="1">IF(L5&gt;2,RANDBETWEEN(120,250),IF(L5&gt;1,RANDBETWEEN(90,120),RANDBETWEEN(50,100)))</f>
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X5" s="165" t="s">
         <v>415</v>
@@ -57522,9 +57633,9 @@
       <c r="C6" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="226"/>
-      <c r="F6" s="226"/>
-      <c r="G6" s="226"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
       <c r="J6" s="6">
         <v>2</v>
       </c>
@@ -57554,7 +57665,7 @@
       </c>
       <c r="S6" t="str">
         <f t="shared" ref="S6:S40" ca="1" si="3">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero146@correo.com</v>
+        <v>correohotelnumero198@correo.com</v>
       </c>
       <c r="T6" s="165" t="s">
         <v>271</v>
@@ -57564,11 +57675,11 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="X6" s="165" t="s">
         <v>416</v>
@@ -57594,9 +57705,9 @@
       <c r="C7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="226"/>
-      <c r="G7" s="226"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="246"/>
       <c r="J7" s="6">
         <v>3</v>
       </c>
@@ -57626,7 +57737,7 @@
       </c>
       <c r="S7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero102@correo.com</v>
+        <v>correohotelnumero145@correo.com</v>
       </c>
       <c r="T7" s="165" t="s">
         <v>105</v>
@@ -57636,11 +57747,11 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="X7" s="165" t="s">
         <v>417</v>
@@ -57666,9 +57777,9 @@
       <c r="C8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
       <c r="J8" s="6">
         <v>4</v>
       </c>
@@ -57698,7 +57809,7 @@
       </c>
       <c r="S8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero136@correo.com</v>
+        <v>correohotelnumero183@correo.com</v>
       </c>
       <c r="T8" s="165" t="s">
         <v>373</v>
@@ -57708,11 +57819,11 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="X8" s="165" t="s">
         <v>418</v>
@@ -57738,9 +57849,9 @@
       <c r="C9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="226"/>
-      <c r="F9" s="226"/>
-      <c r="G9" s="226"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
       <c r="J9" s="6">
         <v>5</v>
       </c>
@@ -57770,7 +57881,7 @@
       </c>
       <c r="S9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero103@correo.com</v>
+        <v>correohotelnumero111@correo.com</v>
       </c>
       <c r="T9" s="165" t="s">
         <v>371</v>
@@ -57780,11 +57891,11 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="X9" s="165" t="s">
         <v>419</v>
@@ -57810,9 +57921,9 @@
       <c r="C10" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="226"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
       <c r="J10" s="6">
         <v>6</v>
       </c>
@@ -57821,7 +57932,7 @@
       </c>
       <c r="L10" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="102" t="s">
         <v>213</v>
@@ -57843,7 +57954,7 @@
       </c>
       <c r="S10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero177@correo.com</v>
+        <v>correohotelnumero159@correo.com</v>
       </c>
       <c r="T10" s="165" t="s">
         <v>105</v>
@@ -57853,11 +57964,11 @@
       </c>
       <c r="V10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="X10" s="165" t="s">
         <v>420</v>
@@ -57883,9 +57994,9 @@
       <c r="C11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
-      <c r="G11" s="226"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
       <c r="J11" s="6">
         <v>7</v>
       </c>
@@ -57894,7 +58005,7 @@
       </c>
       <c r="L11" s="8">
         <f t="shared" ref="L11:L40" ca="1" si="4">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="102" t="s">
         <v>214</v>
@@ -57916,7 +58027,7 @@
       </c>
       <c r="S11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero101@correo.com</v>
+        <v>correohotelnumero122@correo.com</v>
       </c>
       <c r="T11" s="165" t="s">
         <v>102</v>
@@ -57926,11 +58037,11 @@
       </c>
       <c r="V11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="X11" s="165" t="s">
         <v>421</v>
@@ -57956,9 +58067,9 @@
       <c r="C12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="226"/>
-      <c r="F12" s="226"/>
-      <c r="G12" s="226"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
       <c r="J12" s="6">
         <v>8</v>
       </c>
@@ -57967,7 +58078,7 @@
       </c>
       <c r="L12" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12" s="102" t="s">
         <v>272</v>
@@ -57989,7 +58100,7 @@
       </c>
       <c r="S12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero133@correo.com</v>
+        <v>correohotelnumero159@correo.com</v>
       </c>
       <c r="T12" s="165" t="s">
         <v>102</v>
@@ -57999,11 +58110,11 @@
       </c>
       <c r="V12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="X12" s="165" t="s">
         <v>422</v>
@@ -58029,9 +58140,9 @@
       <c r="C13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="226"/>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
       <c r="J13" s="6">
         <v>9</v>
       </c>
@@ -58040,7 +58151,7 @@
       </c>
       <c r="L13" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13" s="102" t="s">
         <v>273</v>
@@ -58072,11 +58183,11 @@
       </c>
       <c r="V13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="X13" s="165" t="s">
         <v>423</v>
@@ -58102,9 +58213,9 @@
       <c r="C14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="226"/>
-      <c r="F14" s="226"/>
-      <c r="G14" s="226"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="246"/>
       <c r="J14" s="6">
         <v>10</v>
       </c>
@@ -58113,7 +58224,7 @@
       </c>
       <c r="L14" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14" s="102" t="s">
         <v>274</v>
@@ -58135,7 +58246,7 @@
       </c>
       <c r="S14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero112@correo.com</v>
+        <v>correohotelnumero193@correo.com</v>
       </c>
       <c r="T14" s="165" t="s">
         <v>373</v>
@@ -58145,11 +58256,11 @@
       </c>
       <c r="V14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="X14" s="165" t="s">
         <v>424</v>
@@ -58175,9 +58286,9 @@
       <c r="C15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="226"/>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
       <c r="J15" s="6">
         <v>11</v>
       </c>
@@ -58186,7 +58297,7 @@
       </c>
       <c r="L15" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="102" t="s">
         <v>275</v>
@@ -58208,7 +58319,7 @@
       </c>
       <c r="S15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero177@correo.com</v>
+        <v>correohotelnumero106@correo.com</v>
       </c>
       <c r="T15" s="165" t="s">
         <v>371</v>
@@ -58218,11 +58329,11 @@
       </c>
       <c r="V15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="X15" s="165" t="s">
         <v>425</v>
@@ -58248,9 +58359,9 @@
       <c r="C16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
       <c r="J16" s="6">
         <v>12</v>
       </c>
@@ -58259,7 +58370,7 @@
       </c>
       <c r="L16" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" s="102" t="s">
         <v>276</v>
@@ -58281,7 +58392,7 @@
       </c>
       <c r="S16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero187@correo.com</v>
+        <v>correohotelnumero168@correo.com</v>
       </c>
       <c r="T16" s="165" t="s">
         <v>372</v>
@@ -58291,11 +58402,11 @@
       </c>
       <c r="V16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="X16" s="165" t="s">
         <v>426</v>
@@ -58321,9 +58432,9 @@
       <c r="C17" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="226"/>
-      <c r="F17" s="226"/>
-      <c r="G17" s="226"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="246"/>
       <c r="J17" s="6">
         <v>13</v>
       </c>
@@ -58332,7 +58443,7 @@
       </c>
       <c r="L17" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" s="102" t="s">
         <v>277</v>
@@ -58354,7 +58465,7 @@
       </c>
       <c r="S17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero114@correo.com</v>
+        <v>correohotelnumero127@correo.com</v>
       </c>
       <c r="T17" s="165" t="s">
         <v>371</v>
@@ -58364,11 +58475,11 @@
       </c>
       <c r="V17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="X17" s="165" t="s">
         <v>427</v>
@@ -58394,9 +58505,9 @@
       <c r="C18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="226"/>
-      <c r="F18" s="226"/>
-      <c r="G18" s="226"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="246"/>
       <c r="J18" s="6">
         <v>14</v>
       </c>
@@ -58405,7 +58516,7 @@
       </c>
       <c r="L18" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="102" t="s">
         <v>278</v>
@@ -58427,7 +58538,7 @@
       </c>
       <c r="S18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero160@correo.com</v>
+        <v>correohotelnumero186@correo.com</v>
       </c>
       <c r="T18" s="165" t="s">
         <v>370</v>
@@ -58437,11 +58548,11 @@
       </c>
       <c r="V18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="X18" s="165" t="s">
         <v>428</v>
@@ -58467,9 +58578,9 @@
       <c r="C19" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="226"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="246"/>
       <c r="J19" s="6">
         <v>15</v>
       </c>
@@ -58500,7 +58611,7 @@
       </c>
       <c r="S19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero191@correo.com</v>
+        <v>correohotelnumero196@correo.com</v>
       </c>
       <c r="T19" s="165" t="s">
         <v>370</v>
@@ -58510,11 +58621,11 @@
       </c>
       <c r="V19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="X19" s="165" t="s">
         <v>429</v>
@@ -58540,9 +58651,9 @@
       <c r="C20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E20" s="226"/>
-      <c r="F20" s="226"/>
-      <c r="G20" s="226"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="246"/>
       <c r="J20" s="6">
         <v>16</v>
       </c>
@@ -58551,7 +58662,7 @@
       </c>
       <c r="L20" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="102" t="s">
         <v>280</v>
@@ -58573,7 +58684,7 @@
       </c>
       <c r="S20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero111@correo.com</v>
+        <v>correohotelnumero140@correo.com</v>
       </c>
       <c r="T20" s="165" t="s">
         <v>105</v>
@@ -58583,11 +58694,11 @@
       </c>
       <c r="V20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="X20" s="165" t="s">
         <v>430</v>
@@ -58613,9 +58724,9 @@
       <c r="C21" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="226"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="226"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
       <c r="J21" s="6">
         <v>17</v>
       </c>
@@ -58646,7 +58757,7 @@
       </c>
       <c r="S21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero169@correo.com</v>
+        <v>correohotelnumero149@correo.com</v>
       </c>
       <c r="T21" s="165" t="s">
         <v>372</v>
@@ -58656,11 +58767,11 @@
       </c>
       <c r="V21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="X21" s="165" t="s">
         <v>431</v>
@@ -58686,9 +58797,9 @@
       <c r="C22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="226"/>
-      <c r="F22" s="226"/>
-      <c r="G22" s="226"/>
+      <c r="E22" s="246"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="246"/>
       <c r="J22" s="6">
         <v>18</v>
       </c>
@@ -58697,7 +58808,7 @@
       </c>
       <c r="L22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" s="102" t="s">
         <v>282</v>
@@ -58719,7 +58830,7 @@
       </c>
       <c r="S22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero185@correo.com</v>
+        <v>correohotelnumero162@correo.com</v>
       </c>
       <c r="T22" s="165" t="s">
         <v>105</v>
@@ -58729,11 +58840,11 @@
       </c>
       <c r="V22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="X22" s="165" t="s">
         <v>432</v>
@@ -58759,9 +58870,9 @@
       <c r="C23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="226"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="246"/>
       <c r="J23" s="6">
         <v>19</v>
       </c>
@@ -58770,7 +58881,7 @@
       </c>
       <c r="L23" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" s="102" t="s">
         <v>283</v>
@@ -58792,7 +58903,7 @@
       </c>
       <c r="S23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero119@correo.com</v>
+        <v>correohotelnumero178@correo.com</v>
       </c>
       <c r="T23" s="165" t="s">
         <v>602</v>
@@ -58802,11 +58913,11 @@
       </c>
       <c r="V23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="X23" s="165" t="s">
         <v>433</v>
@@ -58826,9 +58937,9 @@
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E24" s="226"/>
-      <c r="F24" s="226"/>
-      <c r="G24" s="226"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="246"/>
       <c r="J24" s="135">
         <v>20</v>
       </c>
@@ -58837,7 +58948,7 @@
       </c>
       <c r="L24" s="136">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M24" s="102" t="s">
         <v>284</v>
@@ -58859,7 +58970,7 @@
       </c>
       <c r="S24" s="139" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero128@correo.com</v>
+        <v>correohotelnumero153@correo.com</v>
       </c>
       <c r="T24" s="165" t="s">
         <v>603</v>
@@ -58869,11 +58980,11 @@
       </c>
       <c r="V24" s="136">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="W24" s="136">
         <f t="shared" ca="1" si="1"/>
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="X24" s="165" t="s">
         <v>434</v>
@@ -58893,9 +59004,9 @@
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E25" s="226"/>
-      <c r="F25" s="226"/>
-      <c r="G25" s="226"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="246"/>
       <c r="J25" s="6">
         <v>21</v>
       </c>
@@ -58904,7 +59015,7 @@
       </c>
       <c r="L25" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25" s="102" t="s">
         <v>86</v>
@@ -58926,7 +59037,7 @@
       </c>
       <c r="S25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero187@correo.com</v>
+        <v>correohotelnumero166@correo.com</v>
       </c>
       <c r="T25" s="96" t="s">
         <v>370</v>
@@ -58940,7 +59051,7 @@
       </c>
       <c r="W25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>213</v>
+        <v>90</v>
       </c>
       <c r="X25" s="120" t="s">
         <v>610</v>
@@ -58960,9 +59071,9 @@
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="E26" s="226"/>
-      <c r="F26" s="226"/>
-      <c r="G26" s="226"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="246"/>
+      <c r="G26" s="246"/>
       <c r="J26" s="6">
         <v>22</v>
       </c>
@@ -58971,7 +59082,7 @@
       </c>
       <c r="L26" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" s="102" t="s">
         <v>128</v>
@@ -58993,7 +59104,7 @@
       </c>
       <c r="S26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero147@correo.com</v>
+        <v>correohotelnumero175@correo.com</v>
       </c>
       <c r="T26" s="96" t="s">
         <v>604</v>
@@ -59003,11 +59114,11 @@
       </c>
       <c r="V26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="X26" s="120" t="s">
         <v>611</v>
@@ -59035,7 +59146,7 @@
       </c>
       <c r="L27" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27" s="102" t="s">
         <v>131</v>
@@ -59057,7 +59168,7 @@
       </c>
       <c r="S27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero168@correo.com</v>
+        <v>correohotelnumero153@correo.com</v>
       </c>
       <c r="T27" s="96" t="s">
         <v>605</v>
@@ -59067,11 +59178,11 @@
       </c>
       <c r="V27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="X27" s="120" t="s">
         <v>612</v>
@@ -59121,7 +59232,7 @@
       </c>
       <c r="S28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero129@correo.com</v>
+        <v>correohotelnumero169@correo.com</v>
       </c>
       <c r="T28" s="96" t="s">
         <v>605</v>
@@ -59131,11 +59242,11 @@
       </c>
       <c r="V28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X28" s="120" t="s">
         <v>606</v>
@@ -59185,7 +59296,7 @@
       </c>
       <c r="S29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero194@correo.com</v>
+        <v>correohotelnumero120@correo.com</v>
       </c>
       <c r="T29" s="96" t="s">
         <v>105</v>
@@ -59195,11 +59306,11 @@
       </c>
       <c r="V29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="X29" s="120" t="s">
         <v>607</v>
@@ -59227,7 +59338,7 @@
       </c>
       <c r="L30" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="102" t="s">
         <v>213</v>
@@ -59249,7 +59360,7 @@
       </c>
       <c r="S30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero189@correo.com</v>
+        <v>correohotelnumero119@correo.com</v>
       </c>
       <c r="T30" s="96" t="s">
         <v>602</v>
@@ -59259,11 +59370,11 @@
       </c>
       <c r="V30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="X30" s="120" t="s">
         <v>613</v>
@@ -59291,7 +59402,7 @@
       </c>
       <c r="L31" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31" s="102" t="s">
         <v>214</v>
@@ -59313,7 +59424,7 @@
       </c>
       <c r="S31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero162@correo.com</v>
+        <v>correohotelnumero118@correo.com</v>
       </c>
       <c r="T31" s="96" t="s">
         <v>102</v>
@@ -59323,11 +59434,11 @@
       </c>
       <c r="V31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="X31" s="120" t="s">
         <v>608</v>
@@ -59355,7 +59466,7 @@
       </c>
       <c r="L32" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="102" t="s">
         <v>272</v>
@@ -59377,7 +59488,7 @@
       </c>
       <c r="S32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero156@correo.com</v>
+        <v>correohotelnumero109@correo.com</v>
       </c>
       <c r="T32" s="96" t="s">
         <v>604</v>
@@ -59387,11 +59498,11 @@
       </c>
       <c r="V32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="X32" s="120" t="s">
         <v>614</v>
@@ -59441,7 +59552,7 @@
       </c>
       <c r="S33" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero132@correo.com</v>
+        <v>correohotelnumero144@correo.com</v>
       </c>
       <c r="T33" s="96" t="s">
         <v>605</v>
@@ -59451,11 +59562,11 @@
       </c>
       <c r="V33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="X33" s="120" t="s">
         <v>615</v>
@@ -59483,7 +59594,7 @@
       </c>
       <c r="L34" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34" s="102" t="s">
         <v>274</v>
@@ -59505,7 +59616,7 @@
       </c>
       <c r="S34" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero154@correo.com</v>
+        <v>correohotelnumero104@correo.com</v>
       </c>
       <c r="T34" s="96" t="s">
         <v>603</v>
@@ -59515,11 +59626,11 @@
       </c>
       <c r="V34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="X34" s="120" t="s">
         <v>616</v>
@@ -59569,7 +59680,7 @@
       </c>
       <c r="S35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero145@correo.com</v>
+        <v>correohotelnumero188@correo.com</v>
       </c>
       <c r="T35" s="96" t="s">
         <v>370</v>
@@ -59579,11 +59690,11 @@
       </c>
       <c r="V35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="W35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="X35" s="120" t="s">
         <v>617</v>
@@ -59611,7 +59722,7 @@
       </c>
       <c r="L36" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" s="102" t="s">
         <v>276</v>
@@ -59633,7 +59744,7 @@
       </c>
       <c r="S36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero165@correo.com</v>
+        <v>correohotelnumero112@correo.com</v>
       </c>
       <c r="T36" s="96" t="s">
         <v>602</v>
@@ -59643,11 +59754,11 @@
       </c>
       <c r="V36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="X36" s="120" t="s">
         <v>618</v>
@@ -59697,7 +59808,7 @@
       </c>
       <c r="S37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero110@correo.com</v>
+        <v>correohotelnumero195@correo.com</v>
       </c>
       <c r="T37" s="96" t="s">
         <v>105</v>
@@ -59711,7 +59822,7 @@
       </c>
       <c r="W37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="X37" s="120" t="s">
         <v>609</v>
@@ -59761,7 +59872,7 @@
       </c>
       <c r="S38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero197@correo.com</v>
+        <v>correohotelnumero114@correo.com</v>
       </c>
       <c r="T38" s="96" t="s">
         <v>370</v>
@@ -59771,11 +59882,11 @@
       </c>
       <c r="V38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="X38" s="120" t="s">
         <v>619</v>
@@ -59803,7 +59914,7 @@
       </c>
       <c r="L39" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="102" t="s">
         <v>281</v>
@@ -59825,7 +59936,7 @@
       </c>
       <c r="S39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero196@correo.com</v>
+        <v>correohotelnumero117@correo.com</v>
       </c>
       <c r="T39" s="96" t="s">
         <v>605</v>
@@ -59835,11 +59946,11 @@
       </c>
       <c r="V39" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W39" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="X39" s="120" t="s">
         <v>620</v>
@@ -59867,7 +59978,7 @@
       </c>
       <c r="L40" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M40" s="102" t="s">
         <v>282</v>
@@ -59889,7 +60000,7 @@
       </c>
       <c r="S40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>correohotelnumero188@correo.com</v>
+        <v>correohotelnumero149@correo.com</v>
       </c>
       <c r="T40" s="96" t="s">
         <v>105</v>
@@ -59899,11 +60010,11 @@
       </c>
       <c r="V40" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W40" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="X40" s="120" t="s">
         <v>621</v>
@@ -60071,7 +60182,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" ref="J52:J71" ca="1" si="5">$E$4&amp;J5&amp;", '"&amp;K5&amp;"'  , "&amp;L5&amp;"  ,  '"&amp;M5&amp;"',  "&amp;N5&amp;",  '"&amp;O5&amp;"'  ,'"&amp;P5&amp;"' , '"&amp;Q5&amp;"'  ,'"&amp;R5&amp;"'  ,  '"&amp;S5&amp;"'  ,  '"&amp;T5&amp;"'  , '"&amp;U5&amp;"'  , "&amp;V5&amp;"  , "&amp;W5&amp;"  ,'"&amp;X5&amp;"'  , '"&amp;Y5&amp;"'  , '"&amp;Z5&amp;"'  ,  '"&amp;AA5&amp;"' , "&amp;AB5&amp;");"</f>
-        <v>insert into `Tborganizacion`  values(1, '11111'  , 2  ,  'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:',  39,  'Hotel numero-1'  ,'direccion del hotel-1' , '315-315-3010'  ,'320-315-2015'  ,  'correohotelnumero118@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 8  , 105  ,'1-4-20-7-10-12-19'  , '9-10-11-6-14'  , '24-20-10-7-19'  ,  'dir1/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(1, '11111'  , 2  ,  'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:',  39,  'Hotel numero-1'  ,'direccion del hotel-1' , '315-315-3010'  ,'320-315-2015'  ,  'correohotelnumero102@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 8  , 111  ,'1-4-20-7-10-12-19'  , '9-10-11-6-14'  , '24-20-10-7-19'  ,  'dir1/imgHotel/' , 1);</v>
       </c>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
@@ -60098,7 +60209,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(2, '11112'  , 1  ,  'Habitacion con vista al mar amobladas',  39,  'Hotel numero-2'  ,'direccion del hotel-2' , '315-315-3031'  ,'320-315-2231'  ,  'correohotelnumero146@correo.com'  ,  '1-6'  , '1-2-3-4-5'  , 5  , 99  ,'2-10-17-11-9-3-8'  , '9-6-11-14'  , '16-6-5-20-19'  ,  'dir2/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(2, '11112'  , 1  ,  'Habitacion con vista al mar amobladas',  39,  'Hotel numero-2'  ,'direccion del hotel-2' , '315-315-3031'  ,'320-315-2231'  ,  'correohotelnumero198@correo.com'  ,  '1-6'  , '1-2-3-4-5'  , 4  , 70  ,'2-10-17-11-9-3-8'  , '9-6-11-14'  , '16-6-5-20-19'  ,  'dir2/imgHotel/' , 1);</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="11"/>
@@ -60132,7 +60243,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(3, '11113'  , 1  ,  'Hermosos paisajes de Antioquia',  39,  'Hotel numero-3'  ,'direccion del hotel-3' , '315-315-3052'  ,'320-315-2447'  ,  'correohotelnumero102@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 5  , 77  ,'3-4-6-11-15-5'  , '8-6-9-12-14'  , '17-2-21-15-14'  ,  'dir3/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(3, '11113'  , 1  ,  'Hermosos paisajes de Antioquia',  39,  'Hotel numero-3'  ,'direccion del hotel-3' , '315-315-3052'  ,'320-315-2447'  ,  'correohotelnumero145@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 4  , 67  ,'3-4-6-11-15-5'  , '8-6-9-12-14'  , '17-2-21-15-14'  ,  'dir3/imgHotel/' , 1);</v>
       </c>
       <c r="K54" s="91"/>
       <c r="L54" s="92"/>
@@ -60152,7 +60263,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(4, '11114'  , 2  ,  'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.',  39,  'Hotel numero-4'  ,'direccion del hotel-4' , '315-315-3073'  ,'320-315-2663'  ,  'correohotelnumero136@correo.com'  ,  '2-1'  , '1-2-3-4-5'  , 6  , 118  ,'4-2-18-20-8-9-14'  , '2-10-5-9'  , '15-9-13-4-3'  ,  'dir4/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(4, '11114'  , 2  ,  'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.',  39,  'Hotel numero-4'  ,'direccion del hotel-4' , '315-315-3073'  ,'320-315-2663'  ,  'correohotelnumero183@correo.com'  ,  '2-1'  , '1-2-3-4-5'  , 9  , 101  ,'4-2-18-20-8-9-14'  , '2-10-5-9'  , '15-9-13-4-3'  ,  'dir4/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.25">
@@ -60161,7 +60272,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(5, '11115'  , 1  ,  'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.',  39,  'Hotel numero-5'  ,'direccion del hotel-5' , '315-315-3094'  ,'320-315-2879'  ,  'correohotelnumero103@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 1  , 98  ,'5-20-10-4-19-6-13'  , '8-14-2-1-13'  , '15-8-19-3-22'  ,  'dir5/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(5, '11115'  , 1  ,  'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.',  39,  'Hotel numero-5'  ,'direccion del hotel-5' , '315-315-3094'  ,'320-315-2879'  ,  'correohotelnumero111@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 3  , 72  ,'5-20-10-4-19-6-13'  , '8-14-2-1-13'  , '15-8-19-3-22'  ,  'dir5/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.25">
@@ -60170,7 +60281,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(6, '11116'  , 1  ,  'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.',  39,  'Hotel numero-6'  ,'direccion del hotel-6' , '315-315-3115'  ,'320-315-3095'  ,  'correohotelnumero177@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 4  , 74  ,'6-4-13-14-10-20-19'  , '2-12-15-13-4'  , '15-2-3-18-13'  ,  'dir6/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(6, '11116'  , 2  ,  'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.',  39,  'Hotel numero-6'  ,'direccion del hotel-6' , '315-315-3115'  ,'320-315-3095'  ,  'correohotelnumero159@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 6  , 117  ,'6-4-13-14-10-20-19'  , '2-12-15-13-4'  , '15-2-3-18-13'  ,  'dir6/imgHotel/' , 1);</v>
       </c>
       <c r="P57" s="41"/>
     </row>
@@ -60181,7 +60292,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(7, '11117'  , 2  ,  'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.',  39,  'Hotel numero-7'  ,'direccion del hotel-7' , '315-315-3136'  ,'320-315-3311'  ,  'correohotelnumero101@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 3  , 112  ,'7-19-12-16-13-3-10'  , '13-12-14-7'  , '7-10-14-6'  ,  'dir7/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(7, '11117'  , 1  ,  'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.',  39,  'Hotel numero-7'  ,'direccion del hotel-7' , '315-315-3136'  ,'320-315-3311'  ,  'correohotelnumero122@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 5  , 74  ,'7-19-12-16-13-3-10'  , '13-12-14-7'  , '7-10-14-6'  ,  'dir7/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.25">
@@ -60191,7 +60302,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(8, '11118'  , 2  ,  'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ',  39,  'Hotel numero-8'  ,'direccion del hotel-8' , '315-315-3157'  ,'320-315-3527'  ,  'correohotelnumero133@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 4  , 104  ,'8-19-5-18-12-6-13'  , '3-14-15-13-6'  , '17-22-4-15'  ,  'dir8/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(8, '11118'  , 3  ,  'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ',  39,  'Hotel numero-8'  ,'direccion del hotel-8' , '315-315-3157'  ,'320-315-3527'  ,  'correohotelnumero159@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 3  , 192  ,'8-19-5-18-12-6-13'  , '3-14-15-13-6'  , '17-22-4-15'  ,  'dir8/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.25">
@@ -60201,7 +60312,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(9, '11119'  , 3  ,  ' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ',  39,  'Hotel numero-9'  ,'direccion del hotel-9' , '315-315-3178'  ,'320-315-3743'  ,  'correohotelnumero122@correo.com'  ,  '6'  , '1-2-3-4-5'  , 10  , 158  ,'9-3-16-1-4-7-10'  , '4-13-14-8-1'  , '21-1-4-9-14'  ,  'dir9/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(9, '11119'  , 1  ,  ' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ',  39,  'Hotel numero-9'  ,'direccion del hotel-9' , '315-315-3178'  ,'320-315-3743'  ,  'correohotelnumero122@correo.com'  ,  '6'  , '1-2-3-4-5'  , 5  , 98  ,'9-3-16-1-4-7-10'  , '4-13-14-8-1'  , '21-1-4-9-14'  ,  'dir9/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.25">
@@ -60214,7 +60325,7 @@
       </c>
       <c r="J61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(10, '11120'  , 3  ,  'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas',  39,  'Hotel numero-10'  ,'direccion del hotel-10' , '315-315-3199'  ,'320-315-3959'  ,  'correohotelnumero112@correo.com'  ,  '2-1'  , '1-2-3-4-5'  , 3  , 140  ,'10-9-7-1-17-8'  , '7-11-15-11'  , '10-11-22-1-8'  ,  'dir10/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(10, '11120'  , 2  ,  'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas',  39,  'Hotel numero-10'  ,'direccion del hotel-10' , '315-315-3199'  ,'320-315-3959'  ,  'correohotelnumero193@correo.com'  ,  '2-1'  , '1-2-3-4-5'  , 4  , 95  ,'10-9-7-1-17-8'  , '7-11-15-11'  , '10-11-22-1-8'  ,  'dir10/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.25">
@@ -60227,7 +60338,7 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(11, '11121'  , 2  ,  'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.',  39,  'Hotel numero-11'  ,'direccion del hotel-11' , '315-315-3220'  ,'320-315-4175'  ,  'correohotelnumero177@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 2  , 94  ,'11-3-14-9-15-2'  , '1-3-13-10-4'  , '14-22-11-18-24'  ,  'dir11/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(11, '11121'  , 1  ,  'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.',  39,  'Hotel numero-11'  ,'direccion del hotel-11' , '315-315-3220'  ,'320-315-4175'  ,  'correohotelnumero106@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 5  , 77  ,'11-3-14-9-15-2'  , '1-3-13-10-4'  , '14-22-11-18-24'  ,  'dir11/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="63" spans="2:28" x14ac:dyDescent="0.25">
@@ -60236,7 +60347,7 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(12, '11122'  , 2  ,  'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.',  39,  'Hotel numero-12'  ,'direccion del hotel-12' , '315-315-3241'  ,'320-315-4391'  ,  'correohotelnumero187@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 7  , 111  ,'12-17-20-2-15-1-11'  , '12-2-6-9-14'  , '10-4-2-3-12'  ,  'dir12/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(12, '11122'  , 1  ,  'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.',  39,  'Hotel numero-12'  ,'direccion del hotel-12' , '315-315-3241'  ,'320-315-4391'  ,  'correohotelnumero168@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 5  , 85  ,'12-17-20-2-15-1-11'  , '12-2-6-9-14'  , '10-4-2-3-12'  ,  'dir12/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="64" spans="2:28" x14ac:dyDescent="0.25">
@@ -60245,7 +60356,7 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(13, '11123'  , 3  ,  'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.',  39,  'Hotel numero-13'  ,'direccion del hotel-13' , '315-315-3262'  ,'320-315-4607'  ,  'correohotelnumero114@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 2  , 138  ,'13-8-2-17-1-10-14'  , '15-7-1-12-2'  , '10-13-7-21-11'  ,  'dir13/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(13, '11123'  , 2  ,  'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.',  39,  'Hotel numero-13'  ,'direccion del hotel-13' , '315-315-3262'  ,'320-315-4607'  ,  'correohotelnumero127@correo.com'  ,  '5-4'  , '1-2-3-4-5'  , 6  , 103  ,'13-8-2-17-1-10-14'  , '15-7-1-12-2'  , '10-13-7-21-11'  ,  'dir13/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
@@ -60254,7 +60365,7 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(14, '11124'  , 1  ,  'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.',  39,  'Hotel numero-14'  ,'direccion del hotel-14' , '315-315-3283'  ,'320-315-4823'  ,  'correohotelnumero160@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 3  , 84  ,'14-5-16-19-11-1-15'  , '15-7-11-4'  , '4-12-18-16-14'  ,  'dir14/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(14, '11124'  , 2  ,  'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.',  39,  'Hotel numero-14'  ,'direccion del hotel-14' , '315-315-3283'  ,'320-315-4823'  ,  'correohotelnumero186@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 5  , 92  ,'14-5-16-19-11-1-15'  , '15-7-11-4'  , '4-12-18-16-14'  ,  'dir14/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.25">
@@ -60263,7 +60374,7 @@
       </c>
       <c r="J66" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(15, '11125'  , 3  ,  'Parque Nacional Natural Amacayacu,  en el Amazonas, con más de 40 años de historia representa el 40% del Trapecio Amazónico y debido a su ecosistema de selva húmeda tropical cálida y bosques inundables',  39,  'Hotel numero-15'  ,'direccion del hotel-15' , '315-315-3304'  ,'320-315-5039'  ,  'correohotelnumero191@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 3  , 168  ,'15-10-6-13-17-12'  , '8-9-1-10-12'  , '2-8-21-1-12'  ,  'dir15/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(15, '11125'  , 3  ,  'Parque Nacional Natural Amacayacu,  en el Amazonas, con más de 40 años de historia representa el 40% del Trapecio Amazónico y debido a su ecosistema de selva húmeda tropical cálida y bosques inundables',  39,  'Hotel numero-15'  ,'direccion del hotel-15' , '315-315-3304'  ,'320-315-5039'  ,  'correohotelnumero196@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 7  , 243  ,'15-10-6-13-17-12'  , '8-9-1-10-12'  , '2-8-21-1-12'  ,  'dir15/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.25">
@@ -60272,7 +60383,7 @@
       </c>
       <c r="J67" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(16, '11126'  , 1  ,  'Parque Nacional Natural Farallones de Cali, son formaciones rocosas que se encuentran en la Cordillera Occidental de los Andes. Si tu elección es la vertiente oriental, la recomendación es ir en enero y marzo y luego de julio a agosto.',  39,  'Hotel numero-16'  ,'direccion del hotel-16' , '315-315-3325'  ,'320-315-5255'  ,  'correohotelnumero111@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 5  , 94  ,'16-9-12-2-14-1'  , '11-9-7-10-5'  , '7-22-19-4-5'  ,  'dir16/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(16, '11126'  , 2  ,  'Parque Nacional Natural Farallones de Cali, son formaciones rocosas que se encuentran en la Cordillera Occidental de los Andes. Si tu elección es la vertiente oriental, la recomendación es ir en enero y marzo y luego de julio a agosto.',  39,  'Hotel numero-16'  ,'direccion del hotel-16' , '315-315-3325'  ,'320-315-5255'  ,  'correohotelnumero140@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 7  , 115  ,'16-9-12-2-14-1'  , '11-9-7-10-5'  , '7-22-19-4-5'  ,  'dir16/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.25">
@@ -60281,7 +60392,7 @@
       </c>
       <c r="J68" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(17, '11127'  , 2  ,  'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.',  39,  'Hotel numero-17'  ,'direccion del hotel-17' , '315-315-3346'  ,'320-315-5471'  ,  'correohotelnumero169@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 8  , 109  ,'17-7-16-18-3-10'  , '7-10-12-5-14'  , '11-22-14-6-15'  ,  'dir17/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(17, '11127'  , 2  ,  'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.',  39,  'Hotel numero-17'  ,'direccion del hotel-17' , '315-315-3346'  ,'320-315-5471'  ,  'correohotelnumero149@correo.com'  ,  '6-1'  , '1-2-3-4-5'  , 4  , 103  ,'17-7-16-18-3-10'  , '7-10-12-5-14'  , '11-22-14-6-15'  ,  'dir17/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="69" spans="9:10" x14ac:dyDescent="0.25">
@@ -60290,7 +60401,7 @@
       </c>
       <c r="J69" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(18, '11128'  , 3  ,  'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.',  39,  'Hotel numero-18'  ,'direccion del hotel-18' , '315-315-3367'  ,'320-315-5687'  ,  'correohotelnumero185@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 10  , 169  ,'18-15-9-14-10-3-12'  , '15-6-8-2-11'  , '5-15-13-24-23'  ,  'dir18/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(18, '11128'  , 2  ,  'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.',  39,  'Hotel numero-18'  ,'direccion del hotel-18' , '315-315-3367'  ,'320-315-5687'  ,  'correohotelnumero162@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 8  , 98  ,'18-15-9-14-10-3-12'  , '15-6-8-2-11'  , '5-15-13-24-23'  ,  'dir18/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="70" spans="9:10" x14ac:dyDescent="0.25">
@@ -60299,8 +60410,8 @@
       </c>
       <c r="J70" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(19, '11129'  , 2  ,  'Reserva Natural Cañón del Río Claro
-Ubicado en Antioquia, la biodiversidad de esta región es conocida como la cuenca media del Río Magdalena, además está situada en el piedemonte oriental de la Cordillera Central colombiana.',  39,  'Hotel numero-19'  ,'direccion del hotel-19' , '315-315-3388'  ,'320-315-5903'  ,  'correohotelnumero119@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 1  , 112  ,'19-11-2-3-4-7-10'  , '4-13-14-1-12'  , '2-23-8-20-18'  ,  'dir19/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(19, '11129'  , 3  ,  'Reserva Natural Cañón del Río Claro
+Ubicado en Antioquia, la biodiversidad de esta región es conocida como la cuenca media del Río Magdalena, además está situada en el piedemonte oriental de la Cordillera Central colombiana.',  39,  'Hotel numero-19'  ,'direccion del hotel-19' , '315-315-3388'  ,'320-315-5903'  ,  'correohotelnumero178@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 3  , 230  ,'19-11-2-3-4-7-10'  , '4-13-14-1-12'  , '2-23-8-20-18'  ,  'dir19/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="71" spans="9:10" x14ac:dyDescent="0.25">
@@ -60309,7 +60420,7 @@
       </c>
       <c r="J71" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>insert into `Tborganizacion`  values(20, '11130'  , 3  ,  'Parque Nacional Natural Las Orquídeas,  sus variados paisajes, además de una gran biodiversidad de ecosistemas, abundantes orquídeas y otras especies asociadas.',  39,  'Hotel numero-20'  ,'direccion del hotel-20' , '315-315-3409'  ,'320-315-6119'  ,  'correohotelnumero128@correo.com'  ,  '2-4'  , '1-2-3-4-5'  , 10  , 235  ,'20-12-7-5-4-18'  , '14-10-3-5-15'  , '20-18-14-3'  ,  'dir20/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(20, '11130'  , 1  ,  'Parque Nacional Natural Las Orquídeas,  sus variados paisajes, además de una gran biodiversidad de ecosistemas, abundantes orquídeas y otras especies asociadas.',  39,  'Hotel numero-20'  ,'direccion del hotel-20' , '315-315-3409'  ,'320-315-6119'  ,  'correohotelnumero153@correo.com'  ,  '2-4'  , '1-2-3-4-5'  , 2  , 52  ,'20-12-7-5-4-18'  , '14-10-3-5-15'  , '20-18-14-3'  ,  'dir20/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="72" spans="9:10" x14ac:dyDescent="0.25">
@@ -60318,7 +60429,7 @@
       </c>
       <c r="J72" t="str">
         <f t="shared" ref="J72:J87" ca="1" si="6">$E$4&amp;J25&amp;", '"&amp;K25&amp;"'  , "&amp;L25&amp;"  ,  '"&amp;M25&amp;"',  "&amp;N25&amp;",  '"&amp;O25&amp;"'  ,'"&amp;P25&amp;"' , '"&amp;Q25&amp;"'  ,'"&amp;R25&amp;"'  ,  '"&amp;S25&amp;"'  ,  '"&amp;T25&amp;"'  , '"&amp;U25&amp;"'  , "&amp;V25&amp;"  , "&amp;W25&amp;"  ,'"&amp;X25&amp;"'  , '"&amp;Y25&amp;"'  , '"&amp;Z25&amp;"'  ,  '"&amp;AA25&amp;"' , "&amp;AB25&amp;");"</f>
-        <v>insert into `Tborganizacion`  values(21, '11131'  , 3  ,  'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:',  39,  'Hotel numero-21'  ,'direccion del hotel-21' , '315-315-3410'  ,'320-315-6120'  ,  'correohotelnumero187@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 5  , 213  ,'5-16-20-15-21'  , '14-10-3-5-16'  , '20-18-14-4'  ,  'dir21/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(21, '11131'  , 2  ,  'Situada en la vía Tocaima – Viotá y está especialmente diseñada para descansar y descomunicarse del mundo exterior, gozando de una piscina cómoda, mangos y limones propios de la finca. La cabaña cuenta con las siguientes características:',  39,  'Hotel numero-21'  ,'direccion del hotel-21' , '315-315-3410'  ,'320-315-6120'  ,  'correohotelnumero166@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 5  , 90  ,'5-16-20-15-21'  , '14-10-3-5-16'  , '20-18-14-4'  ,  'dir21/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="73" spans="9:10" x14ac:dyDescent="0.25">
@@ -60327,7 +60438,7 @@
       </c>
       <c r="J73" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(22, '11132'  , 2  ,  'Habitacion con vista al mar amobladas',  39,  'Hotel numero-22'  ,'direccion del hotel-22' , '315-315-3411'  ,'320-315-6121'  ,  'correohotelnumero147@correo.com'  ,  '3-5'  , '1-2-3-4-5'  , 7  , 101  ,'2-10-19-16-17'  , '14-10-3-5-17'  , '20-18-14-5'  ,  'dir22/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(22, '11132'  , 1  ,  'Habitacion con vista al mar amobladas',  39,  'Hotel numero-22'  ,'direccion del hotel-22' , '315-315-3411'  ,'320-315-6121'  ,  'correohotelnumero175@correo.com'  ,  '3-5'  , '1-2-3-4-5'  , 5  , 78  ,'2-10-19-16-17'  , '14-10-3-5-17'  , '20-18-14-5'  ,  'dir22/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="74" spans="9:10" x14ac:dyDescent="0.25">
@@ -60336,7 +60447,7 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(23, '11133'  , 3  ,  'Hermosos paisajes de Antioquia',  39,  'Hotel numero-23'  ,'direccion del hotel-23' , '315-315-3412'  ,'320-315-6122'  ,  'correohotelnumero168@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 2  , 149  ,'3-16-19-12-21'  , '14-10-3-5-18'  , '20-18-14-6'  ,  'dir23/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(23, '11133'  , 1  ,  'Hermosos paisajes de Antioquia',  39,  'Hotel numero-23'  ,'direccion del hotel-23' , '315-315-3412'  ,'320-315-6122'  ,  'correohotelnumero153@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 3  , 61  ,'3-16-19-12-21'  , '14-10-3-5-18'  , '20-18-14-6'  ,  'dir23/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="75" spans="9:10" x14ac:dyDescent="0.25">
@@ -60345,7 +60456,7 @@
       </c>
       <c r="J75" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(24, '11134'  , 2  ,  'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.',  39,  'Hotel numero-24'  ,'direccion del hotel-24' , '315-315-3413'  ,'320-315-6123'  ,  'correohotelnumero129@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 7  , 90  ,'5-18-21-14-1'  , '14-10-3-5-19'  , '20-18-14-7'  ,  'dir24/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(24, '11134'  , 2  ,  'El Bleu Hills Glamping Llanogrande está situado en Rionegro, en la región de Antioquia, y ofrece alojamiento con aparcamiento privado gratuito y acceso a una bañera de hidromasaje.',  39,  'Hotel numero-24'  ,'direccion del hotel-24' , '315-315-3413'  ,'320-315-6123'  ,  'correohotelnumero169@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 1  , 95  ,'5-18-21-14-1'  , '14-10-3-5-19'  , '20-18-14-7'  ,  'dir24/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="76" spans="9:10" x14ac:dyDescent="0.25">
@@ -60354,7 +60465,7 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(25, '11135'  , 2  ,  'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.',  39,  'Hotel numero-25'  ,'direccion del hotel-25' , '315-315-3414'  ,'320-315-6124'  ,  'correohotelnumero194@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 3  , 95  ,'8-17-18-15-2'  , '14-10-3-5-20'  , '20-18-14-8'  ,  'dir25/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(25, '11135'  , 2  ,  'El Chalet Ecoturismo La Nohelia, situado en Jericó, rodeado por los cultivos de café famosos de la zona, ofrece restaurante y préstamo de bicicletas.',  39,  'Hotel numero-25'  ,'direccion del hotel-25' , '315-315-3414'  ,'320-315-6124'  ,  'correohotelnumero120@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 9  , 113  ,'8-17-18-15-2'  , '14-10-3-5-20'  , '20-18-14-8'  ,  'dir25/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="77" spans="9:10" x14ac:dyDescent="0.25">
@@ -60363,7 +60474,7 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(26, '11136'  , 1  ,  'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.',  39,  'Hotel numero-26'  ,'direccion del hotel-26' , '315-315-3415'  ,'320-315-6125'  ,  'correohotelnumero189@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 1  , 98  ,'3-12-19-15-20'  , '14-10-3-5-21'  , '20-18-14-9'  ,  'dir26/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(26, '11136'  , 2  ,  'El Santa Fé Hostel se encuentra a 3,8 km del parque acuático Kanaloa. El camping proporciona WiFi gratuita. El aeropuerto Olaya Herrera, el más cercano, está a 62 km del camping.',  39,  'Hotel numero-26'  ,'direccion del hotel-26' , '315-315-3415'  ,'320-315-6125'  ,  'correohotelnumero119@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 10  , 115  ,'3-12-19-15-20'  , '14-10-3-5-21'  , '20-18-14-9'  ,  'dir26/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="78" spans="9:10" x14ac:dyDescent="0.25">
@@ -60372,7 +60483,7 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(27, '11137'  , 3  ,  'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.',  39,  'Hotel numero-27'  ,'direccion del hotel-27' , '315-315-3416'  ,'320-315-6126'  ,  'correohotelnumero162@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 9  , 234  ,'4-13-21-14-17'  , '14-10-3-5-22'  , '20-18-14-10'  ,  'dir27/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(27, '11137'  , 2  ,  'El Aguayacanes se encuentra en San Rafael y ofrece un jardín. Guatapé se encuentra a 15 km del camping, mientras que Barbosa está a 38 km.',  39,  'Hotel numero-27'  ,'direccion del hotel-27' , '315-315-3416'  ,'320-315-6126'  ,  'correohotelnumero118@correo.com'  ,  '2-6'  , '1-2-3-4-5'  , 3  , 105  ,'4-13-21-14-17'  , '14-10-3-5-22'  , '20-18-14-10'  ,  'dir27/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="79" spans="9:10" x14ac:dyDescent="0.25">
@@ -60381,7 +60492,7 @@
       </c>
       <c r="J79" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(28, '11138'  , 1  ,  'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ',  39,  'Hotel numero-28'  ,'direccion del hotel-28' , '315-315-3417'  ,'320-315-6127'  ,  'correohotelnumero156@correo.com'  ,  '3-5'  , '1-2-3-4-5'  , 2  , 60  ,'5-18-2-17-1'  , '14-10-3-5-23'  , '20-18-14-11'  ,  'dir28/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(28, '11138'  , 2  ,  'Colombia cuenta con un sistema de Parques Nacionales Naturales que permite al visitante apreciar la majestuosidad de nuestra geografía, así como la riqueza de nuestra fauna y flora. Conoce algunas curiosidades de Colombia ',  39,  'Hotel numero-28'  ,'direccion del hotel-28' , '315-315-3417'  ,'320-315-6127'  ,  'correohotelnumero109@correo.com'  ,  '3-5'  , '1-2-3-4-5'  , 3  , 103  ,'5-18-2-17-1'  , '14-10-3-5-23'  , '20-18-14-11'  ,  'dir28/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="80" spans="9:10" x14ac:dyDescent="0.25">
@@ -60390,7 +60501,7 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(29, '11139'  , 1  ,  ' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ',  39,  'Hotel numero-29'  ,'direccion del hotel-29' , '315-315-3418'  ,'320-315-6128'  ,  'correohotelnumero132@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 4  , 72  ,'2-14-21-15-18'  , '14-10-3-5-24'  , '20-18-14-12'  ,  'dir29/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(29, '11139'  , 1  ,  ' El primer Parque Nacional Natural de Colombia fue La Cueva de los Guácharos, declarado el 9 de noviembre de 1960. Por esa razón, en esta fecha se celebra el Día de los Parques Naturales en nuestro país. ',  39,  'Hotel numero-29'  ,'direccion del hotel-29' , '315-315-3418'  ,'320-315-6128'  ,  'correohotelnumero144@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 1  , 59  ,'2-14-21-15-18'  , '14-10-3-5-24'  , '20-18-14-12'  ,  'dir29/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="81" spans="9:10" x14ac:dyDescent="0.25">
@@ -60399,7 +60510,7 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(30, '11140'  , 1  ,  'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas',  39,  'Hotel numero-30'  ,'direccion del hotel-30' , '315-315-3419'  ,'320-315-6129'  ,  'correohotelnumero154@correo.com'  ,  '2-4'  , '1-2-3-4-5'  , 3  , 51  ,'7-16-19-11-18'  , '14-10-3-5-25'  , '20-18-14-13'  ,  'dir30/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(30, '11140'  , 3  ,  'El Parque Nacional Natural Uramba Bahía Málaga.  se ubica en las costas del pacífico colombiano y es reconocido internacionalmente por ser un privilegiado escenario para apreciar la migración de ballenas jorobadas',  39,  'Hotel numero-30'  ,'direccion del hotel-30' , '315-315-3419'  ,'320-315-6129'  ,  'correohotelnumero104@correo.com'  ,  '2-4'  , '1-2-3-4-5'  , 2  , 126  ,'7-16-19-11-18'  , '14-10-3-5-25'  , '20-18-14-13'  ,  'dir30/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="82" spans="9:10" x14ac:dyDescent="0.25">
@@ -60408,7 +60519,7 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(31, '11141'  , 2  ,  'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.',  39,  'Hotel numero-31'  ,'direccion del hotel-31' , '315-315-3420'  ,'320-315-6130'  ,  'correohotelnumero145@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 10  , 100  ,'1-13-18-15-21'  , '14-10-3-5-26'  , '20-18-14-14'  ,  'dir31/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(31, '11141'  , 2  ,  'El Parque Las Orquídeas se presenta como uno de los lugares ideales para observar nuestra diversidad de flora y fauna.',  39,  'Hotel numero-31'  ,'direccion del hotel-31' , '315-315-3420'  ,'320-315-6130'  ,  'correohotelnumero188@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 2  , 93  ,'1-13-18-15-21'  , '14-10-3-5-26'  , '20-18-14-14'  ,  'dir31/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="83" spans="9:10" x14ac:dyDescent="0.25">
@@ -60417,7 +60528,7 @@
       </c>
       <c r="J83" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(32, '11142'  , 3  ,  'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.',  39,  'Hotel numero-32'  ,'direccion del hotel-32' , '315-315-3421'  ,'320-315-6131'  ,  'correohotelnumero165@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 7  , 192  ,'8-15-18-2-21'  , '14-10-3-5-27'  , '20-18-14-15'  ,  'dir32/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(32, '11142'  , 1  ,  'Las 15.000 hectáreas del Parque Natural Nacional Tayrona ofrecen al visitante una paradisíaca combinación de naturaleza, historia precolombina, aventura y relajación.',  39,  'Hotel numero-32'  ,'direccion del hotel-32' , '315-315-3421'  ,'320-315-6131'  ,  'correohotelnumero112@correo.com'  ,  '3-4'  , '1-2-3-4-5'  , 1  , 74  ,'8-15-18-2-21'  , '14-10-3-5-27'  , '20-18-14-15'  ,  'dir32/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="84" spans="9:10" x14ac:dyDescent="0.25">
@@ -60426,7 +60537,7 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(33, '11143'  , 3  ,  'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.',  39,  'Hotel numero-33'  ,'direccion del hotel-33' , '315-315-3422'  ,'320-315-6132'  ,  'correohotelnumero110@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 2  , 141  ,'3-18-20-13-1'  , '14-10-3-5-28'  , '20-18-14-16'  ,  'dir33/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(33, '11143'  , 3  ,  'La Playa La Aguada, ubicada en el Parque Natural Utría, es la primera playa de Colombia con certificación en turismo sostenible.',  39,  'Hotel numero-33'  ,'direccion del hotel-33' , '315-315-3422'  ,'320-315-6132'  ,  'correohotelnumero195@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 2  , 130  ,'3-18-20-13-1'  , '14-10-3-5-28'  , '20-18-14-16'  ,  'dir33/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="85" spans="9:10" x14ac:dyDescent="0.25">
@@ -60435,7 +60546,7 @@
       </c>
       <c r="J85" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(34, '11144'  , 2  ,  'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.',  39,  'Hotel numero-34'  ,'direccion del hotel-34' , '315-315-3423'  ,'320-315-6133'  ,  'correohotelnumero197@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 5  , 117  ,'5-11-18-14-20'  , '14-10-3-5-29'  , '20-18-14-17'  ,  'dir34/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(34, '11144'  , 2  ,  'Colombia es uno de los países con más biodiversidad en el mundo, los colores, la fauna y la flora que lo caracterizan son motivo de orgullo.',  39,  'Hotel numero-34'  ,'direccion del hotel-34' , '315-315-3423'  ,'320-315-6133'  ,  'correohotelnumero114@correo.com'  ,  '3-6'  , '1-2-3-4-5'  , 4  , 110  ,'5-11-18-14-20'  , '14-10-3-5-29'  , '20-18-14-17'  ,  'dir34/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="86" spans="9:10" x14ac:dyDescent="0.25">
@@ -60444,7 +60555,7 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(35, '11145'  , 1  ,  'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.',  39,  'Hotel numero-35'  ,'direccion del hotel-35' , '315-315-3424'  ,'320-315-6134'  ,  'correohotelnumero196@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 3  , 78  ,'4-13-19-1-20'  , '14-10-3-5-30'  , '20-18-14-18'  ,  'dir35/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(35, '11145'  , 2  ,  'Santuario de Fauna y Flora Otún Quimbaya, Ubicado en el flanco occidental de la Cordillera Central, en el departamento de Risaralda, el Santuario de Fauna y Flora Otún Quimbaya es un destino ecoturístico del Paisaje Cultural Cafetero.',  39,  'Hotel numero-35'  ,'direccion del hotel-35' , '315-315-3424'  ,'320-315-6134'  ,  'correohotelnumero117@correo.com'  ,  '1-4'  , '1-2-3-4-5'  , 1  , 93  ,'4-13-19-1-20'  , '14-10-3-5-30'  , '20-18-14-18'  ,  'dir35/imgHotel/' , 1);</v>
       </c>
     </row>
     <row r="87" spans="9:10" x14ac:dyDescent="0.25">
@@ -60453,7 +60564,7 @@
       </c>
       <c r="J87" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>insert into `Tborganizacion`  values(36, '11146'  , 3  ,  'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.',  39,  'Hotel numero-36'  ,'direccion del hotel-36' , '315-315-3425'  ,'320-315-6135'  ,  'correohotelnumero188@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 5  , 162  ,'7-15-20-10-19'  , '14-10-3-5-31'  , '20-18-14-19'  ,  'dir36/imgHotel/' , 1);</v>
+        <v>insert into `Tborganizacion`  values(36, '11146'  , 1  ,  'Parque Nacional Natural Tatamá,  podrás conocer tres importantes páramos colombianos, el Tatamá, el Frontino y el Duende, sin duda será una experiencia invaluable que te hará disfrutar de la biodiversidad colombiana.',  39,  'Hotel numero-36'  ,'direccion del hotel-36' , '315-315-3425'  ,'320-315-6135'  ,  'correohotelnumero149@correo.com'  ,  '1-5'  , '1-2-3-4-5'  , 3  , 85  ,'7-15-20-10-19'  , '14-10-3-5-31'  , '20-18-14-19'  ,  'dir36/imgHotel/' , 1);</v>
       </c>
     </row>
   </sheetData>
@@ -60503,7 +60614,7 @@
     <row r="8" spans="5:8" x14ac:dyDescent="0.25">
       <c r="H8" t="str">
         <f ca="1">CONCATENATE("correohotelnumero",RANDBETWEEN(100,200),"@correo.com")</f>
-        <v>correohotelnumero199@correo.com</v>
+        <v>correohotelnumero173@correo.com</v>
       </c>
     </row>
     <row r="12" spans="5:8" x14ac:dyDescent="0.25">
